--- a/NET.xlsx
+++ b/NET.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8F874A-50AD-2E47-96B1-B8EEAB07696C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAEFBC-CF84-B349-A863-8BCCAC862EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26700" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18920" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
   <si>
     <t>Q117</t>
   </si>
@@ -220,13 +220,7 @@
     <t>Expected return on invested capital (innovation grade)</t>
   </si>
   <si>
-    <t>DAU</t>
-  </si>
-  <si>
     <t>ARPU</t>
-  </si>
-  <si>
-    <t>DAU y/y</t>
   </si>
   <si>
     <t>ARPU y/y</t>
@@ -253,12 +247,6 @@
     <t>Q420</t>
   </si>
   <si>
-    <t>BADWILL</t>
-  </si>
-  <si>
-    <t>Intangibles per share</t>
-  </si>
-  <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
@@ -268,28 +256,7 @@
     <t>Net present value on future net income (terminal value)</t>
   </si>
   <si>
-    <t>RORC</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
-    <t>Return on research capital</t>
-  </si>
-  <si>
-    <t>Price to R&amp;D ratio</t>
-  </si>
-  <si>
     <t>Products</t>
-  </si>
-  <si>
-    <t>389-393</t>
-  </si>
-  <si>
-    <t>94-95</t>
-  </si>
-  <si>
-    <t>87-88</t>
   </si>
   <si>
     <t>2019-09-31</t>
@@ -315,14 +282,24 @@
   <si>
     <t>https://www.cloudflare.com/</t>
   </si>
+  <si>
+    <t>Paying customers</t>
+  </si>
+  <si>
+    <t>Paying customers y/y</t>
+  </si>
+  <si>
+    <t>Q320</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -421,7 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,13 +494,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -532,12 +502,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -570,15 +534,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -598,6 +553,38 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -631,7 +618,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -679,16 +666,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238990</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>238990</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -703,8 +690,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19024600" y="152400"/>
-          <a:ext cx="0" cy="9105900"/>
+          <a:off x="14255172" y="152400"/>
+          <a:ext cx="0" cy="8564418"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -994,13 +981,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GQ64"/>
+  <dimension ref="A1:GQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J45" sqref="J45"/>
+      <selection pane="bottomRight" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1010,11 +997,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:116" x14ac:dyDescent="0.15">
@@ -1022,16 +1009,16 @@
         <v>40</v>
       </c>
       <c r="C2" s="4">
-        <v>28.04</v>
-      </c>
-      <c r="D2" s="74">
-        <v>43970</v>
+        <v>76.66</v>
+      </c>
+      <c r="D2" s="66">
+        <v>44225</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="7">
-        <v>-5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I2" s="16"/>
       <c r="L2" s="2"/>
@@ -1044,11 +1031,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!N21</f>
-        <v>296.077</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>67</v>
+        <f>Reports!P21</f>
+        <v>301.68900000000002</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>83</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
@@ -1062,30 +1049,29 @@
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A4" s="76" t="s">
-        <v>88</v>
+      <c r="A4" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>8301.9990799999996</v>
-      </c>
-      <c r="D4" s="75"/>
+        <v>23127.478740000002</v>
+      </c>
+      <c r="D4" s="67"/>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="7">
-        <f>6%</f>
         <v>0.06</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I4" s="20"/>
       <c r="L4" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:116" x14ac:dyDescent="0.15">
@@ -1093,21 +1079,21 @@
         <v>22</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!N33</f>
-        <v>588</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>67</v>
+        <f>Reports!P33</f>
+        <v>676</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>83</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,F26:GQ26)</f>
-        <v>9883.1406910934184</v>
+        <v>29876.552008743143</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I5" s="20"/>
     </row>
@@ -1120,40 +1106,40 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>7713.9990799999996</v>
-      </c>
-      <c r="D6" s="75"/>
+        <v>22451.478740000002</v>
+      </c>
+      <c r="D6" s="67"/>
       <c r="E6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>10471.140691093418</v>
+        <v>30552.552008743143</v>
       </c>
       <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A7" s="76" t="s">
-        <v>88</v>
+      <c r="A7" s="68" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="50">
+      <c r="C7" s="47">
         <f>C6/C3</f>
-        <v>26.054030134052965</v>
-      </c>
-      <c r="D7" s="75"/>
+        <v>74.419281909516087</v>
+      </c>
+      <c r="D7" s="67"/>
       <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="46">
         <f>F6/C3</f>
-        <v>35.366275296944437</v>
+        <v>101.27168046810836</v>
       </c>
       <c r="G7" s="20">
         <f>F7/C2-1</f>
-        <v>0.26127943284395294</v>
+        <v>0.32104983652632879</v>
       </c>
     </row>
     <row r="8" spans="1:116" x14ac:dyDescent="0.15">
@@ -1335,7 +1321,7 @@
     </row>
     <row r="10" spans="1:116" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="24">
         <v>84.790999999999997</v>
@@ -1353,24 +1339,24 @@
         <v>287.02200000000005</v>
       </c>
       <c r="F10" s="41">
-        <f>E10*1.35</f>
-        <v>387.47970000000009</v>
+        <f>E10*1.45</f>
+        <v>416.18190000000004</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" ref="G10:J10" si="1">F10*1.35</f>
-        <v>523.09759500000018</v>
+        <f t="shared" ref="G10:J10" si="1">F10*1.45</f>
+        <v>603.46375499999999</v>
       </c>
       <c r="H10" s="41">
         <f t="shared" si="1"/>
-        <v>706.18175325000027</v>
+        <v>875.02244474999998</v>
       </c>
       <c r="I10" s="41">
         <f t="shared" si="1"/>
-        <v>953.3453668875004</v>
+        <v>1268.7825448874999</v>
       </c>
       <c r="J10" s="41">
         <f t="shared" si="1"/>
-        <v>1287.0162452981256</v>
+        <v>1839.7346900868747</v>
       </c>
       <c r="K10" s="41"/>
       <c r="L10" s="41"/>
@@ -1596,333 +1582,375 @@
       <c r="DK11" s="42"/>
       <c r="DL11" s="42"/>
     </row>
-    <row r="12" spans="1:116" s="16" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:116" s="79" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81">
+        <f>Reports!I5</f>
+        <v>6.7899000000000001E-2</v>
+      </c>
+      <c r="E12" s="81">
+        <f>Reports!M5</f>
+        <v>8.2881999999999997E-2</v>
+      </c>
+      <c r="F12" s="81">
+        <f>Reports!Q5</f>
+        <v>0.1036025</v>
+      </c>
+      <c r="G12" s="81">
+        <f>F12*1.25</f>
+        <v>0.129503125</v>
+      </c>
+      <c r="H12" s="81">
+        <f t="shared" ref="H12:J12" si="2">G12*1.25</f>
+        <v>0.16187890625000001</v>
+      </c>
+      <c r="I12" s="81">
+        <f t="shared" si="2"/>
+        <v>0.20234863281250001</v>
+      </c>
+      <c r="J12" s="81">
+        <f t="shared" si="2"/>
+        <v>0.25293579101562502</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="81"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
+      <c r="AZ12" s="81"/>
+      <c r="BA12" s="81"/>
+      <c r="BB12" s="81"/>
+      <c r="BC12" s="81"/>
+      <c r="BD12" s="81"/>
+      <c r="BE12" s="81"/>
+      <c r="BF12" s="81"/>
+      <c r="BG12" s="81"/>
+      <c r="BH12" s="81"/>
+      <c r="BI12" s="81"/>
+      <c r="BJ12" s="81"/>
+      <c r="BK12" s="81"/>
+      <c r="BL12" s="81"/>
+      <c r="BM12" s="81"/>
+      <c r="BN12" s="81"/>
+      <c r="BO12" s="81"/>
+      <c r="BP12" s="81"/>
+      <c r="BQ12" s="81"/>
+      <c r="BR12" s="81"/>
+      <c r="BS12" s="81"/>
+      <c r="BT12" s="81"/>
+      <c r="BU12" s="81"/>
+      <c r="BV12" s="81"/>
+      <c r="BW12" s="81"/>
+      <c r="BX12" s="81"/>
+      <c r="BY12" s="81"/>
+      <c r="BZ12" s="81"/>
+      <c r="CA12" s="81"/>
+      <c r="CB12" s="81"/>
+      <c r="CC12" s="81"/>
+      <c r="CD12" s="81"/>
+      <c r="CE12" s="81"/>
+      <c r="CF12" s="81"/>
+      <c r="CG12" s="81"/>
+      <c r="CH12" s="81"/>
+      <c r="CI12" s="81"/>
+      <c r="CJ12" s="81"/>
+      <c r="CK12" s="81"/>
+      <c r="CL12" s="81"/>
+      <c r="CM12" s="81"/>
+      <c r="CN12" s="81"/>
+      <c r="CO12" s="81"/>
+      <c r="CP12" s="81"/>
+      <c r="CQ12" s="81"/>
+      <c r="CR12" s="81"/>
+      <c r="CS12" s="81"/>
+      <c r="CT12" s="81"/>
+      <c r="CU12" s="81"/>
+      <c r="CV12" s="81"/>
+      <c r="CW12" s="81"/>
+      <c r="CX12" s="81"/>
+      <c r="CY12" s="81"/>
+      <c r="CZ12" s="81"/>
+      <c r="DA12" s="81"/>
+      <c r="DB12" s="81"/>
+      <c r="DC12" s="81"/>
+      <c r="DD12" s="81"/>
+      <c r="DE12" s="81"/>
+      <c r="DF12" s="81"/>
+      <c r="DG12" s="81"/>
+      <c r="DH12" s="81"/>
+      <c r="DI12" s="81"/>
+      <c r="DJ12" s="81"/>
+      <c r="DK12" s="81"/>
+      <c r="DL12" s="81"/>
+    </row>
+    <row r="13" spans="1:116" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BR12" s="41"/>
-      <c r="BS12" s="41"/>
-      <c r="BT12" s="41"/>
-      <c r="BU12" s="41"/>
-      <c r="BV12" s="41"/>
-      <c r="BW12" s="41"/>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="41"/>
-      <c r="CA12" s="41"/>
-      <c r="CB12" s="41"/>
-      <c r="CC12" s="41"/>
-      <c r="CD12" s="41"/>
-      <c r="CE12" s="41"/>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="41"/>
-      <c r="CH12" s="41"/>
-      <c r="CI12" s="41"/>
-      <c r="CJ12" s="41"/>
-      <c r="CK12" s="41"/>
-      <c r="CL12" s="41"/>
-      <c r="CM12" s="41"/>
-      <c r="CN12" s="41"/>
-      <c r="CO12" s="41"/>
-      <c r="CP12" s="41"/>
-      <c r="CQ12" s="41"/>
-      <c r="CR12" s="41"/>
-      <c r="CS12" s="41"/>
-      <c r="CT12" s="41"/>
-      <c r="CU12" s="41"/>
-      <c r="CV12" s="41"/>
-      <c r="CW12" s="41"/>
-      <c r="CX12" s="41"/>
-      <c r="CY12" s="41"/>
-      <c r="CZ12" s="41"/>
-      <c r="DA12" s="41"/>
-      <c r="DB12" s="41"/>
-      <c r="DC12" s="41"/>
-      <c r="DD12" s="41"/>
-      <c r="DE12" s="41"/>
-      <c r="DF12" s="41"/>
-      <c r="DG12" s="41"/>
-      <c r="DH12" s="41"/>
-      <c r="DI12" s="41"/>
-      <c r="DJ12" s="41"/>
-      <c r="DK12" s="41"/>
-      <c r="DL12" s="41"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="57">
+        <f>SUM(D10)/D12</f>
+        <v>2840.2480154346895</v>
+      </c>
+      <c r="E13" s="57">
+        <f>SUM(E10)/E12</f>
+        <v>3463.0197147752233</v>
+      </c>
+      <c r="F13" s="57">
+        <f>SUM(F10)/F12</f>
+        <v>4017.1028691392585</v>
+      </c>
+      <c r="G13" s="41">
+        <f>F13*1.1</f>
+        <v>4418.8131560531847</v>
+      </c>
+      <c r="H13" s="41">
+        <f t="shared" ref="H13:J13" si="3">G13*1.1</f>
+        <v>4860.694471658504</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" si="3"/>
+        <v>5346.7639188243547</v>
+      </c>
+      <c r="J13" s="41">
+        <f t="shared" si="3"/>
+        <v>5881.440310706791</v>
+      </c>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="41"/>
+      <c r="AU13" s="41"/>
+      <c r="AV13" s="41"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="41"/>
+      <c r="BE13" s="41"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
+      <c r="BL13" s="41"/>
+      <c r="BM13" s="41"/>
+      <c r="BN13" s="41"/>
+      <c r="BO13" s="41"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="41"/>
+      <c r="BR13" s="41"/>
+      <c r="BS13" s="41"/>
+      <c r="BT13" s="41"/>
+      <c r="BU13" s="41"/>
+      <c r="BV13" s="41"/>
+      <c r="BW13" s="41"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CA13" s="41"/>
+      <c r="CB13" s="41"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="41"/>
+      <c r="CE13" s="41"/>
+      <c r="CF13" s="41"/>
+      <c r="CG13" s="41"/>
+      <c r="CH13" s="41"/>
+      <c r="CI13" s="41"/>
+      <c r="CJ13" s="41"/>
+      <c r="CK13" s="41"/>
+      <c r="CL13" s="41"/>
+      <c r="CM13" s="41"/>
+      <c r="CN13" s="41"/>
+      <c r="CO13" s="41"/>
+      <c r="CP13" s="41"/>
+      <c r="CQ13" s="41"/>
+      <c r="CR13" s="41"/>
+      <c r="CS13" s="41"/>
+      <c r="CT13" s="41"/>
+      <c r="CU13" s="41"/>
+      <c r="CV13" s="41"/>
+      <c r="CW13" s="41"/>
+      <c r="CX13" s="41"/>
+      <c r="CY13" s="41"/>
+      <c r="CZ13" s="41"/>
+      <c r="DA13" s="41"/>
+      <c r="DB13" s="41"/>
+      <c r="DC13" s="41"/>
+      <c r="DD13" s="41"/>
+      <c r="DE13" s="41"/>
+      <c r="DF13" s="41"/>
+      <c r="DG13" s="41"/>
+      <c r="DH13" s="41"/>
+      <c r="DI13" s="41"/>
+      <c r="DJ13" s="41"/>
+      <c r="DK13" s="41"/>
+      <c r="DL13" s="41"/>
     </row>
-    <row r="13" spans="1:116" s="47" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AF13" s="54"/>
-      <c r="AG13" s="54"/>
-      <c r="AH13" s="54"/>
-      <c r="AI13" s="54"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
-      <c r="AL13" s="54"/>
-      <c r="AM13" s="54"/>
-      <c r="AN13" s="54"/>
-      <c r="AO13" s="54"/>
-      <c r="AP13" s="54"/>
-      <c r="AQ13" s="54"/>
-      <c r="AR13" s="54"/>
-      <c r="AS13" s="54"/>
-      <c r="AT13" s="54"/>
-      <c r="AU13" s="54"/>
-      <c r="AV13" s="54"/>
-      <c r="AW13" s="54"/>
-      <c r="AX13" s="54"/>
-      <c r="AY13" s="54"/>
-      <c r="AZ13" s="54"/>
-      <c r="BA13" s="54"/>
-      <c r="BB13" s="54"/>
-      <c r="BC13" s="54"/>
-      <c r="BD13" s="54"/>
-      <c r="BE13" s="54"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="54"/>
-      <c r="BQ13" s="54"/>
-      <c r="BR13" s="54"/>
-      <c r="BS13" s="54"/>
-      <c r="BT13" s="54"/>
-      <c r="BU13" s="54"/>
-      <c r="BV13" s="54"/>
-      <c r="BW13" s="54"/>
-      <c r="BX13" s="54"/>
-      <c r="BY13" s="54"/>
-      <c r="BZ13" s="54"/>
-      <c r="CA13" s="54"/>
-      <c r="CB13" s="54"/>
-      <c r="CC13" s="54"/>
-      <c r="CD13" s="54"/>
-      <c r="CE13" s="54"/>
-      <c r="CF13" s="54"/>
-      <c r="CG13" s="54"/>
-      <c r="CH13" s="54"/>
-      <c r="CI13" s="54"/>
-      <c r="CJ13" s="54"/>
-      <c r="CK13" s="54"/>
-      <c r="CL13" s="54"/>
-      <c r="CM13" s="54"/>
-      <c r="CN13" s="54"/>
-      <c r="CO13" s="54"/>
-      <c r="CP13" s="54"/>
-      <c r="CQ13" s="54"/>
-      <c r="CR13" s="54"/>
-      <c r="CS13" s="54"/>
-      <c r="CT13" s="54"/>
-      <c r="CU13" s="54"/>
-      <c r="CV13" s="54"/>
-      <c r="CW13" s="54"/>
-      <c r="CX13" s="54"/>
-      <c r="CY13" s="54"/>
-      <c r="CZ13" s="54"/>
-      <c r="DA13" s="54"/>
-      <c r="DB13" s="54"/>
-      <c r="DC13" s="54"/>
-      <c r="DD13" s="54"/>
-      <c r="DE13" s="54"/>
-      <c r="DF13" s="54"/>
-      <c r="DG13" s="54"/>
-      <c r="DH13" s="54"/>
-      <c r="DI13" s="54"/>
-      <c r="DJ13" s="54"/>
-      <c r="DK13" s="54"/>
-      <c r="DL13" s="54"/>
-    </row>
-    <row r="14" spans="1:116" s="66" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E14" s="55"/>
-      <c r="F14" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+    <row r="14" spans="1:116" s="72" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="73"/>
+      <c r="F14" s="73">
+        <v>422.5</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="1:116" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="26">
-        <f>SUM(B10:B10)</f>
+        <f t="shared" ref="B15:J15" si="4">SUM(B10:B10)</f>
         <v>84.790999999999997</v>
       </c>
       <c r="C15" s="26">
-        <f>SUM(C10:C10)</f>
+        <f t="shared" si="4"/>
         <v>134.51</v>
       </c>
       <c r="D15" s="26">
-        <f>SUM(D10:D10)</f>
+        <f>D13*D12</f>
         <v>192.85</v>
       </c>
       <c r="E15" s="26">
-        <f>SUM(E10:E10)</f>
+        <f>E13*E12</f>
         <v>287.02200000000005</v>
       </c>
-      <c r="F15" s="53">
-        <f>SUM(F10:F10)</f>
-        <v>387.47970000000009</v>
-      </c>
-      <c r="G15" s="53">
-        <f>SUM(G10:G10)</f>
-        <v>523.09759500000018</v>
-      </c>
-      <c r="H15" s="53">
-        <f>SUM(H10:H10)</f>
-        <v>706.18175325000027</v>
-      </c>
-      <c r="I15" s="53">
-        <f>SUM(I10:I10)</f>
-        <v>953.3453668875004</v>
-      </c>
-      <c r="J15" s="53">
-        <f>SUM(J10:J10)</f>
-        <v>1287.0162452981256</v>
-      </c>
-      <c r="K15" s="53">
-        <f t="shared" ref="K15:T15" si="2">J15*1.1</f>
-        <v>1415.7178698279383</v>
-      </c>
-      <c r="L15" s="53">
-        <f t="shared" si="2"/>
-        <v>1557.2896568107324</v>
-      </c>
-      <c r="M15" s="53">
-        <f t="shared" si="2"/>
-        <v>1713.0186224918057</v>
-      </c>
-      <c r="N15" s="53">
-        <f t="shared" si="2"/>
-        <v>1884.3204847409863</v>
-      </c>
-      <c r="O15" s="53">
-        <f t="shared" si="2"/>
-        <v>2072.7525332150854</v>
-      </c>
-      <c r="P15" s="53">
-        <f t="shared" si="2"/>
-        <v>2280.0277865365942</v>
-      </c>
-      <c r="Q15" s="53">
-        <f t="shared" si="2"/>
-        <v>2508.030565190254</v>
-      </c>
-      <c r="R15" s="53">
-        <f t="shared" si="2"/>
-        <v>2758.8336217092797</v>
-      </c>
-      <c r="S15" s="53">
-        <f t="shared" si="2"/>
-        <v>3034.7169838802079</v>
-      </c>
-      <c r="T15" s="53">
-        <f t="shared" si="2"/>
-        <v>3338.1886822682291</v>
+      <c r="F15" s="50">
+        <f>F13*F12</f>
+        <v>416.18190000000004</v>
+      </c>
+      <c r="G15" s="50">
+        <f>G13*G12</f>
+        <v>572.25011250000011</v>
+      </c>
+      <c r="H15" s="50">
+        <f>H13*H12</f>
+        <v>786.8439046875003</v>
+      </c>
+      <c r="I15" s="50">
+        <f>I13*I12</f>
+        <v>1081.9103689453129</v>
+      </c>
+      <c r="J15" s="50">
+        <f>J13*J12</f>
+        <v>1487.6267572998056</v>
+      </c>
+      <c r="K15" s="50">
+        <f>J15*1.25</f>
+        <v>1859.5334466247571</v>
+      </c>
+      <c r="L15" s="50">
+        <f t="shared" ref="L15:O15" si="5">K15*1.25</f>
+        <v>2324.4168082809465</v>
+      </c>
+      <c r="M15" s="50">
+        <f t="shared" si="5"/>
+        <v>2905.5210103511831</v>
+      </c>
+      <c r="N15" s="50">
+        <f t="shared" si="5"/>
+        <v>3631.901262938979</v>
+      </c>
+      <c r="O15" s="50">
+        <f t="shared" si="5"/>
+        <v>4539.876578673724</v>
+      </c>
+      <c r="P15" s="50">
+        <f t="shared" ref="K15:T15" si="6">O15*1.1</f>
+        <v>4993.8642365410969</v>
+      </c>
+      <c r="Q15" s="50">
+        <f t="shared" si="6"/>
+        <v>5493.2506601952073</v>
+      </c>
+      <c r="R15" s="50">
+        <f t="shared" si="6"/>
+        <v>6042.5757262147281</v>
+      </c>
+      <c r="S15" s="50">
+        <f t="shared" si="6"/>
+        <v>6646.8332988362017</v>
+      </c>
+      <c r="T15" s="50">
+        <f t="shared" si="6"/>
+        <v>7311.5166287198226</v>
       </c>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -2042,63 +2070,63 @@
       </c>
       <c r="F16" s="24">
         <f>F15-F17</f>
-        <v>85.847849999999994</v>
+        <v>92.206950000000006</v>
       </c>
       <c r="G16" s="24">
-        <f t="shared" ref="G16" si="3">G15-G17</f>
-        <v>115.89459750000003</v>
+        <f t="shared" ref="G16" si="7">G15-G17</f>
+        <v>126.78455624999998</v>
       </c>
       <c r="H16" s="24">
-        <f t="shared" ref="H16:O16" si="4">H15-H17</f>
-        <v>156.45770662500001</v>
+        <f t="shared" ref="H16:O16" si="8">H15-H17</f>
+        <v>174.32876484375004</v>
       </c>
       <c r="I16" s="24">
-        <f t="shared" si="4"/>
-        <v>211.21790394375</v>
+        <f t="shared" si="8"/>
+        <v>239.70205166015626</v>
       </c>
       <c r="J16" s="24">
         <f>J15-J17</f>
-        <v>285.14417032406243</v>
+        <v>329.59032103271511</v>
       </c>
       <c r="K16" s="24">
-        <f t="shared" si="4"/>
-        <v>313.65858735646884</v>
+        <f t="shared" si="8"/>
+        <v>411.98790129089389</v>
       </c>
       <c r="L16" s="24">
-        <f t="shared" si="4"/>
-        <v>345.0244460921158</v>
+        <f t="shared" si="8"/>
+        <v>514.98487661361742</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" si="4"/>
-        <v>379.52689070132737</v>
+        <f t="shared" si="8"/>
+        <v>643.731095767022</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" si="4"/>
-        <v>417.47957977146029</v>
+        <f t="shared" si="8"/>
+        <v>804.66386970877738</v>
       </c>
       <c r="O16" s="24">
-        <f t="shared" si="4"/>
-        <v>459.22753774860644</v>
+        <f t="shared" si="8"/>
+        <v>1005.829837135972</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" ref="P16:T16" si="5">P15-P17</f>
-        <v>505.15029152346733</v>
+        <f t="shared" ref="P16:T16" si="9">P15-P17</f>
+        <v>1106.412820849569</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="5"/>
-        <v>555.66532067581397</v>
+        <f t="shared" si="9"/>
+        <v>1217.0541029345259</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="5"/>
-        <v>611.23185274339539</v>
+        <f t="shared" si="9"/>
+        <v>1338.7595132279785</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="5"/>
-        <v>672.3550380177353</v>
+        <f t="shared" si="9"/>
+        <v>1472.6354645507772</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="5"/>
-        <v>739.59054181950887</v>
+        <f t="shared" si="9"/>
+        <v>1619.8990110058558</v>
       </c>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
@@ -2219,63 +2247,63 @@
       </c>
       <c r="F17" s="24">
         <f>F15*E30</f>
-        <v>301.6318500000001</v>
+        <v>323.97495000000004</v>
       </c>
       <c r="G17" s="24">
-        <f t="shared" ref="G17:T17" si="6">G15*F30</f>
-        <v>407.20299750000015</v>
+        <f t="shared" ref="G17:T17" si="10">G15*F30</f>
+        <v>445.46555625000013</v>
       </c>
       <c r="H17" s="24">
-        <f t="shared" si="6"/>
-        <v>549.72404662500026</v>
+        <f t="shared" si="10"/>
+        <v>612.51513984375026</v>
       </c>
       <c r="I17" s="24">
-        <f t="shared" si="6"/>
-        <v>742.1274629437504</v>
+        <f t="shared" si="10"/>
+        <v>842.20831728515668</v>
       </c>
       <c r="J17" s="24">
         <f>J15*I30</f>
-        <v>1001.8720749740631</v>
+        <v>1158.0364362670905</v>
       </c>
       <c r="K17" s="24">
-        <f t="shared" si="6"/>
-        <v>1102.0592824714695</v>
+        <f t="shared" si="10"/>
+        <v>1447.5455453338632</v>
       </c>
       <c r="L17" s="24">
-        <f t="shared" si="6"/>
-        <v>1212.2652107186166</v>
+        <f t="shared" si="10"/>
+        <v>1809.4319316673291</v>
       </c>
       <c r="M17" s="24">
-        <f t="shared" si="6"/>
-        <v>1333.4917317904783</v>
+        <f t="shared" si="10"/>
+        <v>2261.7899145841611</v>
       </c>
       <c r="N17" s="24">
-        <f t="shared" si="6"/>
-        <v>1466.840904969526</v>
+        <f t="shared" si="10"/>
+        <v>2827.2373932302016</v>
       </c>
       <c r="O17" s="24">
-        <f t="shared" si="6"/>
-        <v>1613.5249954664789</v>
+        <f t="shared" si="10"/>
+        <v>3534.046741537752</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="6"/>
-        <v>1774.8774950131269</v>
+        <f t="shared" si="10"/>
+        <v>3887.4514156915279</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="6"/>
-        <v>1952.3652445144401</v>
+        <f t="shared" si="10"/>
+        <v>4276.1965572606814</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="6"/>
-        <v>2147.6017689658843</v>
+        <f t="shared" si="10"/>
+        <v>4703.8162129867496</v>
       </c>
       <c r="S17" s="24">
-        <f t="shared" si="6"/>
-        <v>2362.3619458624726</v>
+        <f t="shared" si="10"/>
+        <v>5174.1978342854245</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="6"/>
-        <v>2598.5981404487202</v>
+        <f t="shared" si="10"/>
+        <v>5691.6176177139669</v>
       </c>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
@@ -2394,64 +2422,64 @@
         <v>91</v>
       </c>
       <c r="F18" s="24">
-        <f>E18*1.25</f>
-        <v>113.75</v>
+        <f>E18*1.35</f>
+        <v>122.85000000000001</v>
       </c>
       <c r="G18" s="24">
-        <f t="shared" ref="G18:J18" si="7">F18*1.25</f>
-        <v>142.1875</v>
+        <f t="shared" ref="G18:J18" si="11">F18*1.35</f>
+        <v>165.84750000000003</v>
       </c>
       <c r="H18" s="24">
-        <f t="shared" si="7"/>
-        <v>177.734375</v>
+        <f t="shared" si="11"/>
+        <v>223.89412500000006</v>
       </c>
       <c r="I18" s="24">
-        <f t="shared" si="7"/>
-        <v>222.16796875</v>
+        <f t="shared" si="11"/>
+        <v>302.25706875000009</v>
       </c>
       <c r="J18" s="24">
-        <f t="shared" si="7"/>
-        <v>277.7099609375</v>
+        <f t="shared" si="11"/>
+        <v>408.04704281250014</v>
       </c>
       <c r="K18" s="24">
         <f>J18*1.1</f>
-        <v>305.48095703125</v>
+        <v>448.85174709375019</v>
       </c>
       <c r="L18" s="24">
-        <f t="shared" ref="L18:T18" si="8">K18*1.1</f>
-        <v>336.029052734375</v>
+        <f t="shared" ref="L18:T18" si="12">K18*1.1</f>
+        <v>493.73692180312526</v>
       </c>
       <c r="M18" s="24">
-        <f t="shared" si="8"/>
-        <v>369.63195800781256</v>
+        <f t="shared" si="12"/>
+        <v>543.11061398343782</v>
       </c>
       <c r="N18" s="24">
-        <f t="shared" si="8"/>
-        <v>406.59515380859386</v>
+        <f t="shared" si="12"/>
+        <v>597.4216753817816</v>
       </c>
       <c r="O18" s="24">
-        <f t="shared" si="8"/>
-        <v>447.2546691894533</v>
+        <f t="shared" si="12"/>
+        <v>657.16384291995985</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" si="8"/>
-        <v>491.98013610839865</v>
+        <f t="shared" si="12"/>
+        <v>722.88022721195591</v>
       </c>
       <c r="Q18" s="24">
-        <f t="shared" si="8"/>
-        <v>541.1781497192386</v>
+        <f t="shared" si="12"/>
+        <v>795.16824993315151</v>
       </c>
       <c r="R18" s="24">
-        <f t="shared" si="8"/>
-        <v>595.29596469116257</v>
+        <f t="shared" si="12"/>
+        <v>874.68507492646677</v>
       </c>
       <c r="S18" s="24">
-        <f t="shared" si="8"/>
-        <v>654.82556116027888</v>
+        <f t="shared" si="12"/>
+        <v>962.15358241911349</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="8"/>
-        <v>720.3081172763068</v>
+        <f t="shared" si="12"/>
+        <v>1058.3689406610249</v>
       </c>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
@@ -2570,64 +2598,64 @@
         <v>160</v>
       </c>
       <c r="F19" s="24">
-        <f>E19*1.2</f>
-        <v>192</v>
+        <f>E19*1.25</f>
+        <v>200</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" ref="G19:J19" si="9">F19*1.2</f>
-        <v>230.39999999999998</v>
+        <f t="shared" ref="G19:J19" si="13">F19*1.25</f>
+        <v>250</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="9"/>
-        <v>276.47999999999996</v>
+        <f t="shared" si="13"/>
+        <v>312.5</v>
       </c>
       <c r="I19" s="24">
-        <f t="shared" si="9"/>
-        <v>331.77599999999995</v>
+        <f t="shared" si="13"/>
+        <v>390.625</v>
       </c>
       <c r="J19" s="24">
-        <f t="shared" si="9"/>
-        <v>398.13119999999992</v>
+        <f t="shared" si="13"/>
+        <v>488.28125</v>
       </c>
       <c r="K19" s="24">
-        <f>J19*1.05</f>
-        <v>418.03775999999993</v>
+        <f>J19*1.15</f>
+        <v>561.5234375</v>
       </c>
       <c r="L19" s="24">
-        <f t="shared" ref="L19:T19" si="10">K19*1.05</f>
-        <v>438.93964799999998</v>
+        <f t="shared" ref="L19:O19" si="14">K19*1.15</f>
+        <v>645.751953125</v>
       </c>
       <c r="M19" s="24">
-        <f t="shared" si="10"/>
-        <v>460.8866304</v>
+        <f t="shared" si="14"/>
+        <v>742.61474609374989</v>
       </c>
       <c r="N19" s="24">
-        <f t="shared" si="10"/>
-        <v>483.93096192000002</v>
+        <f t="shared" si="14"/>
+        <v>854.00695800781227</v>
       </c>
       <c r="O19" s="24">
-        <f t="shared" si="10"/>
-        <v>508.12751001600003</v>
+        <f t="shared" si="14"/>
+        <v>982.10800170898403</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" si="10"/>
-        <v>533.53388551680007</v>
+        <f t="shared" ref="L19:T19" si="15">O19*1.05</f>
+        <v>1031.2134017944334</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="10"/>
-        <v>560.21057979264015</v>
+        <f t="shared" si="15"/>
+        <v>1082.7740718841551</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="10"/>
-        <v>588.22110878227215</v>
+        <f t="shared" si="15"/>
+        <v>1136.9127754783628</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="10"/>
-        <v>617.63216422138578</v>
+        <f t="shared" si="15"/>
+        <v>1193.758414252281</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="10"/>
-        <v>648.51377243245508</v>
+        <f t="shared" si="15"/>
+        <v>1253.4463349648952</v>
       </c>
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
@@ -2750,60 +2778,60 @@
         <v>94.3</v>
       </c>
       <c r="G20" s="24">
-        <f t="shared" ref="G20:J20" si="11">F20*1.15</f>
+        <f t="shared" ref="G20:J20" si="16">F20*1.15</f>
         <v>108.44499999999999</v>
       </c>
       <c r="H20" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>124.71174999999998</v>
       </c>
       <c r="I20" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>143.41851249999996</v>
       </c>
       <c r="J20" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>164.93128937499995</v>
       </c>
       <c r="K20" s="24">
-        <f t="shared" ref="K20:T20" si="12">J20*0.98</f>
-        <v>161.63266358749993</v>
+        <f>J20*1.05</f>
+        <v>173.17785384374994</v>
       </c>
       <c r="L20" s="24">
-        <f t="shared" si="12"/>
-        <v>158.40001031574994</v>
+        <f t="shared" ref="L20:O20" si="17">K20*1.05</f>
+        <v>181.83674653593744</v>
       </c>
       <c r="M20" s="24">
-        <f t="shared" si="12"/>
-        <v>155.23201010943492</v>
+        <f t="shared" si="17"/>
+        <v>190.92858386273431</v>
       </c>
       <c r="N20" s="24">
-        <f t="shared" si="12"/>
-        <v>152.12736990724622</v>
+        <f t="shared" si="17"/>
+        <v>200.47501305587105</v>
       </c>
       <c r="O20" s="24">
-        <f t="shared" si="12"/>
-        <v>149.08482250910129</v>
+        <f t="shared" si="17"/>
+        <v>210.4987637086646</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" si="12"/>
-        <v>146.10312605891926</v>
+        <f t="shared" ref="K20:T20" si="18">O20*0.98</f>
+        <v>206.28878843449129</v>
       </c>
       <c r="Q20" s="24">
-        <f t="shared" si="12"/>
-        <v>143.18106353774087</v>
+        <f t="shared" si="18"/>
+        <v>202.16301266580146</v>
       </c>
       <c r="R20" s="24">
-        <f t="shared" si="12"/>
-        <v>140.31744226698603</v>
+        <f t="shared" si="18"/>
+        <v>198.11975241248544</v>
       </c>
       <c r="S20" s="24">
-        <f t="shared" si="12"/>
-        <v>137.51109342164631</v>
+        <f t="shared" si="18"/>
+        <v>194.15735736423574</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" si="12"/>
-        <v>134.76087155321338</v>
+        <f t="shared" si="18"/>
+        <v>190.27421021695102</v>
       </c>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -2923,64 +2951,64 @@
         <v>333</v>
       </c>
       <c r="F21" s="24">
-        <f t="shared" ref="F21:G21" si="13">SUM(F18:F20)</f>
-        <v>400.05</v>
+        <f t="shared" ref="F21:G21" si="19">SUM(F18:F20)</f>
+        <v>417.15000000000003</v>
       </c>
       <c r="G21" s="24">
-        <f t="shared" si="13"/>
-        <v>481.03249999999997</v>
+        <f t="shared" si="19"/>
+        <v>524.29250000000002</v>
       </c>
       <c r="H21" s="24">
-        <f t="shared" ref="H21:O21" si="14">SUM(H18:H20)</f>
-        <v>578.92612499999996</v>
+        <f t="shared" ref="H21:O21" si="20">SUM(H18:H20)</f>
+        <v>661.10587499999997</v>
       </c>
       <c r="I21" s="24">
-        <f t="shared" si="14"/>
-        <v>697.36248124999997</v>
+        <f t="shared" si="20"/>
+        <v>836.30058125000005</v>
       </c>
       <c r="J21" s="24">
-        <f t="shared" si="14"/>
-        <v>840.77245031249981</v>
+        <f t="shared" si="20"/>
+        <v>1061.2595821875002</v>
       </c>
       <c r="K21" s="24">
-        <f t="shared" si="14"/>
-        <v>885.15138061874984</v>
+        <f t="shared" si="20"/>
+        <v>1183.5530384375002</v>
       </c>
       <c r="L21" s="24">
-        <f t="shared" si="14"/>
-        <v>933.36871105012494</v>
+        <f t="shared" si="20"/>
+        <v>1321.3256214640628</v>
       </c>
       <c r="M21" s="24">
-        <f t="shared" si="14"/>
-        <v>985.75059851724745</v>
+        <f t="shared" si="20"/>
+        <v>1476.6539439399221</v>
       </c>
       <c r="N21" s="24">
-        <f t="shared" si="14"/>
-        <v>1042.6534856358401</v>
+        <f t="shared" si="20"/>
+        <v>1651.9036464454648</v>
       </c>
       <c r="O21" s="24">
-        <f t="shared" si="14"/>
-        <v>1104.4670017145545</v>
+        <f t="shared" si="20"/>
+        <v>1849.7706083376086</v>
       </c>
       <c r="P21" s="24">
-        <f t="shared" ref="P21:T21" si="15">SUM(P18:P20)</f>
-        <v>1171.617147684118</v>
+        <f t="shared" ref="P21:T21" si="21">SUM(P18:P20)</f>
+        <v>1960.3824174408805</v>
       </c>
       <c r="Q21" s="24">
-        <f t="shared" si="15"/>
-        <v>1244.5697930496196</v>
+        <f t="shared" si="21"/>
+        <v>2080.105334483108</v>
       </c>
       <c r="R21" s="24">
-        <f t="shared" si="15"/>
-        <v>1323.8345157404208</v>
+        <f t="shared" si="21"/>
+        <v>2209.7176028173149</v>
       </c>
       <c r="S21" s="24">
-        <f t="shared" si="15"/>
-        <v>1409.968818803311</v>
+        <f t="shared" si="21"/>
+        <v>2350.0693540356301</v>
       </c>
       <c r="T21" s="24">
-        <f t="shared" si="15"/>
-        <v>1503.5827612619751</v>
+        <f t="shared" si="21"/>
+        <v>2502.089485842871</v>
       </c>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -3100,64 +3128,64 @@
         <v>-109.56899999999996</v>
       </c>
       <c r="F22" s="24">
-        <f t="shared" ref="F22:G22" si="16">F17-F21</f>
-        <v>-98.418149999999912</v>
+        <f t="shared" ref="F22:G22" si="22">F17-F21</f>
+        <v>-93.175049999999999</v>
       </c>
       <c r="G22" s="24">
-        <f t="shared" si="16"/>
-        <v>-73.829502499999819</v>
+        <f t="shared" si="22"/>
+        <v>-78.826943749999884</v>
       </c>
       <c r="H22" s="24">
-        <f t="shared" ref="H22:O22" si="17">H17-H21</f>
-        <v>-29.202078374999701</v>
+        <f t="shared" ref="H22:O22" si="23">H17-H21</f>
+        <v>-48.590735156249707</v>
       </c>
       <c r="I22" s="24">
-        <f t="shared" si="17"/>
-        <v>44.764981693750428</v>
+        <f t="shared" si="23"/>
+        <v>5.9077360351566313</v>
       </c>
       <c r="J22" s="24">
-        <f t="shared" si="17"/>
-        <v>161.09962466156333</v>
+        <f t="shared" si="23"/>
+        <v>96.776854079590294</v>
       </c>
       <c r="K22" s="24">
-        <f t="shared" si="17"/>
-        <v>216.90790185271965</v>
+        <f t="shared" si="23"/>
+        <v>263.99250689636301</v>
       </c>
       <c r="L22" s="24">
-        <f t="shared" si="17"/>
-        <v>278.89649966849163</v>
+        <f t="shared" si="23"/>
+        <v>488.10631020326628</v>
       </c>
       <c r="M22" s="24">
-        <f t="shared" si="17"/>
-        <v>347.74113327323084</v>
+        <f t="shared" si="23"/>
+        <v>785.13597064423902</v>
       </c>
       <c r="N22" s="24">
-        <f t="shared" si="17"/>
-        <v>424.18741933368597</v>
+        <f t="shared" si="23"/>
+        <v>1175.3337467847368</v>
       </c>
       <c r="O22" s="24">
-        <f t="shared" si="17"/>
-        <v>509.05799375192441</v>
+        <f t="shared" si="23"/>
+        <v>1684.2761332001435</v>
       </c>
       <c r="P22" s="24">
-        <f t="shared" ref="P22:T22" si="18">P17-P21</f>
-        <v>603.26034732900894</v>
+        <f t="shared" ref="P22:T22" si="24">P17-P21</f>
+        <v>1927.0689982506474</v>
       </c>
       <c r="Q22" s="24">
-        <f t="shared" si="18"/>
-        <v>707.79545146482042</v>
+        <f t="shared" si="24"/>
+        <v>2196.0912227775734</v>
       </c>
       <c r="R22" s="24">
-        <f t="shared" si="18"/>
-        <v>823.76725322546349</v>
+        <f t="shared" si="24"/>
+        <v>2494.0986101694348</v>
       </c>
       <c r="S22" s="24">
-        <f t="shared" si="18"/>
-        <v>952.39312705916154</v>
+        <f t="shared" si="24"/>
+        <v>2824.1284802497944</v>
       </c>
       <c r="T22" s="24">
-        <f t="shared" si="18"/>
-        <v>1095.0153791867451</v>
+        <f t="shared" si="24"/>
+        <v>3189.5281318710959</v>
       </c>
       <c r="U22" s="42"/>
       <c r="V22" s="42"/>
@@ -3276,64 +3304,64 @@
         <v>2</v>
       </c>
       <c r="F23" s="24">
-        <f>E40*$F$3</f>
+        <f t="shared" ref="F23:T23" si="25">E40*$F$3</f>
         <v>12.74</v>
       </c>
       <c r="G23" s="24">
-        <f>F40*$F$3</f>
-        <v>11.197793300000001</v>
+        <f t="shared" si="25"/>
+        <v>11.131298999999999</v>
       </c>
       <c r="H23" s="24">
-        <f>G40*$F$3</f>
-        <v>10.070422534400004</v>
+        <f t="shared" si="25"/>
+        <v>9.7773861050000015</v>
       </c>
       <c r="I23" s="24">
-        <f>H40*$F$3</f>
-        <v>9.7260527292692096</v>
+        <f t="shared" si="25"/>
+        <v>9.0011191239750072</v>
       </c>
       <c r="J23" s="24">
-        <f>I40*$F$3</f>
-        <v>10.706891348883564</v>
+        <f t="shared" si="25"/>
+        <v>9.2545696616802466</v>
       </c>
       <c r="K23" s="24">
-        <f>J40*$F$3</f>
-        <v>13.799408637071608</v>
+        <f t="shared" si="25"/>
+        <v>11.057103865281844</v>
       </c>
       <c r="L23" s="24">
-        <f>K40*$F$3</f>
-        <v>17.952140225887852</v>
+        <f t="shared" si="25"/>
+        <v>15.732947248229808</v>
       </c>
       <c r="M23" s="24">
-        <f>L40*$F$3</f>
-        <v>23.295415743986684</v>
+        <f t="shared" si="25"/>
+        <v>24.298214624905242</v>
       </c>
       <c r="N23" s="24">
-        <f>M40*$F$3</f>
-        <v>29.974073626296594</v>
+        <f t="shared" si="25"/>
+        <v>38.058595774480693</v>
       </c>
       <c r="O23" s="24">
-        <f>N40*$F$3</f>
-        <v>38.148980499576282</v>
+        <f t="shared" si="25"/>
+        <v>58.686265597987386</v>
       </c>
       <c r="P23" s="24">
-        <f>O40*$F$3</f>
-        <v>47.998706036103293</v>
+        <f t="shared" si="25"/>
+        <v>88.316626377555608</v>
       </c>
       <c r="Q23" s="24">
-        <f>P40*$F$3</f>
-        <v>59.721368996675324</v>
+        <f t="shared" si="25"/>
+        <v>122.57818199623506</v>
       </c>
       <c r="R23" s="24">
-        <f>Q40*$F$3</f>
-        <v>73.536671764982245</v>
+        <f t="shared" si="25"/>
+        <v>161.9955618773898</v>
       </c>
       <c r="S23" s="24">
-        <f>R40*$F$3</f>
-        <v>89.688142414810258</v>
+        <f t="shared" si="25"/>
+        <v>207.14916280218583</v>
       </c>
       <c r="T23" s="24">
-        <f>S40*$F$3</f>
-        <v>108.44560526534177</v>
+        <f t="shared" si="25"/>
+        <v>258.68088273406948</v>
       </c>
       <c r="U23" s="42"/>
       <c r="V23" s="42"/>
@@ -3453,64 +3481,64 @@
         <v>-107.56899999999996</v>
       </c>
       <c r="F24" s="24">
-        <f t="shared" ref="F24:G24" si="19">F22+F23</f>
-        <v>-85.678149999999917</v>
+        <f t="shared" ref="F24:G24" si="26">F22+F23</f>
+        <v>-80.435050000000004</v>
       </c>
       <c r="G24" s="24">
-        <f t="shared" si="19"/>
-        <v>-62.631709199999818</v>
+        <f t="shared" si="26"/>
+        <v>-67.695644749999886</v>
       </c>
       <c r="H24" s="24">
-        <f t="shared" ref="H24" si="20">H22+H23</f>
-        <v>-19.131655840599699</v>
+        <f t="shared" ref="H24" si="27">H22+H23</f>
+        <v>-38.813349051249702</v>
       </c>
       <c r="I24" s="24">
-        <f t="shared" ref="I24" si="21">I22+I23</f>
-        <v>54.491034423019642</v>
+        <f t="shared" ref="I24" si="28">I22+I23</f>
+        <v>14.908855159131639</v>
       </c>
       <c r="J24" s="24">
-        <f t="shared" ref="J24" si="22">J22+J23</f>
-        <v>171.8065160104469</v>
+        <f t="shared" ref="J24" si="29">J22+J23</f>
+        <v>106.03142374127054</v>
       </c>
       <c r="K24" s="24">
-        <f t="shared" ref="K24" si="23">K22+K23</f>
-        <v>230.70731048979127</v>
+        <f t="shared" ref="K24" si="30">K22+K23</f>
+        <v>275.04961076164483</v>
       </c>
       <c r="L24" s="24">
-        <f t="shared" ref="L24" si="24">L22+L23</f>
-        <v>296.84863989437946</v>
+        <f t="shared" ref="L24" si="31">L22+L23</f>
+        <v>503.83925745149611</v>
       </c>
       <c r="M24" s="24">
-        <f t="shared" ref="M24" si="25">M22+M23</f>
-        <v>371.03654901721751</v>
+        <f t="shared" ref="M24" si="32">M22+M23</f>
+        <v>809.43418526914422</v>
       </c>
       <c r="N24" s="24">
-        <f t="shared" ref="N24" si="26">N22+N23</f>
-        <v>454.16149295998258</v>
+        <f t="shared" ref="N24" si="33">N22+N23</f>
+        <v>1213.3923425592175</v>
       </c>
       <c r="O24" s="24">
-        <f t="shared" ref="O24:P24" si="27">O22+O23</f>
-        <v>547.2069742515007</v>
+        <f t="shared" ref="O24:P24" si="34">O22+O23</f>
+        <v>1742.9623987981308</v>
       </c>
       <c r="P24" s="24">
-        <f t="shared" si="27"/>
-        <v>651.25905336511221</v>
+        <f t="shared" si="34"/>
+        <v>2015.385624628203</v>
       </c>
       <c r="Q24" s="24">
-        <f t="shared" ref="Q24:T24" si="28">Q22+Q23</f>
-        <v>767.51682046149574</v>
+        <f t="shared" ref="Q24:T24" si="35">Q22+Q23</f>
+        <v>2318.6694047738083</v>
       </c>
       <c r="R24" s="24">
-        <f t="shared" si="28"/>
-        <v>897.30392499044569</v>
+        <f t="shared" si="35"/>
+        <v>2656.0941720468245</v>
       </c>
       <c r="S24" s="24">
-        <f t="shared" si="28"/>
-        <v>1042.0812694739718</v>
+        <f t="shared" si="35"/>
+        <v>3031.2776430519802</v>
       </c>
       <c r="T24" s="24">
-        <f t="shared" si="28"/>
-        <v>1203.4609844520869</v>
+        <f t="shared" si="35"/>
+        <v>3448.2090146051655</v>
       </c>
       <c r="U24" s="42"/>
       <c r="V24" s="42"/>
@@ -3629,64 +3657,61 @@
         <v>1</v>
       </c>
       <c r="F25" s="24">
-        <f>F24*0.1</f>
-        <v>-8.5678149999999924</v>
+        <v>0</v>
       </c>
       <c r="G25" s="24">
-        <f t="shared" ref="G25:O25" si="29">G24*0.1</f>
-        <v>-6.2631709199999825</v>
+        <v>0</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="29"/>
-        <v>-1.9131655840599699</v>
+        <v>0</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" si="29"/>
-        <v>5.4491034423019649</v>
+        <f t="shared" ref="G25:T25" si="36">I24*0.15</f>
+        <v>2.2363282738697459</v>
       </c>
       <c r="J25" s="24">
-        <f t="shared" si="29"/>
-        <v>17.180651601044691</v>
+        <f t="shared" si="36"/>
+        <v>15.904713561190581</v>
       </c>
       <c r="K25" s="24">
-        <f t="shared" si="29"/>
-        <v>23.070731048979127</v>
+        <f t="shared" si="36"/>
+        <v>41.257441614246723</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" si="29"/>
-        <v>29.684863989437947</v>
+        <f t="shared" si="36"/>
+        <v>75.575888617724416</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="29"/>
-        <v>37.103654901721754</v>
+        <f t="shared" si="36"/>
+        <v>121.41512779037163</v>
       </c>
       <c r="N25" s="24">
-        <f t="shared" si="29"/>
-        <v>45.41614929599826</v>
+        <f t="shared" si="36"/>
+        <v>182.00885138388261</v>
       </c>
       <c r="O25" s="24">
-        <f t="shared" si="29"/>
-        <v>54.720697425150071</v>
+        <f t="shared" si="36"/>
+        <v>261.44435981971964</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" ref="P25:T25" si="30">P24*0.1</f>
-        <v>65.125905336511224</v>
+        <f t="shared" si="36"/>
+        <v>302.30784369423043</v>
       </c>
       <c r="Q25" s="24">
-        <f t="shared" si="30"/>
-        <v>76.751682046149583</v>
+        <f t="shared" si="36"/>
+        <v>347.80041071607121</v>
       </c>
       <c r="R25" s="24">
-        <f t="shared" si="30"/>
-        <v>89.730392499044569</v>
+        <f t="shared" si="36"/>
+        <v>398.41412580702365</v>
       </c>
       <c r="S25" s="24">
-        <f t="shared" si="30"/>
-        <v>104.20812694739719</v>
+        <f t="shared" si="36"/>
+        <v>454.69164645779705</v>
       </c>
       <c r="T25" s="24">
-        <f t="shared" si="30"/>
-        <v>120.3460984452087</v>
+        <f t="shared" si="36"/>
+        <v>517.23135219077483</v>
       </c>
       <c r="U25" s="42"/>
       <c r="V25" s="42"/>
@@ -3802,784 +3827,784 @@
         <v>-82.911000000000001</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" ref="E26:G26" si="31">E24-E25</f>
+        <f t="shared" ref="E26:G26" si="37">E24-E25</f>
         <v>-108.56899999999996</v>
       </c>
       <c r="F26" s="26">
         <f>F24-F25</f>
-        <v>-77.110334999999921</v>
+        <v>-80.435050000000004</v>
       </c>
       <c r="G26" s="26">
-        <f t="shared" si="31"/>
-        <v>-56.368538279999839</v>
+        <f t="shared" si="37"/>
+        <v>-67.695644749999886</v>
       </c>
       <c r="H26" s="26">
-        <f t="shared" ref="H26:O26" si="32">H24-H25</f>
-        <v>-17.218490256539727</v>
+        <f t="shared" ref="H26:O26" si="38">H24-H25</f>
+        <v>-38.813349051249702</v>
       </c>
       <c r="I26" s="26">
-        <f t="shared" si="32"/>
-        <v>49.04193098071768</v>
+        <f t="shared" si="38"/>
+        <v>12.672526885261892</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="32"/>
-        <v>154.6258644094022</v>
+        <f t="shared" si="38"/>
+        <v>90.126710180079968</v>
       </c>
       <c r="K26" s="26">
-        <f t="shared" si="32"/>
-        <v>207.63657944081214</v>
+        <f t="shared" si="38"/>
+        <v>233.79216914739811</v>
       </c>
       <c r="L26" s="26">
-        <f t="shared" si="32"/>
-        <v>267.16377590494153</v>
+        <f t="shared" si="38"/>
+        <v>428.26336883377166</v>
       </c>
       <c r="M26" s="26">
-        <f t="shared" si="32"/>
-        <v>333.93289411549574</v>
+        <f t="shared" si="38"/>
+        <v>688.01905747877254</v>
       </c>
       <c r="N26" s="26">
-        <f t="shared" si="32"/>
-        <v>408.74534366398433</v>
+        <f t="shared" si="38"/>
+        <v>1031.3834911753349</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" si="32"/>
-        <v>492.4862768263506</v>
+        <f t="shared" si="38"/>
+        <v>1481.5180389784111</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" ref="P26:T26" si="33">P24-P25</f>
-        <v>586.133148028601</v>
+        <f t="shared" ref="P26:T26" si="39">P24-P25</f>
+        <v>1713.0777809339725</v>
       </c>
       <c r="Q26" s="26">
-        <f t="shared" si="33"/>
-        <v>690.7651384153462</v>
+        <f t="shared" si="39"/>
+        <v>1970.8689940577372</v>
       </c>
       <c r="R26" s="26">
-        <f t="shared" si="33"/>
-        <v>807.57353249140112</v>
+        <f t="shared" si="39"/>
+        <v>2257.680046239801</v>
       </c>
       <c r="S26" s="26">
-        <f t="shared" si="33"/>
-        <v>937.87314252657461</v>
+        <f t="shared" si="39"/>
+        <v>2576.5859965941831</v>
       </c>
       <c r="T26" s="26">
-        <f t="shared" si="33"/>
-        <v>1083.1148860068781</v>
+        <f t="shared" si="39"/>
+        <v>2930.9776624143906</v>
       </c>
       <c r="U26" s="26">
-        <f>T26*($F$2+1)</f>
-        <v>1077.6993115768437</v>
+        <f t="shared" ref="U26:AZ26" si="40">T26*($F$2+1)</f>
+        <v>2945.6325507264623</v>
       </c>
       <c r="V26" s="26">
-        <f>U26*($F$2+1)</f>
-        <v>1072.3108150189594</v>
+        <f t="shared" si="40"/>
+        <v>2960.3607134800945</v>
       </c>
       <c r="W26" s="26">
-        <f>V26*($F$2+1)</f>
-        <v>1066.9492609438646</v>
+        <f t="shared" si="40"/>
+        <v>2975.1625170474949</v>
       </c>
       <c r="X26" s="26">
-        <f>W26*($F$2+1)</f>
-        <v>1061.6145146391452</v>
+        <f t="shared" si="40"/>
+        <v>2990.0383296327323</v>
       </c>
       <c r="Y26" s="26">
-        <f>X26*($F$2+1)</f>
-        <v>1056.3064420659496</v>
+        <f t="shared" si="40"/>
+        <v>3004.9885212808954</v>
       </c>
       <c r="Z26" s="26">
-        <f>Y26*($F$2+1)</f>
-        <v>1051.0249098556199</v>
+        <f t="shared" si="40"/>
+        <v>3020.0134638872996</v>
       </c>
       <c r="AA26" s="26">
-        <f>Z26*($F$2+1)</f>
-        <v>1045.7697853063416</v>
+        <f t="shared" si="40"/>
+        <v>3035.1135312067358</v>
       </c>
       <c r="AB26" s="26">
-        <f>AA26*($F$2+1)</f>
-        <v>1040.5409363798099</v>
+        <f t="shared" si="40"/>
+        <v>3050.2890988627692</v>
       </c>
       <c r="AC26" s="26">
-        <f>AB26*($F$2+1)</f>
-        <v>1035.3382316979107</v>
+        <f t="shared" si="40"/>
+        <v>3065.5405443570826</v>
       </c>
       <c r="AD26" s="26">
-        <f>AC26*($F$2+1)</f>
-        <v>1030.1615405394211</v>
+        <f t="shared" si="40"/>
+        <v>3080.8682470788676</v>
       </c>
       <c r="AE26" s="26">
-        <f>AD26*($F$2+1)</f>
-        <v>1025.0107328367239</v>
+        <f t="shared" si="40"/>
+        <v>3096.2725883142616</v>
       </c>
       <c r="AF26" s="26">
-        <f>AE26*($F$2+1)</f>
-        <v>1019.8856791725403</v>
+        <f t="shared" si="40"/>
+        <v>3111.7539512558324</v>
       </c>
       <c r="AG26" s="26">
-        <f>AF26*($F$2+1)</f>
-        <v>1014.7862507766777</v>
+        <f t="shared" si="40"/>
+        <v>3127.3127210121111</v>
       </c>
       <c r="AH26" s="26">
-        <f>AG26*($F$2+1)</f>
-        <v>1009.7123195227942</v>
+        <f t="shared" si="40"/>
+        <v>3142.9492846171711</v>
       </c>
       <c r="AI26" s="26">
-        <f>AH26*($F$2+1)</f>
-        <v>1004.6637579251802</v>
+        <f t="shared" si="40"/>
+        <v>3158.6640310402568</v>
       </c>
       <c r="AJ26" s="26">
-        <f>AI26*($F$2+1)</f>
-        <v>999.64043913555429</v>
+        <f t="shared" si="40"/>
+        <v>3174.4573511954577</v>
       </c>
       <c r="AK26" s="26">
-        <f>AJ26*($F$2+1)</f>
-        <v>994.64223693987651</v>
+        <f t="shared" si="40"/>
+        <v>3190.3296379514345</v>
       </c>
       <c r="AL26" s="26">
-        <f>AK26*($F$2+1)</f>
-        <v>989.66902575517713</v>
+        <f t="shared" si="40"/>
+        <v>3206.2812861411912</v>
       </c>
       <c r="AM26" s="26">
-        <f>AL26*($F$2+1)</f>
-        <v>984.72068062640119</v>
+        <f t="shared" si="40"/>
+        <v>3222.3126925718971</v>
       </c>
       <c r="AN26" s="26">
-        <f>AM26*($F$2+1)</f>
-        <v>979.79707722326918</v>
+        <f t="shared" si="40"/>
+        <v>3238.4242560347561</v>
       </c>
       <c r="AO26" s="26">
-        <f>AN26*($F$2+1)</f>
-        <v>974.89809183715283</v>
+        <f t="shared" si="40"/>
+        <v>3254.6163773149297</v>
       </c>
       <c r="AP26" s="26">
-        <f>AO26*($F$2+1)</f>
-        <v>970.02360137796711</v>
+        <f t="shared" si="40"/>
+        <v>3270.889459201504</v>
       </c>
       <c r="AQ26" s="26">
-        <f>AP26*($F$2+1)</f>
-        <v>965.17348337107728</v>
+        <f t="shared" si="40"/>
+        <v>3287.243906497511</v>
       </c>
       <c r="AR26" s="26">
-        <f>AQ26*($F$2+1)</f>
-        <v>960.34761595422185</v>
+        <f t="shared" si="40"/>
+        <v>3303.6801260299981</v>
       </c>
       <c r="AS26" s="26">
-        <f>AR26*($F$2+1)</f>
-        <v>955.54587787445075</v>
+        <f t="shared" si="40"/>
+        <v>3320.1985266601478</v>
       </c>
       <c r="AT26" s="26">
-        <f>AS26*($F$2+1)</f>
-        <v>950.76814848507854</v>
+        <f t="shared" si="40"/>
+        <v>3336.7995192934482</v>
       </c>
       <c r="AU26" s="26">
-        <f>AT26*($F$2+1)</f>
-        <v>946.01430774265316</v>
+        <f t="shared" si="40"/>
+        <v>3353.4835168899149</v>
       </c>
       <c r="AV26" s="26">
-        <f>AU26*($F$2+1)</f>
-        <v>941.28423620393994</v>
+        <f t="shared" si="40"/>
+        <v>3370.2509344743639</v>
       </c>
       <c r="AW26" s="26">
-        <f>AV26*($F$2+1)</f>
-        <v>936.57781502292028</v>
+        <f t="shared" si="40"/>
+        <v>3387.1021891467353</v>
       </c>
       <c r="AX26" s="26">
-        <f>AW26*($F$2+1)</f>
-        <v>931.89492594780563</v>
+        <f t="shared" si="40"/>
+        <v>3404.0377000924686</v>
       </c>
       <c r="AY26" s="26">
-        <f>AX26*($F$2+1)</f>
-        <v>927.23545131806657</v>
+        <f t="shared" si="40"/>
+        <v>3421.0578885929308</v>
       </c>
       <c r="AZ26" s="26">
-        <f>AY26*($F$2+1)</f>
-        <v>922.59927406147619</v>
+        <f t="shared" si="40"/>
+        <v>3438.1631780358953</v>
       </c>
       <c r="BA26" s="26">
-        <f>AZ26*($F$2+1)</f>
-        <v>917.98627769116877</v>
+        <f t="shared" ref="BA26:CF26" si="41">AZ26*($F$2+1)</f>
+        <v>3455.3539939260745</v>
       </c>
       <c r="BB26" s="26">
-        <f>BA26*($F$2+1)</f>
-        <v>913.39634630271291</v>
+        <f t="shared" si="41"/>
+        <v>3472.6307638957046</v>
       </c>
       <c r="BC26" s="26">
-        <f>BB26*($F$2+1)</f>
-        <v>908.82936457119933</v>
+        <f t="shared" si="41"/>
+        <v>3489.9939177151828</v>
       </c>
       <c r="BD26" s="26">
-        <f>BC26*($F$2+1)</f>
-        <v>904.28521774834337</v>
+        <f t="shared" si="41"/>
+        <v>3507.4438873037584</v>
       </c>
       <c r="BE26" s="26">
-        <f>BD26*($F$2+1)</f>
-        <v>899.76379165960168</v>
+        <f t="shared" si="41"/>
+        <v>3524.981106740277</v>
       </c>
       <c r="BF26" s="26">
-        <f>BE26*($F$2+1)</f>
-        <v>895.26497270130369</v>
+        <f t="shared" si="41"/>
+        <v>3542.6060122739782</v>
       </c>
       <c r="BG26" s="26">
-        <f>BF26*($F$2+1)</f>
-        <v>890.78864783779716</v>
+        <f t="shared" si="41"/>
+        <v>3560.3190423353476</v>
       </c>
       <c r="BH26" s="26">
-        <f>BG26*($F$2+1)</f>
-        <v>886.33470459860814</v>
+        <f t="shared" si="41"/>
+        <v>3578.1206375470238</v>
       </c>
       <c r="BI26" s="26">
-        <f>BH26*($F$2+1)</f>
-        <v>881.9030310756151</v>
+        <f t="shared" si="41"/>
+        <v>3596.0112407347583</v>
       </c>
       <c r="BJ26" s="26">
-        <f>BI26*($F$2+1)</f>
-        <v>877.49351592023697</v>
+        <f t="shared" si="41"/>
+        <v>3613.9912969384318</v>
       </c>
       <c r="BK26" s="26">
-        <f>BJ26*($F$2+1)</f>
-        <v>873.10604834063577</v>
+        <f t="shared" si="41"/>
+        <v>3632.0612534231236</v>
       </c>
       <c r="BL26" s="26">
-        <f>BK26*($F$2+1)</f>
-        <v>868.74051809893263</v>
+        <f t="shared" si="41"/>
+        <v>3650.2215596902388</v>
       </c>
       <c r="BM26" s="26">
-        <f>BL26*($F$2+1)</f>
-        <v>864.39681550843795</v>
+        <f t="shared" si="41"/>
+        <v>3668.4726674886897</v>
       </c>
       <c r="BN26" s="26">
-        <f>BM26*($F$2+1)</f>
-        <v>860.07483143089576</v>
+        <f t="shared" si="41"/>
+        <v>3686.8150308261329</v>
       </c>
       <c r="BO26" s="26">
-        <f>BN26*($F$2+1)</f>
-        <v>855.77445727374129</v>
+        <f t="shared" si="41"/>
+        <v>3705.2491059802633</v>
       </c>
       <c r="BP26" s="26">
-        <f>BO26*($F$2+1)</f>
-        <v>851.49558498737258</v>
+        <f t="shared" si="41"/>
+        <v>3723.775351510164</v>
       </c>
       <c r="BQ26" s="26">
-        <f>BP26*($F$2+1)</f>
-        <v>847.23810706243569</v>
+        <f t="shared" si="41"/>
+        <v>3742.3942282677144</v>
       </c>
       <c r="BR26" s="26">
-        <f>BQ26*($F$2+1)</f>
-        <v>843.00191652712351</v>
+        <f t="shared" si="41"/>
+        <v>3761.1061994090528</v>
       </c>
       <c r="BS26" s="26">
-        <f>BR26*($F$2+1)</f>
-        <v>838.7869069444879</v>
+        <f t="shared" si="41"/>
+        <v>3779.9117304060978</v>
       </c>
       <c r="BT26" s="26">
-        <f>BS26*($F$2+1)</f>
-        <v>834.59297240976548</v>
+        <f t="shared" si="41"/>
+        <v>3798.8112890581278</v>
       </c>
       <c r="BU26" s="26">
-        <f>BT26*($F$2+1)</f>
-        <v>830.42000754771664</v>
+        <f t="shared" si="41"/>
+        <v>3817.8053455034183</v>
       </c>
       <c r="BV26" s="26">
-        <f>BU26*($F$2+1)</f>
-        <v>826.26790750997804</v>
+        <f t="shared" si="41"/>
+        <v>3836.894372230935</v>
       </c>
       <c r="BW26" s="26">
-        <f>BV26*($F$2+1)</f>
-        <v>822.13656797242811</v>
+        <f t="shared" si="41"/>
+        <v>3856.0788440920892</v>
       </c>
       <c r="BX26" s="26">
-        <f>BW26*($F$2+1)</f>
-        <v>818.02588513256592</v>
+        <f t="shared" si="41"/>
+        <v>3875.3592383125492</v>
       </c>
       <c r="BY26" s="26">
-        <f>BX26*($F$2+1)</f>
-        <v>813.93575570690314</v>
+        <f t="shared" si="41"/>
+        <v>3894.7360345041116</v>
       </c>
       <c r="BZ26" s="26">
-        <f>BY26*($F$2+1)</f>
-        <v>809.86607692836867</v>
+        <f t="shared" si="41"/>
+        <v>3914.2097146766318</v>
       </c>
       <c r="CA26" s="26">
-        <f>BZ26*($F$2+1)</f>
-        <v>805.81674654372682</v>
+        <f t="shared" si="41"/>
+        <v>3933.7807632500144</v>
       </c>
       <c r="CB26" s="26">
-        <f>CA26*($F$2+1)</f>
-        <v>801.7876628110082</v>
+        <f t="shared" si="41"/>
+        <v>3953.4496670662638</v>
       </c>
       <c r="CC26" s="26">
-        <f>CB26*($F$2+1)</f>
-        <v>797.77872449695315</v>
+        <f t="shared" si="41"/>
+        <v>3973.2169154015946</v>
       </c>
       <c r="CD26" s="26">
-        <f>CC26*($F$2+1)</f>
-        <v>793.78983087446841</v>
+        <f t="shared" si="41"/>
+        <v>3993.0829999786024</v>
       </c>
       <c r="CE26" s="26">
-        <f>CD26*($F$2+1)</f>
-        <v>789.82088172009605</v>
+        <f t="shared" si="41"/>
+        <v>4013.0484149784952</v>
       </c>
       <c r="CF26" s="26">
-        <f>CE26*($F$2+1)</f>
-        <v>785.87177731149552</v>
+        <f t="shared" si="41"/>
+        <v>4033.1136570533872</v>
       </c>
       <c r="CG26" s="26">
-        <f>CF26*($F$2+1)</f>
-        <v>781.94241842493807</v>
+        <f t="shared" ref="CG26:DL26" si="42">CF26*($F$2+1)</f>
+        <v>4053.2792253386538</v>
       </c>
       <c r="CH26" s="26">
-        <f>CG26*($F$2+1)</f>
-        <v>778.0327063328134</v>
+        <f t="shared" si="42"/>
+        <v>4073.5456214653468</v>
       </c>
       <c r="CI26" s="26">
-        <f>CH26*($F$2+1)</f>
-        <v>774.14254280114938</v>
+        <f t="shared" si="42"/>
+        <v>4093.9133495726733</v>
       </c>
       <c r="CJ26" s="26">
-        <f>CI26*($F$2+1)</f>
-        <v>770.2718300871436</v>
+        <f t="shared" si="42"/>
+        <v>4114.3829163205364</v>
       </c>
       <c r="CK26" s="26">
-        <f>CJ26*($F$2+1)</f>
-        <v>766.42047093670783</v>
+        <f t="shared" si="42"/>
+        <v>4134.9548309021384</v>
       </c>
       <c r="CL26" s="26">
-        <f>CK26*($F$2+1)</f>
-        <v>762.58836858202426</v>
+        <f t="shared" si="42"/>
+        <v>4155.6296050566489</v>
       </c>
       <c r="CM26" s="26">
-        <f>CL26*($F$2+1)</f>
-        <v>758.7754267391141</v>
+        <f t="shared" si="42"/>
+        <v>4176.4077530819313</v>
       </c>
       <c r="CN26" s="26">
-        <f>CM26*($F$2+1)</f>
-        <v>754.98154960541854</v>
+        <f t="shared" si="42"/>
+        <v>4197.2897918473409</v>
       </c>
       <c r="CO26" s="26">
-        <f>CN26*($F$2+1)</f>
-        <v>751.20664185739145</v>
+        <f t="shared" si="42"/>
+        <v>4218.2762408065773</v>
       </c>
       <c r="CP26" s="26">
-        <f>CO26*($F$2+1)</f>
-        <v>747.45060864810443</v>
+        <f t="shared" si="42"/>
+        <v>4239.3676220106099</v>
       </c>
       <c r="CQ26" s="26">
-        <f>CP26*($F$2+1)</f>
-        <v>743.71335560486386</v>
+        <f t="shared" si="42"/>
+        <v>4260.5644601206623</v>
       </c>
       <c r="CR26" s="26">
-        <f>CQ26*($F$2+1)</f>
-        <v>739.99478882683957</v>
+        <f t="shared" si="42"/>
+        <v>4281.8672824212654</v>
       </c>
       <c r="CS26" s="26">
-        <f>CR26*($F$2+1)</f>
-        <v>736.2948148827054</v>
+        <f t="shared" si="42"/>
+        <v>4303.2766188333717</v>
       </c>
       <c r="CT26" s="26">
-        <f>CS26*($F$2+1)</f>
-        <v>732.61334080829181</v>
+        <f t="shared" si="42"/>
+        <v>4324.7930019275382</v>
       </c>
       <c r="CU26" s="26">
-        <f>CT26*($F$2+1)</f>
-        <v>728.9502741042503</v>
+        <f t="shared" si="42"/>
+        <v>4346.4169669371749</v>
       </c>
       <c r="CV26" s="26">
-        <f>CU26*($F$2+1)</f>
-        <v>725.30552273372905</v>
+        <f t="shared" si="42"/>
+        <v>4368.1490517718603</v>
       </c>
       <c r="CW26" s="26">
-        <f>CV26*($F$2+1)</f>
-        <v>721.67899512006045</v>
+        <f t="shared" si="42"/>
+        <v>4389.9897970307193</v>
       </c>
       <c r="CX26" s="26">
-        <f>CW26*($F$2+1)</f>
-        <v>718.07060014446017</v>
+        <f t="shared" si="42"/>
+        <v>4411.9397460158725</v>
       </c>
       <c r="CY26" s="26">
-        <f>CX26*($F$2+1)</f>
-        <v>714.48024714373787</v>
+        <f t="shared" si="42"/>
+        <v>4433.9994447459512</v>
       </c>
       <c r="CZ26" s="26">
-        <f>CY26*($F$2+1)</f>
-        <v>710.90784590801923</v>
+        <f t="shared" si="42"/>
+        <v>4456.1694419696805</v>
       </c>
       <c r="DA26" s="26">
-        <f>CZ26*($F$2+1)</f>
-        <v>707.35330667847916</v>
+        <f t="shared" si="42"/>
+        <v>4478.4502891795282</v>
       </c>
       <c r="DB26" s="26">
-        <f>DA26*($F$2+1)</f>
-        <v>703.81654014508672</v>
+        <f t="shared" si="42"/>
+        <v>4500.8425406254255</v>
       </c>
       <c r="DC26" s="26">
-        <f>DB26*($F$2+1)</f>
-        <v>700.29745744436127</v>
+        <f t="shared" si="42"/>
+        <v>4523.346753328552</v>
       </c>
       <c r="DD26" s="26">
-        <f>DC26*($F$2+1)</f>
-        <v>696.79597015713944</v>
+        <f t="shared" si="42"/>
+        <v>4545.9634870951941</v>
       </c>
       <c r="DE26" s="26">
-        <f>DD26*($F$2+1)</f>
-        <v>693.31199030635378</v>
+        <f t="shared" si="42"/>
+        <v>4568.6933045306696</v>
       </c>
       <c r="DF26" s="26">
-        <f>DE26*($F$2+1)</f>
-        <v>689.84543035482204</v>
+        <f t="shared" si="42"/>
+        <v>4591.5367710533228</v>
       </c>
       <c r="DG26" s="26">
-        <f>DF26*($F$2+1)</f>
-        <v>686.39620320304789</v>
+        <f t="shared" si="42"/>
+        <v>4614.4944549085885</v>
       </c>
       <c r="DH26" s="26">
-        <f>DG26*($F$2+1)</f>
-        <v>682.96422218703265</v>
+        <f t="shared" si="42"/>
+        <v>4637.5669271831312</v>
       </c>
       <c r="DI26" s="26">
-        <f>DH26*($F$2+1)</f>
-        <v>679.54940107609752</v>
+        <f t="shared" si="42"/>
+        <v>4660.7547618190465</v>
       </c>
       <c r="DJ26" s="26">
-        <f>DI26*($F$2+1)</f>
-        <v>676.15165407071709</v>
+        <f t="shared" si="42"/>
+        <v>4684.0585356281408</v>
       </c>
       <c r="DK26" s="26">
-        <f>DJ26*($F$2+1)</f>
-        <v>672.77089580036352</v>
+        <f t="shared" si="42"/>
+        <v>4707.4788283062808</v>
       </c>
       <c r="DL26" s="26">
-        <f>DK26*($F$2+1)</f>
-        <v>669.4070413213617</v>
+        <f t="shared" si="42"/>
+        <v>4731.0162224478117</v>
       </c>
       <c r="DM26" s="26">
-        <f>DL26*($F$2+1)</f>
-        <v>666.06000611475486</v>
+        <f t="shared" ref="DM26:ER26" si="43">DL26*($F$2+1)</f>
+        <v>4754.6713035600505</v>
       </c>
       <c r="DN26" s="26">
-        <f>DM26*($F$2+1)</f>
-        <v>662.72970608418109</v>
+        <f t="shared" si="43"/>
+        <v>4778.4446600778501</v>
       </c>
       <c r="DO26" s="26">
-        <f>DN26*($F$2+1)</f>
-        <v>659.4160575537602</v>
+        <f t="shared" si="43"/>
+        <v>4802.3368833782388</v>
       </c>
       <c r="DP26" s="26">
-        <f>DO26*($F$2+1)</f>
-        <v>656.11897726599136</v>
+        <f t="shared" si="43"/>
+        <v>4826.3485677951294</v>
       </c>
       <c r="DQ26" s="26">
-        <f>DP26*($F$2+1)</f>
-        <v>652.83838237966143</v>
+        <f t="shared" si="43"/>
+        <v>4850.4803106341042</v>
       </c>
       <c r="DR26" s="26">
-        <f>DQ26*($F$2+1)</f>
-        <v>649.57419046776306</v>
+        <f t="shared" si="43"/>
+        <v>4874.732712187274</v>
       </c>
       <c r="DS26" s="26">
-        <f>DR26*($F$2+1)</f>
-        <v>646.32631951542419</v>
+        <f t="shared" si="43"/>
+        <v>4899.1063757482098</v>
       </c>
       <c r="DT26" s="26">
-        <f>DS26*($F$2+1)</f>
-        <v>643.09468791784707</v>
+        <f t="shared" si="43"/>
+        <v>4923.6019076269504</v>
       </c>
       <c r="DU26" s="26">
-        <f>DT26*($F$2+1)</f>
-        <v>639.87921447825784</v>
+        <f t="shared" si="43"/>
+        <v>4948.2199171650846</v>
       </c>
       <c r="DV26" s="26">
-        <f>DU26*($F$2+1)</f>
-        <v>636.67981840586651</v>
+        <f t="shared" si="43"/>
+        <v>4972.961016750909</v>
       </c>
       <c r="DW26" s="26">
-        <f>DV26*($F$2+1)</f>
-        <v>633.49641931383712</v>
+        <f t="shared" si="43"/>
+        <v>4997.8258218346627</v>
       </c>
       <c r="DX26" s="26">
-        <f>DW26*($F$2+1)</f>
-        <v>630.32893721726794</v>
+        <f t="shared" si="43"/>
+        <v>5022.8149509438354</v>
       </c>
       <c r="DY26" s="26">
-        <f>DX26*($F$2+1)</f>
-        <v>627.17729253118159</v>
+        <f t="shared" si="43"/>
+        <v>5047.9290256985541</v>
       </c>
       <c r="DZ26" s="26">
-        <f>DY26*($F$2+1)</f>
-        <v>624.0414060685257</v>
+        <f t="shared" si="43"/>
+        <v>5073.1686708270463</v>
       </c>
       <c r="EA26" s="26">
-        <f>DZ26*($F$2+1)</f>
-        <v>620.92119903818309</v>
+        <f t="shared" si="43"/>
+        <v>5098.5345141811813</v>
       </c>
       <c r="EB26" s="26">
-        <f>EA26*($F$2+1)</f>
-        <v>617.81659304299217</v>
+        <f t="shared" si="43"/>
+        <v>5124.0271867520869</v>
       </c>
       <c r="EC26" s="26">
-        <f>EB26*($F$2+1)</f>
-        <v>614.7275100777772</v>
+        <f t="shared" si="43"/>
+        <v>5149.647322685847</v>
       </c>
       <c r="ED26" s="26">
-        <f>EC26*($F$2+1)</f>
-        <v>611.65387252738833</v>
+        <f t="shared" si="43"/>
+        <v>5175.3955592992761</v>
       </c>
       <c r="EE26" s="26">
-        <f>ED26*($F$2+1)</f>
-        <v>608.59560316475142</v>
+        <f t="shared" si="43"/>
+        <v>5201.2725370957723</v>
       </c>
       <c r="EF26" s="26">
-        <f>EE26*($F$2+1)</f>
-        <v>605.55262514892763</v>
+        <f t="shared" si="43"/>
+        <v>5227.2788997812504</v>
       </c>
       <c r="EG26" s="26">
-        <f>EF26*($F$2+1)</f>
-        <v>602.524862023183</v>
+        <f t="shared" si="43"/>
+        <v>5253.4152942801556</v>
       </c>
       <c r="EH26" s="26">
-        <f>EG26*($F$2+1)</f>
-        <v>599.51223771306707</v>
+        <f t="shared" si="43"/>
+        <v>5279.6823707515559</v>
       </c>
       <c r="EI26" s="26">
-        <f>EH26*($F$2+1)</f>
-        <v>596.51467652450174</v>
+        <f t="shared" si="43"/>
+        <v>5306.0807826053133</v>
       </c>
       <c r="EJ26" s="26">
-        <f>EI26*($F$2+1)</f>
-        <v>593.53210314187925</v>
+        <f t="shared" si="43"/>
+        <v>5332.6111865183393</v>
       </c>
       <c r="EK26" s="26">
-        <f>EJ26*($F$2+1)</f>
-        <v>590.56444262616981</v>
+        <f t="shared" si="43"/>
+        <v>5359.2742424509306</v>
       </c>
       <c r="EL26" s="26">
-        <f>EK26*($F$2+1)</f>
-        <v>587.61162041303896</v>
+        <f t="shared" si="43"/>
+        <v>5386.0706136631843</v>
       </c>
       <c r="EM26" s="26">
-        <f>EL26*($F$2+1)</f>
-        <v>584.67356231097381</v>
+        <f t="shared" si="43"/>
+        <v>5413.0009667314998</v>
       </c>
       <c r="EN26" s="26">
-        <f>EM26*($F$2+1)</f>
-        <v>581.75019449941897</v>
+        <f t="shared" si="43"/>
+        <v>5440.0659715651564</v>
       </c>
       <c r="EO26" s="26">
-        <f>EN26*($F$2+1)</f>
-        <v>578.84144352692192</v>
+        <f t="shared" si="43"/>
+        <v>5467.266301422982</v>
       </c>
       <c r="EP26" s="26">
-        <f>EO26*($F$2+1)</f>
-        <v>575.94723630928729</v>
+        <f t="shared" si="43"/>
+        <v>5494.6026329300967</v>
       </c>
       <c r="EQ26" s="26">
-        <f>EP26*($F$2+1)</f>
-        <v>573.0675001277408</v>
+        <f t="shared" si="43"/>
+        <v>5522.0756460947468</v>
       </c>
       <c r="ER26" s="26">
-        <f>EQ26*($F$2+1)</f>
-        <v>570.2021626271021</v>
+        <f t="shared" si="43"/>
+        <v>5549.6860243252204</v>
       </c>
       <c r="ES26" s="26">
-        <f>ER26*($F$2+1)</f>
-        <v>567.35115181396657</v>
+        <f t="shared" ref="ES26:FX26" si="44">ER26*($F$2+1)</f>
+        <v>5577.4344544468458</v>
       </c>
       <c r="ET26" s="26">
-        <f>ES26*($F$2+1)</f>
-        <v>564.51439605489668</v>
+        <f t="shared" si="44"/>
+        <v>5605.3216267190792</v>
       </c>
       <c r="EU26" s="26">
-        <f>ET26*($F$2+1)</f>
-        <v>561.69182407462222</v>
+        <f t="shared" si="44"/>
+        <v>5633.3482348526741</v>
       </c>
       <c r="EV26" s="26">
-        <f>EU26*($F$2+1)</f>
-        <v>558.88336495424915</v>
+        <f t="shared" si="44"/>
+        <v>5661.5149760269369</v>
       </c>
       <c r="EW26" s="26">
-        <f>EV26*($F$2+1)</f>
-        <v>556.0889481294779</v>
+        <f t="shared" si="44"/>
+        <v>5689.8225509070708</v>
       </c>
       <c r="EX26" s="26">
-        <f>EW26*($F$2+1)</f>
-        <v>553.30850338883056</v>
+        <f t="shared" si="44"/>
+        <v>5718.2716636616051</v>
       </c>
       <c r="EY26" s="26">
-        <f>EX26*($F$2+1)</f>
-        <v>550.54196087188643</v>
+        <f t="shared" si="44"/>
+        <v>5746.8630219799124</v>
       </c>
       <c r="EZ26" s="26">
-        <f>EY26*($F$2+1)</f>
-        <v>547.78925106752695</v>
+        <f t="shared" si="44"/>
+        <v>5775.5973370898118</v>
       </c>
       <c r="FA26" s="26">
-        <f>EZ26*($F$2+1)</f>
-        <v>545.05030481218932</v>
+        <f t="shared" si="44"/>
+        <v>5804.4753237752602</v>
       </c>
       <c r="FB26" s="26">
-        <f>FA26*($F$2+1)</f>
-        <v>542.3250532881284</v>
+        <f t="shared" si="44"/>
+        <v>5833.4977003941358</v>
       </c>
       <c r="FC26" s="26">
-        <f>FB26*($F$2+1)</f>
-        <v>539.61342802168781</v>
+        <f t="shared" si="44"/>
+        <v>5862.665188896106</v>
       </c>
       <c r="FD26" s="26">
-        <f>FC26*($F$2+1)</f>
-        <v>536.91536088157932</v>
+        <f t="shared" si="44"/>
+        <v>5891.9785148405863</v>
       </c>
       <c r="FE26" s="26">
-        <f>FD26*($F$2+1)</f>
-        <v>534.23078407717139</v>
+        <f t="shared" si="44"/>
+        <v>5921.4384074147883</v>
       </c>
       <c r="FF26" s="26">
-        <f>FE26*($F$2+1)</f>
-        <v>531.55963015678549</v>
+        <f t="shared" si="44"/>
+        <v>5951.0455994518616</v>
       </c>
       <c r="FG26" s="26">
-        <f>FF26*($F$2+1)</f>
-        <v>528.90183200600154</v>
+        <f t="shared" si="44"/>
+        <v>5980.8008274491203</v>
       </c>
       <c r="FH26" s="26">
-        <f>FG26*($F$2+1)</f>
-        <v>526.25732284597154</v>
+        <f t="shared" si="44"/>
+        <v>6010.7048315863649</v>
       </c>
       <c r="FI26" s="26">
-        <f>FH26*($F$2+1)</f>
-        <v>523.62603623174164</v>
+        <f t="shared" si="44"/>
+        <v>6040.7583557442958</v>
       </c>
       <c r="FJ26" s="26">
-        <f>FI26*($F$2+1)</f>
-        <v>521.00790605058296</v>
+        <f t="shared" si="44"/>
+        <v>6070.9621475230169</v>
       </c>
       <c r="FK26" s="26">
-        <f>FJ26*($F$2+1)</f>
-        <v>518.40286652033001</v>
+        <f t="shared" si="44"/>
+        <v>6101.3169582606315</v>
       </c>
       <c r="FL26" s="26">
-        <f>FK26*($F$2+1)</f>
-        <v>515.8108521877283</v>
+        <f t="shared" si="44"/>
+        <v>6131.8235430519344</v>
       </c>
       <c r="FM26" s="26">
-        <f>FL26*($F$2+1)</f>
-        <v>513.23179792678968</v>
+        <f t="shared" si="44"/>
+        <v>6162.482660767193</v>
       </c>
       <c r="FN26" s="26">
-        <f>FM26*($F$2+1)</f>
-        <v>510.66563893715573</v>
+        <f t="shared" si="44"/>
+        <v>6193.2950740710285</v>
       </c>
       <c r="FO26" s="26">
-        <f>FN26*($F$2+1)</f>
-        <v>508.11231074246996</v>
+        <f t="shared" si="44"/>
+        <v>6224.2615494413831</v>
       </c>
       <c r="FP26" s="26">
-        <f>FO26*($F$2+1)</f>
-        <v>505.57174918875762</v>
+        <f t="shared" si="44"/>
+        <v>6255.3828571885897</v>
       </c>
       <c r="FQ26" s="26">
-        <f>FP26*($F$2+1)</f>
-        <v>503.04389044281385</v>
+        <f t="shared" si="44"/>
+        <v>6286.6597714745321</v>
       </c>
       <c r="FR26" s="26">
-        <f>FQ26*($F$2+1)</f>
-        <v>500.52867099059978</v>
+        <f t="shared" si="44"/>
+        <v>6318.0930703319045</v>
       </c>
       <c r="FS26" s="26">
-        <f>FR26*($F$2+1)</f>
-        <v>498.02602763564676</v>
+        <f t="shared" si="44"/>
+        <v>6349.6835356835636</v>
       </c>
       <c r="FT26" s="26">
-        <f>FS26*($F$2+1)</f>
-        <v>495.53589749746851</v>
+        <f t="shared" si="44"/>
+        <v>6381.431953361981</v>
       </c>
       <c r="FU26" s="26">
-        <f>FT26*($F$2+1)</f>
-        <v>493.05821800998115</v>
+        <f t="shared" si="44"/>
+        <v>6413.3391131287899</v>
       </c>
       <c r="FV26" s="26">
-        <f>FU26*($F$2+1)</f>
-        <v>490.59292691993124</v>
+        <f t="shared" si="44"/>
+        <v>6445.4058086944333</v>
       </c>
       <c r="FW26" s="26">
-        <f>FV26*($F$2+1)</f>
-        <v>488.13996228533159</v>
+        <f t="shared" si="44"/>
+        <v>6477.632837737905</v>
       </c>
       <c r="FX26" s="26">
-        <f>FW26*($F$2+1)</f>
-        <v>485.69926247390492</v>
+        <f t="shared" si="44"/>
+        <v>6510.0210019265942</v>
       </c>
       <c r="FY26" s="26">
-        <f>FX26*($F$2+1)</f>
-        <v>483.27076616153539</v>
+        <f t="shared" ref="FY26:GQ26" si="45">FX26*($F$2+1)</f>
+        <v>6542.5711069362269</v>
       </c>
       <c r="FZ26" s="26">
-        <f>FY26*($F$2+1)</f>
-        <v>480.85441233072771</v>
+        <f t="shared" si="45"/>
+        <v>6575.2839624709077</v>
       </c>
       <c r="GA26" s="26">
-        <f>FZ26*($F$2+1)</f>
-        <v>478.4501402690741</v>
+        <f t="shared" si="45"/>
+        <v>6608.1603822832612</v>
       </c>
       <c r="GB26" s="26">
-        <f>GA26*($F$2+1)</f>
-        <v>476.05788956772875</v>
+        <f t="shared" si="45"/>
+        <v>6641.2011841946769</v>
       </c>
       <c r="GC26" s="26">
-        <f>GB26*($F$2+1)</f>
-        <v>473.67760011989009</v>
+        <f t="shared" si="45"/>
+        <v>6674.4071901156494</v>
       </c>
       <c r="GD26" s="26">
-        <f>GC26*($F$2+1)</f>
-        <v>471.30921211929063</v>
+        <f t="shared" si="45"/>
+        <v>6707.7792260662272</v>
       </c>
       <c r="GE26" s="26">
-        <f>GD26*($F$2+1)</f>
-        <v>468.95266605869421</v>
+        <f t="shared" si="45"/>
+        <v>6741.3181221965579</v>
       </c>
       <c r="GF26" s="26">
-        <f>GE26*($F$2+1)</f>
-        <v>466.60790272840075</v>
+        <f t="shared" si="45"/>
+        <v>6775.0247128075398</v>
       </c>
       <c r="GG26" s="26">
-        <f>GF26*($F$2+1)</f>
-        <v>464.27486321475874</v>
+        <f t="shared" si="45"/>
+        <v>6808.8998363715764</v>
       </c>
       <c r="GH26" s="26">
-        <f>GG26*($F$2+1)</f>
-        <v>461.95348889868495</v>
+        <f t="shared" si="45"/>
+        <v>6842.9443355534331</v>
       </c>
       <c r="GI26" s="26">
-        <f>GH26*($F$2+1)</f>
-        <v>459.64372145419151</v>
+        <f t="shared" si="45"/>
+        <v>6877.1590572311998</v>
       </c>
       <c r="GJ26" s="26">
-        <f>GI26*($F$2+1)</f>
-        <v>457.34550284692057</v>
+        <f t="shared" si="45"/>
+        <v>6911.5448525173551</v>
       </c>
       <c r="GK26" s="26">
-        <f>GJ26*($F$2+1)</f>
-        <v>455.05877533268597</v>
+        <f t="shared" si="45"/>
+        <v>6946.102576779941</v>
       </c>
       <c r="GL26" s="26">
-        <f>GK26*($F$2+1)</f>
-        <v>452.78348145602251</v>
+        <f t="shared" si="45"/>
+        <v>6980.8330896638399</v>
       </c>
       <c r="GM26" s="26">
-        <f>GL26*($F$2+1)</f>
-        <v>450.51956404874238</v>
+        <f t="shared" si="45"/>
+        <v>7015.737255112158</v>
       </c>
       <c r="GN26" s="26">
-        <f>GM26*($F$2+1)</f>
-        <v>448.26696622849869</v>
+        <f t="shared" si="45"/>
+        <v>7050.8159413877183</v>
       </c>
       <c r="GO26" s="26">
-        <f>GN26*($F$2+1)</f>
-        <v>446.02563139735616</v>
+        <f t="shared" si="45"/>
+        <v>7086.0700210946561</v>
       </c>
       <c r="GP26" s="26">
-        <f>GO26*($F$2+1)</f>
-        <v>443.79550324036938</v>
+        <f t="shared" si="45"/>
+        <v>7121.5003712001289</v>
       </c>
       <c r="GQ26" s="26">
-        <f>GP26*($F$2+1)</f>
-        <v>441.57652572416754</v>
+        <f t="shared" si="45"/>
+        <v>7157.1078730561285</v>
       </c>
     </row>
     <row r="27" spans="1:199" x14ac:dyDescent="0.15">
@@ -4589,72 +4614,72 @@
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="31">
-        <f t="shared" ref="D27:F27" si="34">D26/D28</f>
+        <f t="shared" ref="D27:F27" si="46">D26/D28</f>
         <v>-0.97982698716585126</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="34"/>
+        <f t="shared" si="46"/>
         <v>-0.36875802430557902</v>
       </c>
-      <c r="F27" s="56">
-        <f t="shared" si="34"/>
-        <v>-0.26190767887832916</v>
-      </c>
-      <c r="G27" s="56">
-        <f t="shared" ref="G27" si="35">G26/G28</f>
-        <v>-0.19145751373896921</v>
-      </c>
-      <c r="H27" s="56">
-        <f t="shared" ref="H27:O27" si="36">H26/H28</f>
-        <v>-5.8483143885698995E-2</v>
-      </c>
-      <c r="I27" s="56">
-        <f t="shared" si="36"/>
-        <v>0.16657246153671881</v>
-      </c>
-      <c r="J27" s="56">
-        <f t="shared" si="36"/>
-        <v>0.5251916133164487</v>
-      </c>
-      <c r="K27" s="56">
-        <f t="shared" si="36"/>
-        <v>0.70524417474750911</v>
-      </c>
-      <c r="L27" s="56">
-        <f t="shared" si="36"/>
-        <v>0.90743017038680218</v>
-      </c>
-      <c r="M27" s="56">
-        <f t="shared" si="36"/>
-        <v>1.1342135810836829</v>
-      </c>
-      <c r="N27" s="56">
-        <f t="shared" si="36"/>
-        <v>1.3883164197297186</v>
-      </c>
-      <c r="O27" s="56">
-        <f t="shared" si="36"/>
-        <v>1.6727451338788748</v>
-      </c>
-      <c r="P27" s="56">
-        <f t="shared" ref="P27:T27" si="37">P26/P28</f>
-        <v>1.9908196782418228</v>
-      </c>
-      <c r="Q27" s="56">
-        <f t="shared" si="37"/>
-        <v>2.3462055255295065</v>
-      </c>
-      <c r="R27" s="56">
-        <f t="shared" si="37"/>
-        <v>2.7429489110428067</v>
-      </c>
-      <c r="S27" s="56">
-        <f t="shared" si="37"/>
-        <v>3.1855156360228469</v>
-      </c>
-      <c r="T27" s="56">
-        <f t="shared" si="37"/>
-        <v>3.6788337873597339</v>
+      <c r="F27" s="51">
+        <f t="shared" si="46"/>
+        <v>-0.27320017797824864</v>
+      </c>
+      <c r="G27" s="51">
+        <f t="shared" ref="G27" si="47">G26/G28</f>
+        <v>-0.22993038723855161</v>
+      </c>
+      <c r="H27" s="51">
+        <f t="shared" ref="H27:O27" si="48">H26/H28</f>
+        <v>-0.13183076120091061</v>
+      </c>
+      <c r="I27" s="51">
+        <f t="shared" si="48"/>
+        <v>4.3042636269731781E-2</v>
+      </c>
+      <c r="J27" s="51">
+        <f t="shared" si="48"/>
+        <v>0.30611820669959028</v>
+      </c>
+      <c r="K27" s="51">
+        <f t="shared" si="48"/>
+        <v>0.79408245809494704</v>
+      </c>
+      <c r="L27" s="51">
+        <f t="shared" si="48"/>
+        <v>1.4546100062963938</v>
+      </c>
+      <c r="M27" s="51">
+        <f t="shared" si="48"/>
+        <v>2.3368783752310405</v>
+      </c>
+      <c r="N27" s="51">
+        <f t="shared" si="48"/>
+        <v>3.5031264772375836</v>
+      </c>
+      <c r="O27" s="51">
+        <f t="shared" si="48"/>
+        <v>5.0320226310158045</v>
+      </c>
+      <c r="P27" s="51">
+        <f t="shared" ref="P27:T27" si="49">P26/P28</f>
+        <v>5.8185225799168947</v>
+      </c>
+      <c r="Q27" s="51">
+        <f t="shared" si="49"/>
+        <v>6.6941185459371955</v>
+      </c>
+      <c r="R27" s="51">
+        <f t="shared" si="49"/>
+        <v>7.6682813083432428</v>
+      </c>
+      <c r="S27" s="51">
+        <f t="shared" si="49"/>
+        <v>8.7514554021635327</v>
+      </c>
+      <c r="T27" s="51">
+        <f t="shared" si="49"/>
+        <v>9.9551578450175953</v>
       </c>
       <c r="U27" s="42"/>
       <c r="V27" s="42"/>
@@ -4768,63 +4793,63 @@
         <v>294.41800000000001</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" ref="F28" si="38">E28</f>
+        <f t="shared" ref="F28" si="50">E28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="G28" s="24">
-        <f t="shared" ref="G28" si="39">F28</f>
+        <f t="shared" ref="G28" si="51">F28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="H28" s="24">
-        <f t="shared" ref="H28" si="40">G28</f>
+        <f t="shared" ref="H28" si="52">G28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="I28" s="24">
-        <f t="shared" ref="I28" si="41">H28</f>
+        <f t="shared" ref="I28" si="53">H28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="J28" s="24">
-        <f t="shared" ref="J28" si="42">I28</f>
+        <f t="shared" ref="J28" si="54">I28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="K28" s="24">
-        <f t="shared" ref="K28" si="43">J28</f>
+        <f t="shared" ref="K28" si="55">J28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="L28" s="24">
-        <f t="shared" ref="L28" si="44">K28</f>
+        <f t="shared" ref="L28" si="56">K28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="M28" s="24">
-        <f t="shared" ref="M28" si="45">L28</f>
+        <f t="shared" ref="M28" si="57">L28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="N28" s="24">
-        <f t="shared" ref="N28" si="46">M28</f>
+        <f t="shared" ref="N28" si="58">M28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="O28" s="24">
-        <f t="shared" ref="O28:T28" si="47">N28</f>
+        <f t="shared" ref="O28:T28" si="59">N28</f>
         <v>294.41800000000001</v>
       </c>
       <c r="P28" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>294.41800000000001</v>
       </c>
       <c r="Q28" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>294.41800000000001</v>
       </c>
       <c r="R28" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>294.41800000000001</v>
       </c>
       <c r="S28" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>294.41800000000001</v>
       </c>
       <c r="T28" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="59"/>
         <v>294.41800000000001</v>
       </c>
       <c r="U28" s="41"/>
@@ -5046,11 +5071,11 @@
         <v>19</v>
       </c>
       <c r="B30" s="37">
-        <f t="shared" ref="B30:O30" si="48">IFERROR(B17/B15,0)</f>
+        <f t="shared" ref="B30:O30" si="60">IFERROR(B17/B15,0)</f>
         <v>0.71739925227913337</v>
       </c>
       <c r="C30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.78597873764032411</v>
       </c>
       <c r="D30" s="37">
@@ -5058,11 +5083,11 @@
         <v>0.77428052890847809</v>
       </c>
       <c r="E30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.77844555469615573</v>
       </c>
       <c r="F30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.77844555469615573</v>
       </c>
       <c r="G30" s="37">
@@ -5070,56 +5095,56 @@
         <v>0.77844555469615573</v>
       </c>
       <c r="H30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.77844555469615573</v>
       </c>
       <c r="I30" s="37">
-        <f t="shared" si="48"/>
-        <v>0.77844555469615584</v>
+        <f t="shared" si="60"/>
+        <v>0.77844555469615573</v>
       </c>
       <c r="J30" s="37">
-        <f t="shared" si="48"/>
-        <v>0.77844555469615584</v>
+        <f t="shared" si="60"/>
+        <v>0.77844555469615562</v>
       </c>
       <c r="K30" s="37">
-        <f t="shared" si="48"/>
-        <v>0.77844555469615573</v>
+        <f t="shared" si="60"/>
+        <v>0.77844555469615562</v>
       </c>
       <c r="L30" s="37">
-        <f t="shared" si="48"/>
-        <v>0.77844555469615573</v>
+        <f t="shared" si="60"/>
+        <v>0.77844555469615562</v>
       </c>
       <c r="M30" s="37">
-        <f t="shared" si="48"/>
-        <v>0.77844555469615573</v>
+        <f t="shared" si="60"/>
+        <v>0.77844555469615562</v>
       </c>
       <c r="N30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.77844555469615562</v>
       </c>
       <c r="O30" s="37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="60"/>
         <v>0.77844555469615562</v>
       </c>
       <c r="P30" s="37">
-        <f t="shared" ref="P30:T30" si="49">IFERROR(P17/P15,0)</f>
+        <f t="shared" ref="P30:T30" si="61">IFERROR(P17/P15,0)</f>
         <v>0.77844555469615562</v>
       </c>
       <c r="Q30" s="37">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0.77844555469615562</v>
       </c>
       <c r="R30" s="37">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0.77844555469615562</v>
       </c>
       <c r="S30" s="37">
-        <f t="shared" si="49"/>
+        <f t="shared" si="61"/>
         <v>0.77844555469615551</v>
       </c>
       <c r="T30" s="37">
-        <f t="shared" si="49"/>
-        <v>0.77844555469615562</v>
+        <f t="shared" si="61"/>
+        <v>0.77844555469615551</v>
       </c>
       <c r="U30" s="42"/>
       <c r="V30" s="42"/>
@@ -5223,11 +5248,11 @@
         <v>20</v>
       </c>
       <c r="B31" s="39">
-        <f t="shared" ref="B31:O31" si="50">IFERROR(B22/B15,0)</f>
+        <f t="shared" ref="B31:O31" si="62">IFERROR(B22/B15,0)</f>
         <v>-0.20250970032196822</v>
       </c>
       <c r="C31" s="39">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-6.1541892796074686E-2</v>
       </c>
       <c r="D31" s="39">
@@ -5235,68 +5260,68 @@
         <v>-0.43909774436090232</v>
       </c>
       <c r="E31" s="39">
-        <f t="shared" si="50"/>
+        <f t="shared" si="62"/>
         <v>-0.38174425653782618</v>
       </c>
       <c r="F31" s="39">
         <f>IFERROR(F22/F15,0)</f>
-        <v>-0.25399562867422443</v>
+        <v>-0.22388059163553242</v>
       </c>
       <c r="G31" s="39">
-        <f t="shared" si="50"/>
-        <v>-0.14113905933748327</v>
+        <f t="shared" si="62"/>
+        <v>-0.13774911009737872</v>
       </c>
       <c r="H31" s="39">
-        <f t="shared" si="50"/>
-        <v>-4.1352071532017726E-2</v>
+        <f t="shared" si="62"/>
+        <v>-6.1753970345042965E-2</v>
       </c>
       <c r="I31" s="39">
-        <f t="shared" si="50"/>
-        <v>4.6955681800709817E-2</v>
+        <f t="shared" si="62"/>
+        <v>5.460467155810435E-3</v>
       </c>
       <c r="J31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.12517295352728516</v>
+        <f t="shared" si="62"/>
+        <v>6.5054526348564845E-2</v>
       </c>
       <c r="K31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.15321407356331662</v>
+        <f t="shared" si="62"/>
+        <v>0.14196706565054604</v>
       </c>
       <c r="L31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.17909096002066863</v>
+        <f t="shared" si="62"/>
+        <v>0.20999087102809749</v>
       </c>
       <c r="M31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.20299903848528902</v>
+        <f t="shared" si="62"/>
+        <v>0.27022209367859351</v>
       </c>
       <c r="N31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.22511426414386915</v>
+        <f t="shared" si="62"/>
+        <v>0.32361390403924206</v>
       </c>
       <c r="O31" s="39">
-        <f t="shared" si="50"/>
-        <v>0.24559516179305543</v>
+        <f t="shared" si="62"/>
+        <v>0.3709960180662415</v>
       </c>
       <c r="P31" s="39">
-        <f t="shared" ref="P31:T31" si="51">IFERROR(P22/P15,0)</f>
-        <v>0.26458464712194274</v>
+        <f t="shared" ref="P31:T31" si="63">IFERROR(P22/P15,0)</f>
+        <v>0.3858873423410073</v>
       </c>
       <c r="Q31" s="39">
-        <f t="shared" si="51"/>
-        <v>0.28221165295532535</v>
+        <f t="shared" si="63"/>
+        <v>0.3997799042178668</v>
       </c>
       <c r="R31" s="39">
-        <f t="shared" si="51"/>
-        <v>0.29859258156897672</v>
+        <f t="shared" si="63"/>
+        <v>0.41275421660819162</v>
       </c>
       <c r="S31" s="39">
-        <f t="shared" si="51"/>
-        <v>0.31383260189272272</v>
+        <f t="shared" si="63"/>
+        <v>0.424883302059685</v>
       </c>
       <c r="T31" s="39">
-        <f t="shared" si="51"/>
-        <v>0.32802680837163023</v>
+        <f t="shared" si="63"/>
+        <v>0.4362334511204623</v>
       </c>
       <c r="U31" s="42"/>
       <c r="V31" s="42"/>
@@ -5400,11 +5425,11 @@
         <v>21</v>
       </c>
       <c r="B32" s="39">
-        <f t="shared" ref="B32:O32" si="52">IFERROR(B25/B24,0)</f>
+        <f t="shared" ref="B32:O32" si="64">IFERROR(B25/B24,0)</f>
         <v>0</v>
       </c>
       <c r="C32" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>-0.12080212611741958</v>
       </c>
       <c r="D32" s="39">
@@ -5412,68 +5437,68 @@
         <v>0</v>
       </c>
       <c r="E32" s="39">
-        <f t="shared" si="52"/>
+        <f t="shared" si="64"/>
         <v>-9.2963586163299864E-3</v>
       </c>
       <c r="F32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
       <c r="G32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
       <c r="H32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0</v>
       </c>
       <c r="I32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.10000000000000002</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="J32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="K32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="L32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="M32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="N32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="O32" s="39">
-        <f t="shared" si="52"/>
-        <v>0.1</v>
+        <f t="shared" si="64"/>
+        <v>0.15</v>
       </c>
       <c r="P32" s="39">
-        <f t="shared" ref="P32:T32" si="53">IFERROR(P25/P24,0)</f>
-        <v>0.1</v>
+        <f t="shared" ref="P32:T32" si="65">IFERROR(P25/P24,0)</f>
+        <v>0.15</v>
       </c>
       <c r="Q32" s="39">
-        <f t="shared" si="53"/>
-        <v>0.1</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="R32" s="39">
-        <f t="shared" si="53"/>
-        <v>0.1</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="S32" s="39">
-        <f t="shared" si="53"/>
-        <v>0.1</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="T32" s="39">
-        <f t="shared" si="53"/>
-        <v>0.1</v>
+        <f t="shared" si="65"/>
+        <v>0.15</v>
       </c>
       <c r="U32" s="42"/>
       <c r="V32" s="42"/>
@@ -5693,77 +5718,77 @@
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57">
-        <f t="shared" ref="C34:T34" si="54">C15/B15-1</f>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52">
+        <f t="shared" ref="C34:T34" si="66">C15/B15-1</f>
         <v>0.58637119505607904</v>
       </c>
-      <c r="D34" s="57">
-        <f t="shared" si="54"/>
+      <c r="D34" s="52">
+        <f t="shared" si="66"/>
         <v>0.43372239982157468</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="52">
         <f>E15/D15-1</f>
         <v>0.48831734508685543</v>
       </c>
-      <c r="F34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="G34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="H34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="I34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="J34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="K34" s="57">
-        <f t="shared" si="54"/>
+      <c r="F34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.37500000000000022</v>
+      </c>
+      <c r="H34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.37500000000000022</v>
+      </c>
+      <c r="I34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.375</v>
+      </c>
+      <c r="J34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.37500000000000022</v>
+      </c>
+      <c r="K34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.25</v>
+      </c>
+      <c r="L34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.25</v>
+      </c>
+      <c r="M34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.25</v>
+      </c>
+      <c r="N34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.25</v>
+      </c>
+      <c r="O34" s="52">
+        <f t="shared" si="66"/>
+        <v>0.25</v>
+      </c>
+      <c r="P34" s="52">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="L34" s="57">
-        <f t="shared" si="54"/>
+      <c r="Q34" s="52">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M34" s="57">
-        <f t="shared" si="54"/>
+      <c r="R34" s="52">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N34" s="57">
-        <f t="shared" si="54"/>
+      <c r="S34" s="52">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.10000000000000031</v>
-      </c>
-      <c r="P34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S34" s="57">
-        <f t="shared" si="54"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="T34" s="57">
-        <f t="shared" si="54"/>
+      <c r="T34" s="52">
+        <f t="shared" si="66"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U34" s="42"/>
@@ -5869,75 +5894,75 @@
       </c>
       <c r="B35" s="39"/>
       <c r="C35" s="39">
-        <f t="shared" ref="C35:T35" si="55">C18/B18-1</f>
+        <f t="shared" ref="C35:T35" si="67">C18/B18-1</f>
         <v>0.33333333333333326</v>
       </c>
       <c r="D35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.6875</v>
       </c>
       <c r="E35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.68518518518518512</v>
       </c>
       <c r="F35" s="39">
-        <f t="shared" si="55"/>
-        <v>0.25</v>
+        <f t="shared" si="67"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="G35" s="39">
-        <f t="shared" si="55"/>
-        <v>0.25</v>
+        <f t="shared" si="67"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="H35" s="39">
-        <f t="shared" si="55"/>
-        <v>0.25</v>
+        <f t="shared" si="67"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="I35" s="39">
-        <f t="shared" si="55"/>
-        <v>0.25</v>
+        <f t="shared" si="67"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="J35" s="39">
-        <f t="shared" si="55"/>
-        <v>0.25</v>
+        <f t="shared" si="67"/>
+        <v>0.35000000000000009</v>
       </c>
       <c r="K35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="M35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="N35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="O35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="P35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="Q35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="R35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="T35" s="39">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="U35" s="42"/>
@@ -6043,75 +6068,75 @@
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="39">
-        <f t="shared" ref="C36:T36" si="56">C19/B19-1</f>
+        <f t="shared" ref="C36:T36" si="68">C19/B19-1</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="D36" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.5161290322580645</v>
       </c>
       <c r="E36" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.7021276595744681</v>
       </c>
       <c r="F36" s="39">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.25</v>
       </c>
       <c r="G36" s="39">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.25</v>
       </c>
       <c r="H36" s="39">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.25</v>
       </c>
       <c r="I36" s="39">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.25</v>
       </c>
       <c r="J36" s="39">
-        <f t="shared" si="56"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="68"/>
+        <v>0.25</v>
       </c>
       <c r="K36" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L36" s="39">
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M36" s="39">
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="N36" s="39">
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="O36" s="39">
+        <f t="shared" si="68"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="P36" s="39">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="L36" s="39">
-        <f t="shared" si="56"/>
+      <c r="Q36" s="39">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M36" s="39">
-        <f t="shared" si="56"/>
+      <c r="R36" s="39">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N36" s="39">
-        <f t="shared" si="56"/>
+      <c r="S36" s="39">
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O36" s="39">
-        <f t="shared" si="56"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="P36" s="39">
-        <f t="shared" si="56"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="Q36" s="39">
-        <f t="shared" si="56"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="R36" s="39">
-        <f t="shared" si="56"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="S36" s="39">
-        <f t="shared" si="56"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
       <c r="T36" s="39">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="U36" s="42"/>
@@ -6221,71 +6246,71 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="D37" s="39">
-        <f t="shared" ref="D37:T37" si="57">D20/C20-1</f>
+        <f t="shared" ref="D37:T37" si="69">D20/C20-1</f>
         <v>3.3</v>
       </c>
       <c r="E37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>-4.6511627906976716E-2</v>
       </c>
       <c r="F37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="G37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="H37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000129E-2</v>
+        <f t="shared" si="69"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M37" s="39">
+        <f t="shared" si="69"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="N37" s="39">
+        <f t="shared" si="69"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="O37" s="39">
+        <f t="shared" si="69"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P37" s="39">
+        <f t="shared" si="69"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="M37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="N37" s="39">
-        <f t="shared" si="57"/>
+      <c r="Q37" s="39">
+        <f t="shared" si="69"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="O37" s="39">
-        <f t="shared" si="57"/>
+      <c r="R37" s="39">
+        <f t="shared" si="69"/>
+        <v>-1.9999999999999907E-2</v>
+      </c>
+      <c r="S37" s="39">
+        <f t="shared" si="69"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="Q37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="R37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000129E-2</v>
-      </c>
-      <c r="S37" s="39">
-        <f t="shared" si="57"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
       <c r="T37" s="39">
-        <f t="shared" si="57"/>
+        <f t="shared" si="69"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U37" s="42"/>
@@ -6387,80 +6412,80 @@
     </row>
     <row r="38" spans="1:116" x14ac:dyDescent="0.15">
       <c r="A38" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51">
+        <v>64</v>
+      </c>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48">
         <f>C21/B21-1</f>
         <v>0.46153846153846145</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="48">
         <f>D21/C21-1</f>
         <v>1.0526315789473686</v>
       </c>
-      <c r="E38" s="51">
-        <f t="shared" ref="E38:T38" si="58">E21/D21-1</f>
+      <c r="E38" s="48">
+        <f t="shared" ref="E38:T38" si="70">E21/D21-1</f>
         <v>0.42307692307692313</v>
       </c>
-      <c r="F38" s="51">
-        <f t="shared" si="58"/>
-        <v>0.2013513513513514</v>
-      </c>
-      <c r="G38" s="51">
-        <f t="shared" si="58"/>
-        <v>0.20243094613173351</v>
-      </c>
-      <c r="H38" s="51">
-        <f t="shared" si="58"/>
-        <v>0.20350729940284706</v>
-      </c>
-      <c r="I38" s="51">
-        <f t="shared" si="58"/>
-        <v>0.20457939473710929</v>
-      </c>
-      <c r="J38" s="51">
-        <f t="shared" si="58"/>
-        <v>0.20564623552078976</v>
-      </c>
-      <c r="K38" s="51">
+      <c r="F38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.2527027027027029</v>
+      </c>
+      <c r="G38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.25684406088936829</v>
+      </c>
+      <c r="H38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.26094856401722311</v>
+      </c>
+      <c r="I38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.26500249487270122</v>
+      </c>
+      <c r="J38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.26899299842798019</v>
+      </c>
+      <c r="K38" s="48">
         <f>K21/J21-1</f>
-        <v>5.2783521022549129E-2</v>
-      </c>
-      <c r="L38" s="51">
-        <f t="shared" si="58"/>
-        <v>5.4473541460975383E-2</v>
-      </c>
-      <c r="M38" s="51">
-        <f t="shared" si="58"/>
-        <v>5.6121323595889727E-2</v>
-      </c>
-      <c r="N38" s="51">
-        <f t="shared" si="58"/>
-        <v>5.7725440090206526E-2</v>
-      </c>
-      <c r="O38" s="51">
-        <f t="shared" si="58"/>
-        <v>5.9284812193399761E-2</v>
-      </c>
-      <c r="P38" s="51">
-        <f t="shared" si="58"/>
-        <v>6.0798689200601608E-2</v>
-      </c>
-      <c r="Q38" s="51">
-        <f t="shared" si="58"/>
-        <v>6.2266624818272609E-2</v>
-      </c>
-      <c r="R38" s="51">
-        <f t="shared" si="58"/>
-        <v>6.3688451329495521E-2</v>
-      </c>
-      <c r="S38" s="51">
-        <f t="shared" si="58"/>
-        <v>6.5064252396165534E-2</v>
-      </c>
-      <c r="T38" s="51">
-        <f t="shared" si="58"/>
-        <v>6.6394335257794923E-2</v>
+        <v>0.11523425399648679</v>
+      </c>
+      <c r="L38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.1164059222968552</v>
+      </c>
+      <c r="M38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.11755491602724799</v>
+      </c>
+      <c r="N38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.11868027930630221</v>
+      </c>
+      <c r="O38" s="48">
+        <f t="shared" si="70"/>
+        <v>0.11978117629191631</v>
+      </c>
+      <c r="P38" s="48">
+        <f t="shared" si="70"/>
+        <v>5.9797581713485481E-2</v>
+      </c>
+      <c r="Q38" s="48">
+        <f t="shared" si="70"/>
+        <v>6.1071205279690233E-2</v>
+      </c>
+      <c r="R38" s="48">
+        <f t="shared" si="70"/>
+        <v>6.2310435046509127E-2</v>
+      </c>
+      <c r="S38" s="48">
+        <f t="shared" si="70"/>
+        <v>6.3515695869631239E-2</v>
+      </c>
+      <c r="T38" s="48">
+        <f t="shared" si="70"/>
+        <v>6.4687508709556196E-2</v>
       </c>
       <c r="U38" s="42"/>
       <c r="V38" s="42"/>
@@ -6560,25 +6585,25 @@
       <c r="DL38" s="42"/>
     </row>
     <row r="39" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
       <c r="U39" s="42"/>
       <c r="V39" s="42"/>
       <c r="W39" s="42"/>
@@ -6680,8 +6705,8 @@
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
       <c r="D40" s="26">
         <f>D41-D42</f>
         <v>151</v>
@@ -6690,65 +6715,65 @@
         <f>E41-E42</f>
         <v>637</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="53">
         <f>E40+F26</f>
-        <v>559.88966500000004</v>
-      </c>
-      <c r="G40" s="58">
+        <v>556.56494999999995</v>
+      </c>
+      <c r="G40" s="53">
         <f>F40+G26</f>
-        <v>503.52112672000021</v>
-      </c>
-      <c r="H40" s="58">
-        <f t="shared" ref="H40:T40" si="59">G40+H26</f>
-        <v>486.30263646346049</v>
-      </c>
-      <c r="I40" s="58">
-        <f t="shared" si="59"/>
-        <v>535.34456744417821</v>
-      </c>
-      <c r="J40" s="58">
-        <f t="shared" si="59"/>
-        <v>689.97043185358041</v>
-      </c>
-      <c r="K40" s="58">
-        <f t="shared" si="59"/>
-        <v>897.60701129439258</v>
-      </c>
-      <c r="L40" s="58">
-        <f t="shared" si="59"/>
-        <v>1164.7707871993341</v>
-      </c>
-      <c r="M40" s="58">
-        <f t="shared" si="59"/>
-        <v>1498.7036813148297</v>
-      </c>
-      <c r="N40" s="58">
-        <f t="shared" si="59"/>
-        <v>1907.4490249788141</v>
-      </c>
-      <c r="O40" s="58">
-        <f t="shared" si="59"/>
-        <v>2399.9353018051647</v>
-      </c>
-      <c r="P40" s="58">
-        <f t="shared" si="59"/>
-        <v>2986.068449833766</v>
-      </c>
-      <c r="Q40" s="58">
-        <f t="shared" si="59"/>
-        <v>3676.8335882491119</v>
-      </c>
-      <c r="R40" s="58">
-        <f t="shared" si="59"/>
-        <v>4484.4071207405132</v>
-      </c>
-      <c r="S40" s="58">
-        <f t="shared" si="59"/>
-        <v>5422.2802632670882</v>
-      </c>
-      <c r="T40" s="58">
-        <f t="shared" si="59"/>
-        <v>6505.3951492739661</v>
+        <v>488.86930525000008</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" ref="H40:T40" si="71">G40+H26</f>
+        <v>450.05595619875038</v>
+      </c>
+      <c r="I40" s="53">
+        <f t="shared" si="71"/>
+        <v>462.72848308401228</v>
+      </c>
+      <c r="J40" s="53">
+        <f t="shared" si="71"/>
+        <v>552.85519326409224</v>
+      </c>
+      <c r="K40" s="53">
+        <f t="shared" si="71"/>
+        <v>786.64736241149035</v>
+      </c>
+      <c r="L40" s="53">
+        <f t="shared" si="71"/>
+        <v>1214.910731245262</v>
+      </c>
+      <c r="M40" s="53">
+        <f t="shared" si="71"/>
+        <v>1902.9297887240346</v>
+      </c>
+      <c r="N40" s="53">
+        <f t="shared" si="71"/>
+        <v>2934.3132798993693</v>
+      </c>
+      <c r="O40" s="53">
+        <f t="shared" si="71"/>
+        <v>4415.8313188777802</v>
+      </c>
+      <c r="P40" s="53">
+        <f t="shared" si="71"/>
+        <v>6128.9090998117526</v>
+      </c>
+      <c r="Q40" s="53">
+        <f t="shared" si="71"/>
+        <v>8099.7780938694896</v>
+      </c>
+      <c r="R40" s="53">
+        <f t="shared" si="71"/>
+        <v>10357.458140109291</v>
+      </c>
+      <c r="S40" s="53">
+        <f t="shared" si="71"/>
+        <v>12934.044136703475</v>
+      </c>
+      <c r="T40" s="53">
+        <f t="shared" si="71"/>
+        <v>15865.021799117865</v>
       </c>
       <c r="U40" s="42"/>
       <c r="V40" s="42"/>
@@ -6851,31 +6876,31 @@
       <c r="A41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="59">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="54">
         <f>Reports!I34</f>
         <v>151</v>
       </c>
-      <c r="E41" s="59">
+      <c r="E41" s="54">
         <f>Reports!M34</f>
         <v>637</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="54"/>
+      <c r="T41" s="54"/>
       <c r="U41" s="42"/>
       <c r="V41" s="42"/>
       <c r="W41" s="42"/>
@@ -6977,31 +7002,31 @@
       <c r="A42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="59">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="54">
         <f>Reports!I35</f>
         <v>0</v>
       </c>
-      <c r="E42" s="59">
+      <c r="E42" s="54">
         <f>Reports!M35</f>
         <v>0</v>
       </c>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
       <c r="U42" s="42"/>
       <c r="V42" s="42"/>
       <c r="W42" s="42"/>
@@ -7100,25 +7125,25 @@
       <c r="DL42" s="42"/>
     </row>
     <row r="43" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="60"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="60"/>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="60"/>
-      <c r="T43" s="60"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
       <c r="U43" s="42"/>
       <c r="V43" s="42"/>
       <c r="W43" s="42"/>
@@ -7220,31 +7245,31 @@
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="59">
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="54">
         <f>Reports!I37</f>
         <v>4</v>
       </c>
-      <c r="E44" s="59">
+      <c r="E44" s="54">
         <f>Reports!M37</f>
         <v>4</v>
       </c>
-      <c r="F44" s="61"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="61"/>
-      <c r="L44" s="61"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="61"/>
-      <c r="O44" s="61"/>
-      <c r="P44" s="61"/>
-      <c r="Q44" s="61"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="61"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
       <c r="U44" s="41"/>
       <c r="V44" s="41"/>
       <c r="W44" s="41"/>
@@ -7346,31 +7371,31 @@
       <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="59">
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="54">
         <f>Reports!I38</f>
         <v>298</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="54">
         <f>Reports!M38</f>
         <v>831</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
-      <c r="M45" s="61"/>
-      <c r="N45" s="61"/>
-      <c r="O45" s="61"/>
-      <c r="P45" s="61"/>
-      <c r="Q45" s="61"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="61"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="56"/>
+      <c r="P45" s="56"/>
+      <c r="Q45" s="56"/>
+      <c r="R45" s="56"/>
+      <c r="S45" s="56"/>
+      <c r="T45" s="56"/>
       <c r="U45" s="41"/>
       <c r="V45" s="41"/>
       <c r="W45" s="41"/>
@@ -7472,31 +7497,31 @@
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="59">
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="54">
         <f>Reports!I39</f>
         <v>80</v>
       </c>
-      <c r="E46" s="59">
+      <c r="E46" s="54">
         <f>Reports!M39</f>
         <v>105</v>
       </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="61"/>
-      <c r="K46" s="61"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="61"/>
-      <c r="N46" s="61"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="61"/>
-      <c r="Q46" s="61"/>
-      <c r="R46" s="61"/>
-      <c r="S46" s="61"/>
-      <c r="T46" s="61"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
+      <c r="K46" s="56"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
       <c r="U46" s="41"/>
       <c r="V46" s="41"/>
       <c r="W46" s="41"/>
@@ -7595,8 +7620,8 @@
       <c r="DL46" s="41"/>
     </row>
     <row r="47" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="42"/>
       <c r="E47" s="42"/>
       <c r="F47" s="42"/>
@@ -7715,13 +7740,13 @@
       <c r="A48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="62">
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="57">
         <f>D45-D44-D41</f>
         <v>143</v>
       </c>
-      <c r="E48" s="62">
+      <c r="E48" s="57">
         <f>E45-E44-E41</f>
         <v>190</v>
       </c>
@@ -7841,13 +7866,13 @@
       <c r="A49" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="62">
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="57">
         <f>D45-D46</f>
         <v>218</v>
       </c>
-      <c r="E49" s="62">
+      <c r="E49" s="57">
         <f>E45-E46</f>
         <v>726</v>
       </c>
@@ -7964,8 +7989,8 @@
       <c r="DL49" s="41"/>
     </row>
     <row r="50" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
       <c r="D50" s="42"/>
       <c r="E50" s="42"/>
       <c r="F50" s="42"/>
@@ -8084,13 +8109,13 @@
       <c r="A51" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="63">
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="58">
         <f>D26/D49</f>
         <v>-0.38032568807339451</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="58">
         <f>E26/E49</f>
         <v>-0.14954407713498616</v>
       </c>
@@ -8210,13 +8235,13 @@
       <c r="A52" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="63">
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="58">
         <f>D26/D45</f>
         <v>-0.27822483221476513</v>
       </c>
-      <c r="E52" s="63">
+      <c r="E52" s="58">
         <f>E26/E45</f>
         <v>-0.13064861612515039</v>
       </c>
@@ -8336,13 +8361,13 @@
       <c r="A53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="63">
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="58">
         <f>D26/(D49-D44)</f>
         <v>-0.38743457943925236</v>
       </c>
-      <c r="E53" s="63">
+      <c r="E53" s="58">
         <f>E26/(E49-E44)</f>
         <v>-0.15037257617728525</v>
       </c>
@@ -8462,13 +8487,13 @@
       <c r="A54" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="63">
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="58">
         <f>D26/D48</f>
         <v>-0.57979720279720282</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E54" s="58">
         <f>E26/E48</f>
         <v>-0.57141578947368399</v>
       </c>
@@ -8585,8 +8610,8 @@
       <c r="DL54" s="42"/>
     </row>
     <row r="55" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
@@ -8702,26 +8727,42 @@
       <c r="DL55" s="42"/>
     </row>
     <row r="56" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="51"/>
-      <c r="D56" s="63">
-        <f>(D44/D28)/$C$2</f>
-        <v>1.6858511469637703E-3</v>
-      </c>
-      <c r="E56" s="63">
-        <f>(E44/E28)/$C$2</f>
-        <v>4.8452659943950545E-4</v>
-      </c>
-      <c r="F56" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
+      <c r="A56" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58">
+        <f t="shared" ref="C56:J56" si="72">C10/B10-1</f>
+        <v>0.58637119505607904</v>
+      </c>
+      <c r="D56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.43372239982157468</v>
+      </c>
+      <c r="E56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.48831734508685543</v>
+      </c>
+      <c r="F56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="G56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.44999999999999973</v>
+      </c>
+      <c r="H56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="J56" s="58">
+        <f t="shared" si="72"/>
+        <v>0.44999999999999996</v>
+      </c>
       <c r="K56" s="42"/>
       <c r="L56" s="42"/>
       <c r="M56" s="42"/>
@@ -8830,15 +8871,16 @@
       <c r="DL56" s="42"/>
     </row>
     <row r="57" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="67"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="42"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
       <c r="N57" s="42"/>
@@ -8945,921 +8987,281 @@
       <c r="DK57" s="42"/>
       <c r="DL57" s="42"/>
     </row>
-    <row r="58" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B58" s="63">
-        <f>B26/B18-1</f>
-        <v>-1.7154583333333338</v>
-      </c>
-      <c r="C58" s="63">
-        <f t="shared" ref="B58:J58" si="60">C26/C18-1</f>
-        <v>-1.2899375000000002</v>
-      </c>
-      <c r="D58" s="63">
-        <f t="shared" si="60"/>
-        <v>-2.5353888888888889</v>
-      </c>
-      <c r="E58" s="63">
-        <f t="shared" si="60"/>
-        <v>-2.1930659340659338</v>
-      </c>
-      <c r="F58" s="63">
-        <f t="shared" si="60"/>
-        <v>-1.6778930549450544</v>
-      </c>
-      <c r="G58" s="63">
-        <f t="shared" si="60"/>
-        <v>-1.396438071419779</v>
-      </c>
-      <c r="H58" s="63">
-        <f t="shared" si="60"/>
-        <v>-1.0968776594653664</v>
-      </c>
-      <c r="I58" s="63">
-        <f t="shared" si="60"/>
-        <v>-0.77925741835492346</v>
-      </c>
-      <c r="J58" s="63">
-        <f t="shared" si="60"/>
-        <v>-0.44321095330029769</v>
-      </c>
-      <c r="K58" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="L58" s="42"/>
-      <c r="M58" s="42"/>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="R58" s="42"/>
-      <c r="S58" s="42"/>
-      <c r="T58" s="42"/>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="Y58" s="42"/>
-      <c r="Z58" s="42"/>
-      <c r="AA58" s="42"/>
-      <c r="AB58" s="42"/>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
-      <c r="AG58" s="42"/>
-      <c r="AH58" s="42"/>
-      <c r="AI58" s="42"/>
-      <c r="AJ58" s="42"/>
-      <c r="AK58" s="42"/>
-      <c r="AL58" s="42"/>
-      <c r="AM58" s="42"/>
-      <c r="AN58" s="42"/>
-      <c r="AO58" s="42"/>
-      <c r="AP58" s="42"/>
-      <c r="AQ58" s="42"/>
-      <c r="AR58" s="42"/>
-      <c r="AS58" s="42"/>
-      <c r="AT58" s="42"/>
-      <c r="AU58" s="42"/>
-      <c r="AV58" s="42"/>
-      <c r="AW58" s="42"/>
-      <c r="AX58" s="42"/>
-      <c r="AY58" s="42"/>
-      <c r="AZ58" s="42"/>
-      <c r="BA58" s="42"/>
-      <c r="BB58" s="42"/>
-      <c r="BC58" s="42"/>
-      <c r="BD58" s="42"/>
-      <c r="BE58" s="42"/>
-      <c r="BF58" s="42"/>
-      <c r="BG58" s="42"/>
-      <c r="BH58" s="42"/>
-      <c r="BI58" s="42"/>
-      <c r="BJ58" s="42"/>
-      <c r="BK58" s="42"/>
-      <c r="BL58" s="42"/>
-      <c r="BM58" s="42"/>
-      <c r="BN58" s="42"/>
-      <c r="BO58" s="42"/>
-      <c r="BP58" s="42"/>
-      <c r="BQ58" s="42"/>
-      <c r="BR58" s="42"/>
-      <c r="BS58" s="42"/>
-      <c r="BT58" s="42"/>
-      <c r="BU58" s="42"/>
-      <c r="BV58" s="42"/>
-      <c r="BW58" s="42"/>
-      <c r="BX58" s="42"/>
-      <c r="BY58" s="42"/>
-      <c r="BZ58" s="42"/>
-      <c r="CA58" s="42"/>
-      <c r="CB58" s="42"/>
-      <c r="CC58" s="42"/>
-      <c r="CD58" s="42"/>
-      <c r="CE58" s="42"/>
-      <c r="CF58" s="42"/>
-      <c r="CG58" s="42"/>
-      <c r="CH58" s="42"/>
-      <c r="CI58" s="42"/>
-      <c r="CJ58" s="42"/>
-      <c r="CK58" s="42"/>
-      <c r="CL58" s="42"/>
-      <c r="CM58" s="42"/>
-      <c r="CN58" s="42"/>
-      <c r="CO58" s="42"/>
-      <c r="CP58" s="42"/>
-      <c r="CQ58" s="42"/>
-      <c r="CR58" s="42"/>
-      <c r="CS58" s="42"/>
-      <c r="CT58" s="42"/>
-      <c r="CU58" s="42"/>
-      <c r="CV58" s="42"/>
-      <c r="CW58" s="42"/>
-      <c r="CX58" s="42"/>
-      <c r="CY58" s="42"/>
-      <c r="CZ58" s="42"/>
-      <c r="DA58" s="42"/>
-      <c r="DB58" s="42"/>
-      <c r="DC58" s="42"/>
-      <c r="DD58" s="42"/>
-      <c r="DE58" s="42"/>
-      <c r="DF58" s="42"/>
-      <c r="DG58" s="42"/>
-      <c r="DH58" s="42"/>
-      <c r="DI58" s="42"/>
-      <c r="DJ58" s="42"/>
-      <c r="DK58" s="42"/>
-      <c r="DL58" s="42"/>
+    <row r="58" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58">
+        <f>E12/D12-1</f>
+        <v>0.22066598918982594</v>
+      </c>
+      <c r="F58" s="58">
+        <f t="shared" ref="F58:J58" si="73">F12/E12-1</f>
+        <v>0.25</v>
+      </c>
+      <c r="G58" s="58">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+      <c r="H58" s="58">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+      <c r="I58" s="58">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+      <c r="J58" s="58">
+        <f t="shared" si="73"/>
+        <v>0.25</v>
+      </c>
+      <c r="K58" s="58"/>
+      <c r="L58" s="58"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
+      <c r="Q58" s="58"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="58"/>
+      <c r="T58" s="58"/>
+      <c r="U58" s="58"/>
+      <c r="V58" s="58"/>
+      <c r="W58" s="58"/>
+      <c r="X58" s="58"/>
+      <c r="Y58" s="58"/>
+      <c r="Z58" s="58"/>
+      <c r="AA58" s="58"/>
+      <c r="AB58" s="58"/>
+      <c r="AC58" s="58"/>
+      <c r="AD58" s="58"/>
+      <c r="AE58" s="58"/>
+      <c r="AF58" s="58"/>
+      <c r="AG58" s="58"/>
+      <c r="AH58" s="58"/>
+      <c r="AI58" s="58"/>
+      <c r="AJ58" s="58"/>
+      <c r="AK58" s="58"/>
+      <c r="AL58" s="58"/>
+      <c r="AM58" s="58"/>
+      <c r="AN58" s="58"/>
+      <c r="AO58" s="58"/>
+      <c r="AP58" s="58"/>
+      <c r="AQ58" s="58"/>
+      <c r="AR58" s="58"/>
+      <c r="AS58" s="58"/>
+      <c r="AT58" s="58"/>
+      <c r="AU58" s="58"/>
+      <c r="AV58" s="58"/>
+      <c r="AW58" s="58"/>
+      <c r="AX58" s="58"/>
+      <c r="AY58" s="58"/>
+      <c r="AZ58" s="58"/>
+      <c r="BA58" s="58"/>
+      <c r="BB58" s="58"/>
+      <c r="BC58" s="58"/>
+      <c r="BD58" s="58"/>
+      <c r="BE58" s="58"/>
+      <c r="BF58" s="58"/>
+      <c r="BG58" s="58"/>
+      <c r="BH58" s="58"/>
+      <c r="BI58" s="58"/>
+      <c r="BJ58" s="58"/>
+      <c r="BK58" s="58"/>
+      <c r="BL58" s="58"/>
+      <c r="BM58" s="58"/>
+      <c r="BN58" s="58"/>
+      <c r="BO58" s="58"/>
+      <c r="BP58" s="58"/>
+      <c r="BQ58" s="58"/>
+      <c r="BR58" s="58"/>
+      <c r="BS58" s="58"/>
+      <c r="BT58" s="58"/>
+      <c r="BU58" s="58"/>
+      <c r="BV58" s="58"/>
+      <c r="BW58" s="58"/>
+      <c r="BX58" s="58"/>
+      <c r="BY58" s="58"/>
+      <c r="BZ58" s="58"/>
+      <c r="CA58" s="58"/>
+      <c r="CB58" s="58"/>
+      <c r="CC58" s="58"/>
+      <c r="CD58" s="58"/>
+      <c r="CE58" s="58"/>
+      <c r="CF58" s="58"/>
+      <c r="CG58" s="58"/>
+      <c r="CH58" s="58"/>
+      <c r="CI58" s="58"/>
+      <c r="CJ58" s="58"/>
+      <c r="CK58" s="58"/>
+      <c r="CL58" s="58"/>
+      <c r="CM58" s="58"/>
+      <c r="CN58" s="58"/>
+      <c r="CO58" s="58"/>
+      <c r="CP58" s="58"/>
+      <c r="CQ58" s="58"/>
+      <c r="CR58" s="58"/>
+      <c r="CS58" s="58"/>
+      <c r="CT58" s="58"/>
+      <c r="CU58" s="58"/>
+      <c r="CV58" s="58"/>
+      <c r="CW58" s="58"/>
+      <c r="CX58" s="58"/>
+      <c r="CY58" s="58"/>
+      <c r="CZ58" s="58"/>
+      <c r="DA58" s="58"/>
+      <c r="DB58" s="58"/>
+      <c r="DC58" s="58"/>
+      <c r="DD58" s="58"/>
+      <c r="DE58" s="58"/>
+      <c r="DF58" s="58"/>
+      <c r="DG58" s="58"/>
+      <c r="DH58" s="58"/>
+      <c r="DI58" s="58"/>
+      <c r="DJ58" s="58"/>
+      <c r="DK58" s="58"/>
+      <c r="DL58" s="58"/>
     </row>
-    <row r="59" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A59" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B59" s="68" t="str">
-        <f>ROUND($C$4/B18,0)&amp;"x"</f>
-        <v>346x</v>
-      </c>
-      <c r="C59" s="68" t="str">
-        <f>ROUND($C$4/C18,0)&amp;"x"</f>
-        <v>259x</v>
-      </c>
-      <c r="D59" s="68" t="str">
-        <f>ROUND($C$4/D18,0)&amp;"x"</f>
-        <v>154x</v>
-      </c>
-      <c r="E59" s="68" t="str">
-        <f>ROUND($C$4/E18,0)&amp;"x"</f>
-        <v>91x</v>
-      </c>
-      <c r="F59" s="68" t="str">
-        <f>ROUND($C$4/F18,0)&amp;"x"</f>
-        <v>73x</v>
-      </c>
-      <c r="G59" s="68" t="str">
-        <f>ROUND($C$4/G18,0)&amp;"x"</f>
-        <v>58x</v>
-      </c>
-      <c r="H59" s="68" t="str">
-        <f>ROUND($C$4/H18,0)&amp;"x"</f>
-        <v>47x</v>
-      </c>
-      <c r="I59" s="68" t="str">
-        <f>ROUND($C$4/I18,0)&amp;"x"</f>
-        <v>37x</v>
-      </c>
-      <c r="J59" s="68" t="str">
-        <f>ROUND($C$4/J18,0)&amp;"x"</f>
-        <v>30x</v>
-      </c>
-      <c r="K59" s="67" t="s">
-        <v>79</v>
-      </c>
-      <c r="L59" s="42"/>
-      <c r="M59" s="42"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="42"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="42"/>
-      <c r="S59" s="42"/>
-      <c r="T59" s="42"/>
-      <c r="U59" s="42"/>
-      <c r="V59" s="42"/>
-      <c r="W59" s="42"/>
-      <c r="X59" s="42"/>
-      <c r="Y59" s="42"/>
-      <c r="Z59" s="42"/>
-      <c r="AA59" s="42"/>
-      <c r="AB59" s="42"/>
-      <c r="AC59" s="42"/>
-      <c r="AD59" s="42"/>
-      <c r="AE59" s="42"/>
-      <c r="AF59" s="42"/>
-      <c r="AG59" s="42"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="42"/>
-      <c r="AK59" s="42"/>
-      <c r="AL59" s="42"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="42"/>
-      <c r="AO59" s="42"/>
-      <c r="AP59" s="42"/>
-      <c r="AQ59" s="42"/>
-      <c r="AR59" s="42"/>
-      <c r="AS59" s="42"/>
-      <c r="AT59" s="42"/>
-      <c r="AU59" s="42"/>
-      <c r="AV59" s="42"/>
-      <c r="AW59" s="42"/>
-      <c r="AX59" s="42"/>
-      <c r="AY59" s="42"/>
-      <c r="AZ59" s="42"/>
-      <c r="BA59" s="42"/>
-      <c r="BB59" s="42"/>
-      <c r="BC59" s="42"/>
-      <c r="BD59" s="42"/>
-      <c r="BE59" s="42"/>
-      <c r="BF59" s="42"/>
-      <c r="BG59" s="42"/>
-      <c r="BH59" s="42"/>
-      <c r="BI59" s="42"/>
-      <c r="BJ59" s="42"/>
-      <c r="BK59" s="42"/>
-      <c r="BL59" s="42"/>
-      <c r="BM59" s="42"/>
-      <c r="BN59" s="42"/>
-      <c r="BO59" s="42"/>
-      <c r="BP59" s="42"/>
-      <c r="BQ59" s="42"/>
-      <c r="BR59" s="42"/>
-      <c r="BS59" s="42"/>
-      <c r="BT59" s="42"/>
-      <c r="BU59" s="42"/>
-      <c r="BV59" s="42"/>
-      <c r="BW59" s="42"/>
-      <c r="BX59" s="42"/>
-      <c r="BY59" s="42"/>
-      <c r="BZ59" s="42"/>
-      <c r="CA59" s="42"/>
-      <c r="CB59" s="42"/>
-      <c r="CC59" s="42"/>
-      <c r="CD59" s="42"/>
-      <c r="CE59" s="42"/>
-      <c r="CF59" s="42"/>
-      <c r="CG59" s="42"/>
-      <c r="CH59" s="42"/>
-      <c r="CI59" s="42"/>
-      <c r="CJ59" s="42"/>
-      <c r="CK59" s="42"/>
-      <c r="CL59" s="42"/>
-      <c r="CM59" s="42"/>
-      <c r="CN59" s="42"/>
-      <c r="CO59" s="42"/>
-      <c r="CP59" s="42"/>
-      <c r="CQ59" s="42"/>
-      <c r="CR59" s="42"/>
-      <c r="CS59" s="42"/>
-      <c r="CT59" s="42"/>
-      <c r="CU59" s="42"/>
-      <c r="CV59" s="42"/>
-      <c r="CW59" s="42"/>
-      <c r="CX59" s="42"/>
-      <c r="CY59" s="42"/>
-      <c r="CZ59" s="42"/>
-      <c r="DA59" s="42"/>
-      <c r="DB59" s="42"/>
-      <c r="DC59" s="42"/>
-      <c r="DD59" s="42"/>
-      <c r="DE59" s="42"/>
-      <c r="DF59" s="42"/>
-      <c r="DG59" s="42"/>
-      <c r="DH59" s="42"/>
-      <c r="DI59" s="42"/>
-      <c r="DJ59" s="42"/>
-      <c r="DK59" s="42"/>
-      <c r="DL59" s="42"/>
-    </row>
-    <row r="60" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
-      <c r="N60" s="42"/>
-      <c r="O60" s="42"/>
-      <c r="P60" s="42"/>
-      <c r="Q60" s="42"/>
-      <c r="R60" s="42"/>
-      <c r="S60" s="42"/>
-      <c r="T60" s="42"/>
-      <c r="U60" s="42"/>
-      <c r="V60" s="42"/>
-      <c r="W60" s="42"/>
-      <c r="X60" s="42"/>
-      <c r="Y60" s="42"/>
-      <c r="Z60" s="42"/>
-      <c r="AA60" s="42"/>
-      <c r="AB60" s="42"/>
-      <c r="AC60" s="42"/>
-      <c r="AD60" s="42"/>
-      <c r="AE60" s="42"/>
-      <c r="AF60" s="42"/>
-      <c r="AG60" s="42"/>
-      <c r="AH60" s="42"/>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="42"/>
-      <c r="AK60" s="42"/>
-      <c r="AL60" s="42"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="42"/>
-      <c r="AO60" s="42"/>
-      <c r="AP60" s="42"/>
-      <c r="AQ60" s="42"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="42"/>
-      <c r="AT60" s="42"/>
-      <c r="AU60" s="42"/>
-      <c r="AV60" s="42"/>
-      <c r="AW60" s="42"/>
-      <c r="AX60" s="42"/>
-      <c r="AY60" s="42"/>
-      <c r="AZ60" s="42"/>
-      <c r="BA60" s="42"/>
-      <c r="BB60" s="42"/>
-      <c r="BC60" s="42"/>
-      <c r="BD60" s="42"/>
-      <c r="BE60" s="42"/>
-      <c r="BF60" s="42"/>
-      <c r="BG60" s="42"/>
-      <c r="BH60" s="42"/>
-      <c r="BI60" s="42"/>
-      <c r="BJ60" s="42"/>
-      <c r="BK60" s="42"/>
-      <c r="BL60" s="42"/>
-      <c r="BM60" s="42"/>
-      <c r="BN60" s="42"/>
-      <c r="BO60" s="42"/>
-      <c r="BP60" s="42"/>
-      <c r="BQ60" s="42"/>
-      <c r="BR60" s="42"/>
-      <c r="BS60" s="42"/>
-      <c r="BT60" s="42"/>
-      <c r="BU60" s="42"/>
-      <c r="BV60" s="42"/>
-      <c r="BW60" s="42"/>
-      <c r="BX60" s="42"/>
-      <c r="BY60" s="42"/>
-      <c r="BZ60" s="42"/>
-      <c r="CA60" s="42"/>
-      <c r="CB60" s="42"/>
-      <c r="CC60" s="42"/>
-      <c r="CD60" s="42"/>
-      <c r="CE60" s="42"/>
-      <c r="CF60" s="42"/>
-      <c r="CG60" s="42"/>
-      <c r="CH60" s="42"/>
-      <c r="CI60" s="42"/>
-      <c r="CJ60" s="42"/>
-      <c r="CK60" s="42"/>
-      <c r="CL60" s="42"/>
-      <c r="CM60" s="42"/>
-      <c r="CN60" s="42"/>
-      <c r="CO60" s="42"/>
-      <c r="CP60" s="42"/>
-      <c r="CQ60" s="42"/>
-      <c r="CR60" s="42"/>
-      <c r="CS60" s="42"/>
-      <c r="CT60" s="42"/>
-      <c r="CU60" s="42"/>
-      <c r="CV60" s="42"/>
-      <c r="CW60" s="42"/>
-      <c r="CX60" s="42"/>
-      <c r="CY60" s="42"/>
-      <c r="CZ60" s="42"/>
-      <c r="DA60" s="42"/>
-      <c r="DB60" s="42"/>
-      <c r="DC60" s="42"/>
-      <c r="DD60" s="42"/>
-      <c r="DE60" s="42"/>
-      <c r="DF60" s="42"/>
-      <c r="DG60" s="42"/>
-      <c r="DH60" s="42"/>
-      <c r="DI60" s="42"/>
-      <c r="DJ60" s="42"/>
-      <c r="DK60" s="42"/>
-      <c r="DL60" s="42"/>
-    </row>
-    <row r="61" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63">
-        <f>C10/B10-1</f>
-        <v>0.58637119505607904</v>
-      </c>
-      <c r="D61" s="63">
-        <f>D10/C10-1</f>
-        <v>0.43372239982157468</v>
-      </c>
-      <c r="E61" s="63">
-        <f>E10/D10-1</f>
-        <v>0.48831734508685543</v>
-      </c>
-      <c r="F61" s="63">
-        <f>F10/E10-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="G61" s="63">
-        <f>G10/F10-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="H61" s="63">
-        <f>H10/G10-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="I61" s="63">
-        <f>I10/H10-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="J61" s="63">
-        <f>J10/I10-1</f>
-        <v>0.35000000000000009</v>
-      </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
-      <c r="N61" s="42"/>
-      <c r="O61" s="42"/>
-      <c r="P61" s="42"/>
-      <c r="Q61" s="42"/>
-      <c r="R61" s="42"/>
-      <c r="S61" s="42"/>
-      <c r="T61" s="42"/>
-      <c r="U61" s="42"/>
-      <c r="V61" s="42"/>
-      <c r="W61" s="42"/>
-      <c r="X61" s="42"/>
-      <c r="Y61" s="42"/>
-      <c r="Z61" s="42"/>
-      <c r="AA61" s="42"/>
-      <c r="AB61" s="42"/>
-      <c r="AC61" s="42"/>
-      <c r="AD61" s="42"/>
-      <c r="AE61" s="42"/>
-      <c r="AF61" s="42"/>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="42"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="42"/>
-      <c r="AY61" s="42"/>
-      <c r="AZ61" s="42"/>
-      <c r="BA61" s="42"/>
-      <c r="BB61" s="42"/>
-      <c r="BC61" s="42"/>
-      <c r="BD61" s="42"/>
-      <c r="BE61" s="42"/>
-      <c r="BF61" s="42"/>
-      <c r="BG61" s="42"/>
-      <c r="BH61" s="42"/>
-      <c r="BI61" s="42"/>
-      <c r="BJ61" s="42"/>
-      <c r="BK61" s="42"/>
-      <c r="BL61" s="42"/>
-      <c r="BM61" s="42"/>
-      <c r="BN61" s="42"/>
-      <c r="BO61" s="42"/>
-      <c r="BP61" s="42"/>
-      <c r="BQ61" s="42"/>
-      <c r="BR61" s="42"/>
-      <c r="BS61" s="42"/>
-      <c r="BT61" s="42"/>
-      <c r="BU61" s="42"/>
-      <c r="BV61" s="42"/>
-      <c r="BW61" s="42"/>
-      <c r="BX61" s="42"/>
-      <c r="BY61" s="42"/>
-      <c r="BZ61" s="42"/>
-      <c r="CA61" s="42"/>
-      <c r="CB61" s="42"/>
-      <c r="CC61" s="42"/>
-      <c r="CD61" s="42"/>
-      <c r="CE61" s="42"/>
-      <c r="CF61" s="42"/>
-      <c r="CG61" s="42"/>
-      <c r="CH61" s="42"/>
-      <c r="CI61" s="42"/>
-      <c r="CJ61" s="42"/>
-      <c r="CK61" s="42"/>
-      <c r="CL61" s="42"/>
-      <c r="CM61" s="42"/>
-      <c r="CN61" s="42"/>
-      <c r="CO61" s="42"/>
-      <c r="CP61" s="42"/>
-      <c r="CQ61" s="42"/>
-      <c r="CR61" s="42"/>
-      <c r="CS61" s="42"/>
-      <c r="CT61" s="42"/>
-      <c r="CU61" s="42"/>
-      <c r="CV61" s="42"/>
-      <c r="CW61" s="42"/>
-      <c r="CX61" s="42"/>
-      <c r="CY61" s="42"/>
-      <c r="CZ61" s="42"/>
-      <c r="DA61" s="42"/>
-      <c r="DB61" s="42"/>
-      <c r="DC61" s="42"/>
-      <c r="DD61" s="42"/>
-      <c r="DE61" s="42"/>
-      <c r="DF61" s="42"/>
-      <c r="DG61" s="42"/>
-      <c r="DH61" s="42"/>
-      <c r="DI61" s="42"/>
-      <c r="DJ61" s="42"/>
-      <c r="DK61" s="42"/>
-      <c r="DL61" s="42"/>
-    </row>
-    <row r="62" spans="1:116" x14ac:dyDescent="0.15">
-      <c r="B62" s="42"/>
-      <c r="C62" s="42"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
-      <c r="M62" s="42"/>
-      <c r="N62" s="42"/>
-      <c r="O62" s="42"/>
-      <c r="P62" s="42"/>
-      <c r="Q62" s="42"/>
-      <c r="R62" s="42"/>
-      <c r="S62" s="42"/>
-      <c r="T62" s="42"/>
-      <c r="U62" s="42"/>
-      <c r="V62" s="42"/>
-      <c r="W62" s="42"/>
-      <c r="X62" s="42"/>
-      <c r="Y62" s="42"/>
-      <c r="Z62" s="42"/>
-      <c r="AA62" s="42"/>
-      <c r="AB62" s="42"/>
-      <c r="AC62" s="42"/>
-      <c r="AD62" s="42"/>
-      <c r="AE62" s="42"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
-      <c r="AH62" s="42"/>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
-      <c r="AK62" s="42"/>
-      <c r="AL62" s="42"/>
-      <c r="AM62" s="42"/>
-      <c r="AN62" s="42"/>
-      <c r="AO62" s="42"/>
-      <c r="AP62" s="42"/>
-      <c r="AQ62" s="42"/>
-      <c r="AR62" s="42"/>
-      <c r="AS62" s="42"/>
-      <c r="AT62" s="42"/>
-      <c r="AU62" s="42"/>
-      <c r="AV62" s="42"/>
-      <c r="AW62" s="42"/>
-      <c r="AX62" s="42"/>
-      <c r="AY62" s="42"/>
-      <c r="AZ62" s="42"/>
-      <c r="BA62" s="42"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="42"/>
-      <c r="BD62" s="42"/>
-      <c r="BE62" s="42"/>
-      <c r="BF62" s="42"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-      <c r="BM62" s="42"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="42"/>
-      <c r="BR62" s="42"/>
-      <c r="BS62" s="42"/>
-      <c r="BT62" s="42"/>
-      <c r="BU62" s="42"/>
-      <c r="BV62" s="42"/>
-      <c r="BW62" s="42"/>
-      <c r="BX62" s="42"/>
-      <c r="BY62" s="42"/>
-      <c r="BZ62" s="42"/>
-      <c r="CA62" s="42"/>
-      <c r="CB62" s="42"/>
-      <c r="CC62" s="42"/>
-      <c r="CD62" s="42"/>
-      <c r="CE62" s="42"/>
-      <c r="CF62" s="42"/>
-      <c r="CG62" s="42"/>
-      <c r="CH62" s="42"/>
-      <c r="CI62" s="42"/>
-      <c r="CJ62" s="42"/>
-      <c r="CK62" s="42"/>
-      <c r="CL62" s="42"/>
-      <c r="CM62" s="42"/>
-      <c r="CN62" s="42"/>
-      <c r="CO62" s="42"/>
-      <c r="CP62" s="42"/>
-      <c r="CQ62" s="42"/>
-      <c r="CR62" s="42"/>
-      <c r="CS62" s="42"/>
-      <c r="CT62" s="42"/>
-      <c r="CU62" s="42"/>
-      <c r="CV62" s="42"/>
-      <c r="CW62" s="42"/>
-      <c r="CX62" s="42"/>
-      <c r="CY62" s="42"/>
-      <c r="CZ62" s="42"/>
-      <c r="DA62" s="42"/>
-      <c r="DB62" s="42"/>
-      <c r="DC62" s="42"/>
-      <c r="DD62" s="42"/>
-      <c r="DE62" s="42"/>
-      <c r="DF62" s="42"/>
-      <c r="DG62" s="42"/>
-      <c r="DH62" s="42"/>
-      <c r="DI62" s="42"/>
-      <c r="DJ62" s="42"/>
-      <c r="DK62" s="42"/>
-      <c r="DL62" s="42"/>
-    </row>
-    <row r="63" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" s="63"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="63"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="63"/>
-      <c r="U63" s="63"/>
-      <c r="V63" s="63"/>
-      <c r="W63" s="63"/>
-      <c r="X63" s="63"/>
-      <c r="Y63" s="63"/>
-      <c r="Z63" s="63"/>
-      <c r="AA63" s="63"/>
-      <c r="AB63" s="63"/>
-      <c r="AC63" s="63"/>
-      <c r="AD63" s="63"/>
-      <c r="AE63" s="63"/>
-      <c r="AF63" s="63"/>
-      <c r="AG63" s="63"/>
-      <c r="AH63" s="63"/>
-      <c r="AI63" s="63"/>
-      <c r="AJ63" s="63"/>
-      <c r="AK63" s="63"/>
-      <c r="AL63" s="63"/>
-      <c r="AM63" s="63"/>
-      <c r="AN63" s="63"/>
-      <c r="AO63" s="63"/>
-      <c r="AP63" s="63"/>
-      <c r="AQ63" s="63"/>
-      <c r="AR63" s="63"/>
-      <c r="AS63" s="63"/>
-      <c r="AT63" s="63"/>
-      <c r="AU63" s="63"/>
-      <c r="AV63" s="63"/>
-      <c r="AW63" s="63"/>
-      <c r="AX63" s="63"/>
-      <c r="AY63" s="63"/>
-      <c r="AZ63" s="63"/>
-      <c r="BA63" s="63"/>
-      <c r="BB63" s="63"/>
-      <c r="BC63" s="63"/>
-      <c r="BD63" s="63"/>
-      <c r="BE63" s="63"/>
-      <c r="BF63" s="63"/>
-      <c r="BG63" s="63"/>
-      <c r="BH63" s="63"/>
-      <c r="BI63" s="63"/>
-      <c r="BJ63" s="63"/>
-      <c r="BK63" s="63"/>
-      <c r="BL63" s="63"/>
-      <c r="BM63" s="63"/>
-      <c r="BN63" s="63"/>
-      <c r="BO63" s="63"/>
-      <c r="BP63" s="63"/>
-      <c r="BQ63" s="63"/>
-      <c r="BR63" s="63"/>
-      <c r="BS63" s="63"/>
-      <c r="BT63" s="63"/>
-      <c r="BU63" s="63"/>
-      <c r="BV63" s="63"/>
-      <c r="BW63" s="63"/>
-      <c r="BX63" s="63"/>
-      <c r="BY63" s="63"/>
-      <c r="BZ63" s="63"/>
-      <c r="CA63" s="63"/>
-      <c r="CB63" s="63"/>
-      <c r="CC63" s="63"/>
-      <c r="CD63" s="63"/>
-      <c r="CE63" s="63"/>
-      <c r="CF63" s="63"/>
-      <c r="CG63" s="63"/>
-      <c r="CH63" s="63"/>
-      <c r="CI63" s="63"/>
-      <c r="CJ63" s="63"/>
-      <c r="CK63" s="63"/>
-      <c r="CL63" s="63"/>
-      <c r="CM63" s="63"/>
-      <c r="CN63" s="63"/>
-      <c r="CO63" s="63"/>
-      <c r="CP63" s="63"/>
-      <c r="CQ63" s="63"/>
-      <c r="CR63" s="63"/>
-      <c r="CS63" s="63"/>
-      <c r="CT63" s="63"/>
-      <c r="CU63" s="63"/>
-      <c r="CV63" s="63"/>
-      <c r="CW63" s="63"/>
-      <c r="CX63" s="63"/>
-      <c r="CY63" s="63"/>
-      <c r="CZ63" s="63"/>
-      <c r="DA63" s="63"/>
-      <c r="DB63" s="63"/>
-      <c r="DC63" s="63"/>
-      <c r="DD63" s="63"/>
-      <c r="DE63" s="63"/>
-      <c r="DF63" s="63"/>
-      <c r="DG63" s="63"/>
-      <c r="DH63" s="63"/>
-      <c r="DI63" s="63"/>
-      <c r="DJ63" s="63"/>
-      <c r="DK63" s="63"/>
-      <c r="DL63" s="63"/>
-    </row>
-    <row r="64" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="63"/>
-      <c r="U64" s="63"/>
-      <c r="V64" s="63"/>
-      <c r="W64" s="63"/>
-      <c r="X64" s="63"/>
-      <c r="Y64" s="63"/>
-      <c r="Z64" s="63"/>
-      <c r="AA64" s="63"/>
-      <c r="AB64" s="63"/>
-      <c r="AC64" s="63"/>
-      <c r="AD64" s="63"/>
-      <c r="AE64" s="63"/>
-      <c r="AF64" s="63"/>
-      <c r="AG64" s="63"/>
-      <c r="AH64" s="63"/>
-      <c r="AI64" s="63"/>
-      <c r="AJ64" s="63"/>
-      <c r="AK64" s="63"/>
-      <c r="AL64" s="63"/>
-      <c r="AM64" s="63"/>
-      <c r="AN64" s="63"/>
-      <c r="AO64" s="63"/>
-      <c r="AP64" s="63"/>
-      <c r="AQ64" s="63"/>
-      <c r="AR64" s="63"/>
-      <c r="AS64" s="63"/>
-      <c r="AT64" s="63"/>
-      <c r="AU64" s="63"/>
-      <c r="AV64" s="63"/>
-      <c r="AW64" s="63"/>
-      <c r="AX64" s="63"/>
-      <c r="AY64" s="63"/>
-      <c r="AZ64" s="63"/>
-      <c r="BA64" s="63"/>
-      <c r="BB64" s="63"/>
-      <c r="BC64" s="63"/>
-      <c r="BD64" s="63"/>
-      <c r="BE64" s="63"/>
-      <c r="BF64" s="63"/>
-      <c r="BG64" s="63"/>
-      <c r="BH64" s="63"/>
-      <c r="BI64" s="63"/>
-      <c r="BJ64" s="63"/>
-      <c r="BK64" s="63"/>
-      <c r="BL64" s="63"/>
-      <c r="BM64" s="63"/>
-      <c r="BN64" s="63"/>
-      <c r="BO64" s="63"/>
-      <c r="BP64" s="63"/>
-      <c r="BQ64" s="63"/>
-      <c r="BR64" s="63"/>
-      <c r="BS64" s="63"/>
-      <c r="BT64" s="63"/>
-      <c r="BU64" s="63"/>
-      <c r="BV64" s="63"/>
-      <c r="BW64" s="63"/>
-      <c r="BX64" s="63"/>
-      <c r="BY64" s="63"/>
-      <c r="BZ64" s="63"/>
-      <c r="CA64" s="63"/>
-      <c r="CB64" s="63"/>
-      <c r="CC64" s="63"/>
-      <c r="CD64" s="63"/>
-      <c r="CE64" s="63"/>
-      <c r="CF64" s="63"/>
-      <c r="CG64" s="63"/>
-      <c r="CH64" s="63"/>
-      <c r="CI64" s="63"/>
-      <c r="CJ64" s="63"/>
-      <c r="CK64" s="63"/>
-      <c r="CL64" s="63"/>
-      <c r="CM64" s="63"/>
-      <c r="CN64" s="63"/>
-      <c r="CO64" s="63"/>
-      <c r="CP64" s="63"/>
-      <c r="CQ64" s="63"/>
-      <c r="CR64" s="63"/>
-      <c r="CS64" s="63"/>
-      <c r="CT64" s="63"/>
-      <c r="CU64" s="63"/>
-      <c r="CV64" s="63"/>
-      <c r="CW64" s="63"/>
-      <c r="CX64" s="63"/>
-      <c r="CY64" s="63"/>
-      <c r="CZ64" s="63"/>
-      <c r="DA64" s="63"/>
-      <c r="DB64" s="63"/>
-      <c r="DC64" s="63"/>
-      <c r="DD64" s="63"/>
-      <c r="DE64" s="63"/>
-      <c r="DF64" s="63"/>
-      <c r="DG64" s="63"/>
-      <c r="DH64" s="63"/>
-      <c r="DI64" s="63"/>
-      <c r="DJ64" s="63"/>
-      <c r="DK64" s="63"/>
-      <c r="DL64" s="63"/>
+    <row r="59" spans="1:116" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58">
+        <f>E13/D13-1</f>
+        <v>0.21926666120571903</v>
+      </c>
+      <c r="F59" s="58">
+        <f t="shared" ref="F59:J59" si="74">F13/E13-1</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="G59" s="58">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="H59" s="58">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="I59" s="58">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J59" s="58">
+        <f t="shared" si="74"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K59" s="58"/>
+      <c r="L59" s="58"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="58"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="58"/>
+      <c r="T59" s="58"/>
+      <c r="U59" s="58"/>
+      <c r="V59" s="58"/>
+      <c r="W59" s="58"/>
+      <c r="X59" s="58"/>
+      <c r="Y59" s="58"/>
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="58"/>
+      <c r="AB59" s="58"/>
+      <c r="AC59" s="58"/>
+      <c r="AD59" s="58"/>
+      <c r="AE59" s="58"/>
+      <c r="AF59" s="58"/>
+      <c r="AG59" s="58"/>
+      <c r="AH59" s="58"/>
+      <c r="AI59" s="58"/>
+      <c r="AJ59" s="58"/>
+      <c r="AK59" s="58"/>
+      <c r="AL59" s="58"/>
+      <c r="AM59" s="58"/>
+      <c r="AN59" s="58"/>
+      <c r="AO59" s="58"/>
+      <c r="AP59" s="58"/>
+      <c r="AQ59" s="58"/>
+      <c r="AR59" s="58"/>
+      <c r="AS59" s="58"/>
+      <c r="AT59" s="58"/>
+      <c r="AU59" s="58"/>
+      <c r="AV59" s="58"/>
+      <c r="AW59" s="58"/>
+      <c r="AX59" s="58"/>
+      <c r="AY59" s="58"/>
+      <c r="AZ59" s="58"/>
+      <c r="BA59" s="58"/>
+      <c r="BB59" s="58"/>
+      <c r="BC59" s="58"/>
+      <c r="BD59" s="58"/>
+      <c r="BE59" s="58"/>
+      <c r="BF59" s="58"/>
+      <c r="BG59" s="58"/>
+      <c r="BH59" s="58"/>
+      <c r="BI59" s="58"/>
+      <c r="BJ59" s="58"/>
+      <c r="BK59" s="58"/>
+      <c r="BL59" s="58"/>
+      <c r="BM59" s="58"/>
+      <c r="BN59" s="58"/>
+      <c r="BO59" s="58"/>
+      <c r="BP59" s="58"/>
+      <c r="BQ59" s="58"/>
+      <c r="BR59" s="58"/>
+      <c r="BS59" s="58"/>
+      <c r="BT59" s="58"/>
+      <c r="BU59" s="58"/>
+      <c r="BV59" s="58"/>
+      <c r="BW59" s="58"/>
+      <c r="BX59" s="58"/>
+      <c r="BY59" s="58"/>
+      <c r="BZ59" s="58"/>
+      <c r="CA59" s="58"/>
+      <c r="CB59" s="58"/>
+      <c r="CC59" s="58"/>
+      <c r="CD59" s="58"/>
+      <c r="CE59" s="58"/>
+      <c r="CF59" s="58"/>
+      <c r="CG59" s="58"/>
+      <c r="CH59" s="58"/>
+      <c r="CI59" s="58"/>
+      <c r="CJ59" s="58"/>
+      <c r="CK59" s="58"/>
+      <c r="CL59" s="58"/>
+      <c r="CM59" s="58"/>
+      <c r="CN59" s="58"/>
+      <c r="CO59" s="58"/>
+      <c r="CP59" s="58"/>
+      <c r="CQ59" s="58"/>
+      <c r="CR59" s="58"/>
+      <c r="CS59" s="58"/>
+      <c r="CT59" s="58"/>
+      <c r="CU59" s="58"/>
+      <c r="CV59" s="58"/>
+      <c r="CW59" s="58"/>
+      <c r="CX59" s="58"/>
+      <c r="CY59" s="58"/>
+      <c r="CZ59" s="58"/>
+      <c r="DA59" s="58"/>
+      <c r="DB59" s="58"/>
+      <c r="DC59" s="58"/>
+      <c r="DD59" s="58"/>
+      <c r="DE59" s="58"/>
+      <c r="DF59" s="58"/>
+      <c r="DG59" s="58"/>
+      <c r="DH59" s="58"/>
+      <c r="DI59" s="58"/>
+      <c r="DJ59" s="58"/>
+      <c r="DK59" s="58"/>
+      <c r="DL59" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9877,11 +9279,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9899,7 +9301,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="23" t="s">
@@ -9939,63 +9341,69 @@
         <v>47</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="70">
+      <c r="B2" s="62">
         <v>42825</v>
       </c>
-      <c r="C2" s="72">
+      <c r="C2" s="64">
         <v>42916</v>
       </c>
-      <c r="D2" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="72">
+      <c r="D2" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="64">
         <v>43100</v>
       </c>
-      <c r="F2" s="70">
+      <c r="F2" s="62">
         <v>43190</v>
       </c>
-      <c r="G2" s="72">
+      <c r="G2" s="64">
         <v>43281</v>
       </c>
-      <c r="H2" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="72">
+      <c r="H2" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="64">
         <v>43465</v>
       </c>
-      <c r="J2" s="70">
+      <c r="J2" s="62">
         <v>43555</v>
       </c>
-      <c r="K2" s="72">
+      <c r="K2" s="64">
         <v>43646</v>
       </c>
-      <c r="L2" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="72">
+      <c r="L2" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="64">
         <v>43830</v>
       </c>
-      <c r="N2" s="70">
+      <c r="N2" s="62">
         <v>43921</v>
+      </c>
+      <c r="O2" s="64">
+        <v>44012</v>
+      </c>
+      <c r="P2" s="64">
+        <v>44104</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71" t="s">
-        <v>64</v>
+      <c r="A3" s="63" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="23">
         <v>25.036000000000001</v>
@@ -10036,9 +9444,15 @@
       <c r="N3" s="23">
         <v>91.25</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
+      <c r="O3" s="24">
+        <v>99.721000000000004</v>
+      </c>
+      <c r="P3" s="24">
+        <v>114.16200000000001</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
@@ -10050,57 +9464,114 @@
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:17" s="75" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74">
+        <v>6.7642999999999995E-2</v>
+      </c>
+      <c r="I5" s="74">
+        <v>6.7899000000000001E-2</v>
+      </c>
+      <c r="J5" s="76">
+        <v>7.3554999999999995E-2</v>
+      </c>
+      <c r="K5" s="74">
+        <v>7.7626000000000001E-2</v>
+      </c>
+      <c r="L5" s="74">
+        <v>8.0986000000000002E-2</v>
+      </c>
+      <c r="M5" s="74">
+        <v>8.2881999999999997E-2</v>
+      </c>
+      <c r="N5" s="76">
+        <v>8.9222999999999997E-2</v>
+      </c>
+      <c r="O5" s="74">
+        <v>9.6178E-2</v>
+      </c>
+      <c r="P5" s="74">
+        <v>0.100968</v>
+      </c>
+      <c r="Q5" s="74">
+        <f>M5*1.25</f>
+        <v>0.1036025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="63" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="77">
+        <f>SUM(H3)/H5</f>
+        <v>740.20962996910259</v>
+      </c>
+      <c r="I6" s="77">
+        <f>SUM(I3)/I5</f>
+        <v>817.37580818568756</v>
+      </c>
+      <c r="J6" s="78">
+        <f>SUM(J3)/J5</f>
+        <v>839.19516008429071</v>
+      </c>
+      <c r="K6" s="77">
+        <f>SUM(K3)/K5</f>
+        <v>868.57496199726904</v>
+      </c>
+      <c r="L6" s="77">
+        <f>SUM(L3)/L5</f>
+        <v>913.00965598992423</v>
+      </c>
+      <c r="M6" s="77">
+        <f>SUM(M3)/M5</f>
+        <v>1012.6444825173139</v>
+      </c>
+      <c r="N6" s="78">
+        <f>SUM(N3)/N5</f>
+        <v>1022.7183573742196</v>
+      </c>
+      <c r="O6" s="77">
+        <f>SUM(O3)/O5</f>
+        <v>1036.8379463078875</v>
+      </c>
+      <c r="P6" s="77">
+        <f>SUM(P3)/P5</f>
+        <v>1130.675065367245</v>
+      </c>
+      <c r="Q6" s="77">
+        <f>SUM(Q3)/Q5</f>
+        <v>1138.9686542313168</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-    </row>
-    <row r="7" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="N7" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" s="43" t="s">
-        <v>82</v>
+    <row r="7" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="N7" s="71">
+        <v>87</v>
+      </c>
+      <c r="O7" s="70">
+        <v>94</v>
+      </c>
+      <c r="P7" s="70">
+        <v>102.5</v>
+      </c>
+      <c r="Q7" s="70">
+        <v>117.5</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10108,62 +9579,69 @@
         <v>4</v>
       </c>
       <c r="B8" s="27">
-        <f>SUM(B3:B3)</f>
+        <f t="shared" ref="B8:P8" si="0">SUM(B3:B3)</f>
         <v>25.036000000000001</v>
       </c>
       <c r="C8" s="26">
-        <f>SUM(C3:C3)</f>
+        <f t="shared" si="0"/>
         <v>28.803999999999998</v>
       </c>
       <c r="D8" s="26">
-        <f>SUM(D3:D3)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="E8" s="26">
-        <f>SUM(E3:E3)</f>
+        <f t="shared" si="0"/>
         <v>38.67</v>
       </c>
       <c r="F8" s="27">
-        <f>SUM(F3:F3)</f>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="G8" s="26">
-        <f>SUM(G3:G3)</f>
+        <f t="shared" si="0"/>
         <v>45.280999999999999</v>
       </c>
       <c r="H8" s="26">
-        <f>SUM(H3:H3)</f>
+        <f>H6*H5</f>
         <v>50.07</v>
       </c>
       <c r="I8" s="26">
-        <f>SUM(I3:I3)</f>
+        <f>I6*I5</f>
         <v>55.499000000000002</v>
       </c>
       <c r="J8" s="27">
-        <f>SUM(J3:J3)</f>
+        <f>J6*J5</f>
         <v>61.726999999999997</v>
       </c>
       <c r="K8" s="26">
-        <f>SUM(K3:K3)</f>
+        <f>K6*K5</f>
         <v>67.424000000000007</v>
       </c>
       <c r="L8" s="26">
-        <f>SUM(L3:L3)</f>
+        <f>L6*L5</f>
         <v>73.941000000000003</v>
       </c>
       <c r="M8" s="26">
-        <f>SUM(M3:M3)</f>
+        <f>M6*M5</f>
         <v>83.93</v>
       </c>
       <c r="N8" s="27">
-        <f>SUM(N3:N3)</f>
+        <f>N6*N5</f>
         <v>91.25</v>
       </c>
-      <c r="O8" s="58">
-        <v>94</v>
-      </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
+      <c r="O8" s="26">
+        <f>O6*O5</f>
+        <v>99.721000000000004</v>
+      </c>
+      <c r="P8" s="26">
+        <f>P6*P5</f>
+        <v>114.16199999999999</v>
+      </c>
+      <c r="Q8" s="26">
+        <f>Q6*Q5</f>
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -10199,37 +9677,41 @@
       <c r="K9" s="24">
         <v>15</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="54">
         <v>16.033000000000001</v>
       </c>
-      <c r="M9" s="59">
+      <c r="M9" s="54">
         <v>18.198</v>
       </c>
       <c r="N9" s="23">
         <v>20.821000000000002</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="59"/>
+      <c r="O9" s="54">
+        <v>24.164000000000001</v>
+      </c>
+      <c r="P9" s="54">
+        <v>27.004999999999999</v>
+      </c>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="30">
-        <f t="shared" ref="B10:D10" si="0">B8-B9</f>
+        <f t="shared" ref="B10:D10" si="1">B8-B9</f>
         <v>18.734999999999999</v>
       </c>
       <c r="C10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22.015999999999998</v>
       </c>
       <c r="D10" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34.747999999999998</v>
       </c>
       <c r="E10" s="29">
-        <f t="shared" ref="E10" si="1">E8-E9</f>
+        <f t="shared" ref="E10" si="2">E8-E9</f>
         <v>30.223000000000003</v>
       </c>
       <c r="F10" s="30">
@@ -10241,36 +9723,42 @@
         <v>34.915999999999997</v>
       </c>
       <c r="H10" s="29">
-        <f t="shared" ref="H10:J10" si="2">H8-H9</f>
+        <f t="shared" ref="H10:J10" si="3">H8-H9</f>
         <v>38.861000000000004</v>
       </c>
       <c r="I10" s="29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.543000000000006</v>
       </c>
       <c r="J10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.366999999999997</v>
       </c>
       <c r="K10" s="29">
-        <f t="shared" ref="K10:M10" si="3">K8-K9</f>
+        <f t="shared" ref="K10:P10" si="4">K8-K9</f>
         <v>52.424000000000007</v>
       </c>
       <c r="L10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.908000000000001</v>
       </c>
       <c r="M10" s="29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65.731999999999999</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" ref="N10" si="4">N8-N9</f>
+        <f t="shared" ref="N10" si="5">N8-N9</f>
         <v>70.429000000000002</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="O10" s="29">
+        <f t="shared" si="4"/>
+        <v>75.557000000000002</v>
+      </c>
+      <c r="P10" s="29">
+        <f t="shared" si="4"/>
+        <v>87.156999999999996</v>
+      </c>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
@@ -10306,18 +9794,22 @@
       <c r="K11" s="24">
         <v>19</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="54">
         <v>28</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="54">
         <v>26</v>
       </c>
       <c r="N11" s="23">
         <v>33</v>
       </c>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
+      <c r="O11" s="54">
+        <v>28</v>
+      </c>
+      <c r="P11" s="54">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
@@ -10353,18 +9845,22 @@
       <c r="K12" s="24">
         <v>36</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="54">
         <v>46</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="54">
         <v>47</v>
       </c>
       <c r="N12" s="23">
         <v>47</v>
       </c>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
+      <c r="O12" s="54">
+        <v>51</v>
+      </c>
+      <c r="P12" s="54">
+        <v>56</v>
+      </c>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
@@ -10400,138 +9896,154 @@
       <c r="K13" s="24">
         <v>18</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="54">
         <v>26</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="54">
         <v>22</v>
       </c>
       <c r="N13" s="23">
         <v>26</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
+      <c r="O13" s="54">
+        <v>21</v>
+      </c>
+      <c r="P13" s="54">
+        <v>22</v>
+      </c>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="30">
-        <f t="shared" ref="B14:D14" si="5">SUM(B11:B13)</f>
+        <f t="shared" ref="B14:D14" si="6">SUM(B11:B13)</f>
         <v>24</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D14" s="29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="E14" s="29">
-        <f t="shared" ref="E14:F14" si="6">SUM(E11:E13)</f>
+        <f t="shared" ref="E14:F14" si="7">SUM(E11:E13)</f>
         <v>33</v>
       </c>
       <c r="F14" s="30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="G14" s="29">
-        <f t="shared" ref="G14:H14" si="7">SUM(G11:G13)</f>
+        <f t="shared" ref="G14:H14" si="8">SUM(G11:G13)</f>
         <v>56</v>
       </c>
       <c r="H14" s="29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="I14" s="29">
-        <f t="shared" ref="I14:K14" si="8">SUM(I11:I13)</f>
+        <f t="shared" ref="I14:K14" si="9">SUM(I11:I13)</f>
         <v>59</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="K14" s="29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="L14" s="29">
-        <f t="shared" ref="L14:M14" si="9">SUM(L11:L13)</f>
+        <f t="shared" ref="L14:M14" si="10">SUM(L11:L13)</f>
         <v>100</v>
       </c>
       <c r="M14" s="29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="N14" s="30">
-        <f t="shared" ref="N14" si="10">SUM(N11:N13)</f>
+        <f t="shared" ref="N14:O14" si="11">SUM(N11:N13)</f>
         <v>106</v>
       </c>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="O14" s="29">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" ref="P14" si="12">SUM(P11:P13)</f>
+        <v>109</v>
+      </c>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="30">
-        <f t="shared" ref="B15:H15" si="11">B10-B14</f>
+        <f t="shared" ref="B15:H15" si="13">B10-B14</f>
         <v>-5.2650000000000006</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4.9840000000000018</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.7479999999999976</v>
       </c>
       <c r="E15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2.7769999999999975</v>
       </c>
       <c r="F15" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-11</v>
       </c>
       <c r="G15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-21.084000000000003</v>
       </c>
       <c r="H15" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-36.138999999999996</v>
       </c>
       <c r="I15" s="29">
-        <f t="shared" ref="I15:K15" si="12">I10-I14</f>
+        <f t="shared" ref="I15:K15" si="14">I10-I14</f>
         <v>-16.456999999999994</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-17.633000000000003</v>
       </c>
       <c r="K15" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-20.575999999999993</v>
       </c>
       <c r="L15" s="29">
-        <f t="shared" ref="L15:M15" si="13">L10-L14</f>
+        <f t="shared" ref="L15:M15" si="15">L10-L14</f>
         <v>-42.091999999999999</v>
       </c>
       <c r="M15" s="29">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-29.268000000000001</v>
       </c>
       <c r="N15" s="30">
-        <f t="shared" ref="N15" si="14">N10-N14</f>
+        <f t="shared" ref="N15:O15" si="16">N10-N14</f>
         <v>-35.570999999999998</v>
       </c>
-      <c r="O15" s="59"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="59"/>
+      <c r="O15" s="29">
+        <f t="shared" si="16"/>
+        <v>-24.442999999999998</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" ref="P15" si="17">P10-P14</f>
+        <v>-21.843000000000004</v>
+      </c>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
@@ -10567,33 +10079,39 @@
       <c r="K16" s="24">
         <v>0</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="54">
         <v>0</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="54">
         <v>2</v>
       </c>
       <c r="N16" s="23">
         <v>3</v>
       </c>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
+      <c r="O16" s="54">
+        <f>2-5+0</f>
+        <v>-3</v>
+      </c>
+      <c r="P16" s="54">
+        <f>1-10+0</f>
+        <v>-9</v>
+      </c>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="30">
-        <f t="shared" ref="B17:C17" si="15">B15+B16</f>
+        <f t="shared" ref="B17:C17" si="18">B15+B16</f>
         <v>-5.2650000000000006</v>
       </c>
       <c r="C17" s="29">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>-4.9840000000000018</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" ref="D17:F17" si="16">D15+D16</f>
+        <f t="shared" ref="D17:F17" si="19">D15+D16</f>
         <v>4.7479999999999976</v>
       </c>
       <c r="E17" s="29">
@@ -10601,44 +10119,50 @@
         <v>-2.7769999999999975</v>
       </c>
       <c r="F17" s="30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-11.231</v>
       </c>
       <c r="G17" s="29">
-        <f t="shared" ref="G17" si="17">G15+G16</f>
+        <f t="shared" ref="G17" si="20">G15+G16</f>
         <v>-21.084000000000003</v>
       </c>
       <c r="H17" s="29">
-        <f t="shared" ref="H17:L17" si="18">H15+H16</f>
+        <f t="shared" ref="H17:L17" si="21">H15+H16</f>
         <v>-35.138999999999996</v>
       </c>
       <c r="I17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-15.456999999999994</v>
       </c>
       <c r="J17" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-17.633000000000003</v>
       </c>
       <c r="K17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-20.575999999999993</v>
       </c>
       <c r="L17" s="29">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-42.091999999999999</v>
       </c>
       <c r="M17" s="29">
-        <f t="shared" ref="M17" si="19">M15+M16</f>
+        <f t="shared" ref="M17" si="22">M15+M16</f>
         <v>-27.268000000000001</v>
       </c>
       <c r="N17" s="30">
-        <f t="shared" ref="N17" si="20">N15+N16</f>
+        <f t="shared" ref="N17:P17" si="23">N15+N16</f>
         <v>-32.570999999999998</v>
       </c>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
+      <c r="O17" s="29">
+        <f t="shared" si="23"/>
+        <v>-27.442999999999998</v>
+      </c>
+      <c r="P17" s="29">
+        <f t="shared" si="23"/>
+        <v>-30.843000000000004</v>
+      </c>
+      <c r="Q17" s="54"/>
     </row>
     <row r="18" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8" t="s">
@@ -10683,8 +10207,12 @@
       <c r="N18" s="23">
         <v>0</v>
       </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
+      <c r="O18" s="24">
+        <v>-2</v>
+      </c>
+      <c r="P18" s="24">
+        <v>-4</v>
+      </c>
       <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10692,120 +10220,132 @@
         <v>15</v>
       </c>
       <c r="B19" s="27">
-        <f>B17-B18</f>
+        <f t="shared" ref="B19:P19" si="24">B17-B18</f>
         <v>-6.2650000000000006</v>
       </c>
       <c r="C19" s="26">
-        <f>C17-C18</f>
+        <f t="shared" si="24"/>
         <v>-5.9840000000000018</v>
       </c>
       <c r="D19" s="26">
-        <f>D17-D18</f>
+        <f t="shared" si="24"/>
         <v>5.7479999999999976</v>
       </c>
       <c r="E19" s="26">
-        <f>E17-E18</f>
+        <f t="shared" si="24"/>
         <v>-2.7769999999999975</v>
       </c>
       <c r="F19" s="27">
-        <f>F17-F18</f>
+        <f t="shared" si="24"/>
         <v>-11.231</v>
       </c>
       <c r="G19" s="26">
-        <f>G17-G18</f>
+        <f t="shared" si="24"/>
         <v>-21.084000000000003</v>
       </c>
       <c r="H19" s="26">
-        <f>H17-H18</f>
+        <f t="shared" si="24"/>
         <v>-35.138999999999996</v>
       </c>
       <c r="I19" s="26">
-        <f>I17-I18</f>
+        <f t="shared" si="24"/>
         <v>-15.456999999999994</v>
       </c>
       <c r="J19" s="27">
-        <f>J17-J18</f>
+        <f t="shared" si="24"/>
         <v>-17.633000000000003</v>
       </c>
       <c r="K19" s="26">
-        <f>K17-K18</f>
+        <f t="shared" si="24"/>
         <v>-20.575999999999993</v>
       </c>
       <c r="L19" s="26">
-        <f>L17-L18</f>
+        <f t="shared" si="24"/>
         <v>-42.091999999999999</v>
       </c>
       <c r="M19" s="26">
-        <f>M17-M18</f>
+        <f t="shared" si="24"/>
         <v>-28.268000000000001</v>
       </c>
       <c r="N19" s="27">
-        <f>N17-N18</f>
+        <f t="shared" si="24"/>
         <v>-32.570999999999998</v>
       </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
+      <c r="O19" s="26">
+        <f t="shared" si="24"/>
+        <v>-25.442999999999998</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="24"/>
+        <v>-26.843000000000004</v>
+      </c>
+      <c r="Q19" s="53"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="32">
-        <f t="shared" ref="B20:D20" si="21">IFERROR(B19/B21,0)</f>
+        <f t="shared" ref="B20:D20" si="25">IFERROR(B19/B21,0)</f>
         <v>0</v>
       </c>
       <c r="C20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" ref="E20" si="22">IFERROR(E19/E21,0)</f>
+        <f t="shared" ref="E20" si="26">IFERROR(E19/E21,0)</f>
         <v>0</v>
       </c>
       <c r="F20" s="32">
-        <f t="shared" ref="F20:K20" si="23">IFERROR(F19/F21,0)</f>
+        <f t="shared" ref="F20:K20" si="27">IFERROR(F19/F21,0)</f>
         <v>0</v>
       </c>
       <c r="G20" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H20" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.43073585113816054</v>
       </c>
       <c r="I20" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.18266799026211911</v>
       </c>
       <c r="J20" s="32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.20725687016620045</v>
       </c>
       <c r="K20" s="31">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:M20" si="24">IFERROR(L19/L21,0)</f>
+        <f t="shared" ref="L20:M20" si="28">IFERROR(L19/L21,0)</f>
         <v>-0.35654265772175914</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>-9.6013151369821137E-2</v>
       </c>
       <c r="N20" s="32">
-        <f t="shared" ref="N20" si="25">IFERROR(N19/N21,0)</f>
+        <f t="shared" ref="N20:P20" si="29">IFERROR(N19/N21,0)</f>
         <v>-0.1100085450744232</v>
       </c>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
+      <c r="O20" s="31">
+        <f t="shared" si="29"/>
+        <v>-8.5002388739847848E-2</v>
+      </c>
+      <c r="P20" s="31">
+        <f t="shared" si="29"/>
+        <v>-8.8975733288253797E-2</v>
+      </c>
+      <c r="Q20" s="59"/>
     </row>
     <row r="21" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
@@ -10827,87 +10367,97 @@
         <v>85.078000000000003</v>
       </c>
       <c r="K21" s="24"/>
-      <c r="L21" s="59">
+      <c r="L21" s="54">
         <v>118.056</v>
       </c>
-      <c r="M21" s="59">
+      <c r="M21" s="54">
         <v>294.41800000000001</v>
       </c>
       <c r="N21" s="23">
         <v>296.077</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
+      <c r="O21" s="54">
+        <v>299.32100000000003</v>
+      </c>
+      <c r="P21" s="54">
+        <v>301.68900000000002</v>
+      </c>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="44"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
-      <c r="F22" s="65"/>
+      <c r="F22" s="60"/>
       <c r="I22" s="43"/>
-      <c r="J22" s="65"/>
-      <c r="N22" s="65"/>
+      <c r="J22" s="60"/>
+      <c r="N22" s="60"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="38">
-        <f>IFERROR(B10/B8,0)</f>
+        <f t="shared" ref="B23:N23" si="30">IFERROR(B10/B8,0)</f>
         <v>0.74832241572136116</v>
       </c>
       <c r="C23" s="37">
-        <f>IFERROR(C10/C8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.76433828634911816</v>
       </c>
       <c r="D23" s="37">
-        <f>IFERROR(D10/D8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.82733333333333325</v>
       </c>
       <c r="E23" s="37">
-        <f>IFERROR(E10/E8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.78156193431600729</v>
       </c>
       <c r="F23" s="38">
-        <f>IFERROR(F10/F8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="G23" s="37">
-        <f>IFERROR(G10/G8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.77109604469865944</v>
       </c>
       <c r="H23" s="37">
-        <f>IFERROR(H10/H8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.77613341322148999</v>
       </c>
       <c r="I23" s="37">
-        <f>IFERROR(I10/I8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.76655435233067271</v>
       </c>
       <c r="J23" s="38">
-        <f>IFERROR(J10/J8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.76736274239797819</v>
       </c>
       <c r="K23" s="37">
-        <f>IFERROR(K10/K8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.77752728998576182</v>
       </c>
       <c r="L23" s="37">
-        <f>IFERROR(L10/L8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.78316495584317225</v>
       </c>
       <c r="M23" s="37">
-        <f>IFERROR(M10/M8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.78317645657095192</v>
       </c>
       <c r="N23" s="38">
-        <f>IFERROR(N10/N8,0)</f>
+        <f t="shared" si="30"/>
         <v>0.77182465753424656</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
+      <c r="O23" s="37">
+        <f t="shared" ref="O23:P23" si="31">IFERROR(O10/O8,0)</f>
+        <v>0.7576839381875432</v>
+      </c>
+      <c r="P23" s="37">
+        <f t="shared" si="31"/>
+        <v>0.76345018482507321</v>
+      </c>
       <c r="Q23" s="37"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -10915,59 +10465,65 @@
         <v>20</v>
       </c>
       <c r="B24" s="40">
-        <f>IFERROR(B15/B8,0)</f>
+        <f t="shared" ref="B24:N24" si="32">IFERROR(B15/B8,0)</f>
         <v>-0.21029717207221602</v>
       </c>
       <c r="C24" s="39">
-        <f>IFERROR(C15/C8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.1730315233995279</v>
       </c>
       <c r="D24" s="39">
-        <f>IFERROR(D15/D8,0)</f>
+        <f t="shared" si="32"/>
         <v>0.11304761904761899</v>
       </c>
       <c r="E24" s="39">
-        <f>IFERROR(E15/E8,0)</f>
+        <f t="shared" si="32"/>
         <v>-7.1812774760796408E-2</v>
       </c>
       <c r="F24" s="40">
-        <f>IFERROR(F15/F8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.26190476190476192</v>
       </c>
       <c r="G24" s="39">
-        <f>IFERROR(G15/G8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.4656257591484288</v>
       </c>
       <c r="H24" s="39">
-        <f>IFERROR(H15/H8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.72176952266826433</v>
       </c>
       <c r="I24" s="39">
-        <f>IFERROR(I15/I8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.29652786536694342</v>
       </c>
       <c r="J24" s="40">
-        <f>IFERROR(J15/J8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.28566105593986429</v>
       </c>
       <c r="K24" s="39">
-        <f>IFERROR(K15/K8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.30517323208353098</v>
       </c>
       <c r="L24" s="39">
-        <f>IFERROR(L15/L8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.56926468400481456</v>
       </c>
       <c r="M24" s="39">
-        <f>IFERROR(M15/M8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.34871917073751935</v>
       </c>
       <c r="N24" s="40">
-        <f>IFERROR(N15/N8,0)</f>
+        <f t="shared" si="32"/>
         <v>-0.38981917808219174</v>
       </c>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="O24" s="39">
+        <f t="shared" ref="O24:P24" si="33">IFERROR(O15/O8,0)</f>
+        <v>-0.24511386769085747</v>
+      </c>
+      <c r="P24" s="39">
+        <f t="shared" si="33"/>
+        <v>-0.19133336837126194</v>
+      </c>
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -10975,59 +10531,65 @@
         <v>21</v>
       </c>
       <c r="B25" s="40">
-        <f>IFERROR(B18/B17,0)</f>
+        <f t="shared" ref="B25:N25" si="34">IFERROR(B18/B17,0)</f>
         <v>-0.18993352326685659</v>
       </c>
       <c r="C25" s="39">
-        <f>IFERROR(C18/C17,0)</f>
+        <f t="shared" si="34"/>
         <v>-0.20064205457463877</v>
       </c>
       <c r="D25" s="39">
-        <f>IFERROR(D18/D17,0)</f>
+        <f t="shared" si="34"/>
         <v>-0.21061499578770018</v>
       </c>
       <c r="E25" s="39">
-        <f>IFERROR(E18/E17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F25" s="40">
-        <f>IFERROR(F18/F17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G25" s="39">
-        <f>IFERROR(G18/G17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H25" s="39">
-        <f>IFERROR(H18/H17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="I25" s="39">
-        <f>IFERROR(I18/I17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="J25" s="40">
-        <f>IFERROR(J18/J17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K25" s="39">
-        <f>IFERROR(K18/K17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L25" s="39">
-        <f>IFERROR(L18/L17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M25" s="39">
-        <f>IFERROR(M18/M17,0)</f>
+        <f t="shared" si="34"/>
         <v>-3.6673023324042833E-2</v>
       </c>
       <c r="N25" s="40">
-        <f>IFERROR(N18/N17,0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="O25" s="39">
+        <f t="shared" ref="O25:P25" si="35">IFERROR(O18/O17,0)</f>
+        <v>7.2878329628684915E-2</v>
+      </c>
+      <c r="P25" s="39">
+        <f t="shared" si="35"/>
+        <v>0.12968907045358752</v>
+      </c>
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" s="45" customFormat="1" x14ac:dyDescent="0.15">
@@ -11035,11 +10597,10 @@
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
-      <c r="F26" s="65"/>
+      <c r="F26" s="60"/>
       <c r="I26" s="43"/>
-      <c r="J26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="51"/>
+      <c r="J26" s="60"/>
+      <c r="N26" s="60"/>
     </row>
     <row r="27" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="12" t="s">
@@ -11050,47 +10611,53 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="34">
-        <f>IFERROR((F8/B8)-1,0)</f>
+        <f t="shared" ref="F27:Q27" si="36">IFERROR((F8/B8)-1,0)</f>
         <v>0.67758427863876003</v>
       </c>
       <c r="G27" s="33">
-        <f>IFERROR((G8/C8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.57203860574920151</v>
       </c>
       <c r="H27" s="33">
-        <f>IFERROR((H8/D8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.19214285714285717</v>
       </c>
       <c r="I27" s="33">
-        <f>IFERROR((I8/E8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.43519524178950086</v>
       </c>
       <c r="J27" s="34">
-        <f>IFERROR((J8/F8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.4696904761904761</v>
       </c>
       <c r="K27" s="33">
-        <f>IFERROR((K8/G8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.48901305183189425</v>
       </c>
       <c r="L27" s="33">
-        <f>IFERROR((L8/H8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.4767525464349911</v>
       </c>
       <c r="M27" s="33">
-        <f>IFERROR((M8/I8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.51227950053154125</v>
       </c>
       <c r="N27" s="34">
-        <f>IFERROR((N8/J8)-1,0)</f>
+        <f t="shared" si="36"/>
         <v>0.47828340920504808</v>
       </c>
-      <c r="O27" s="34">
-        <f>IFERROR((O8/K8)-1,0)</f>
-        <v>0.39416231608922625</v>
-      </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
+      <c r="O27" s="33">
+        <f t="shared" si="36"/>
+        <v>0.47901340768865674</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="36"/>
+        <v>0.54396072544325857</v>
+      </c>
+      <c r="Q27" s="33">
+        <f t="shared" si="36"/>
+        <v>0.40593351602525907</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
@@ -11101,43 +10668,49 @@
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="36">
-        <f>F11/B11-1</f>
+        <f t="shared" ref="F28:P31" si="37">F11/B11-1</f>
         <v>0.5714285714285714</v>
       </c>
       <c r="G28" s="35">
-        <f>G11/C11-1</f>
+        <f t="shared" si="37"/>
         <v>0.625</v>
       </c>
       <c r="H28" s="35">
-        <f>H11/D11-1</f>
+        <f t="shared" si="37"/>
         <v>0.875</v>
       </c>
       <c r="I28" s="35">
-        <f>I11/E11-1</f>
+        <f t="shared" si="37"/>
         <v>0.66666666666666674</v>
       </c>
       <c r="J28" s="36">
-        <f>J11/F11-1</f>
+        <f t="shared" si="37"/>
         <v>0.63636363636363646</v>
       </c>
       <c r="K28" s="35">
-        <f>K11/G11-1</f>
+        <f t="shared" si="37"/>
         <v>0.46153846153846145</v>
       </c>
       <c r="L28" s="35">
-        <f>L11/H11-1</f>
+        <f t="shared" si="37"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="M28" s="35">
-        <f>M11/I11-1</f>
+        <f t="shared" si="37"/>
         <v>0.73333333333333339</v>
       </c>
       <c r="N28" s="36">
-        <f>N11/J11-1</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="O28" s="35">
+        <f t="shared" si="37"/>
+        <v>0.47368421052631571</v>
+      </c>
+      <c r="P28" s="35">
+        <f t="shared" si="37"/>
+        <v>0.10714285714285721</v>
+      </c>
       <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11149,43 +10722,49 @@
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
       <c r="F29" s="36">
-        <f>F12/B12-1</f>
+        <f t="shared" si="37"/>
         <v>0.46153846153846145</v>
       </c>
       <c r="G29" s="35">
-        <f>G12/C12-1</f>
+        <f t="shared" si="37"/>
         <v>0.53333333333333344</v>
       </c>
       <c r="H29" s="35">
-        <f>H12/D12-1</f>
+        <f t="shared" si="37"/>
         <v>0.41176470588235303</v>
       </c>
       <c r="I29" s="35">
-        <f>I12/E12-1</f>
+        <f t="shared" si="37"/>
         <v>0.64705882352941169</v>
       </c>
       <c r="J29" s="36">
-        <f>J12/F12-1</f>
+        <f t="shared" si="37"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="K29" s="35">
-        <f>K12/G12-1</f>
+        <f t="shared" si="37"/>
         <v>0.56521739130434789</v>
       </c>
       <c r="L29" s="35">
-        <f>L12/H12-1</f>
+        <f t="shared" si="37"/>
         <v>0.91666666666666674</v>
       </c>
       <c r="M29" s="35">
-        <f>M12/I12-1</f>
+        <f t="shared" si="37"/>
         <v>0.6785714285714286</v>
       </c>
       <c r="N29" s="36">
-        <f>N12/J12-1</f>
+        <f t="shared" si="37"/>
         <v>0.5161290322580645</v>
       </c>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="O29" s="35">
+        <f t="shared" si="37"/>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="P29" s="35">
+        <f t="shared" si="37"/>
+        <v>0.21739130434782616</v>
+      </c>
       <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11197,103 +10776,115 @@
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
       <c r="F30" s="36">
-        <f>F13/B13-1</f>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="G30" s="35">
-        <f>G13/C13-1</f>
+        <f t="shared" si="37"/>
         <v>4</v>
       </c>
       <c r="H30" s="35">
-        <f>H13/D13-1</f>
+        <f t="shared" si="37"/>
         <v>6.2</v>
       </c>
       <c r="I30" s="35">
-        <f>I13/E13-1</f>
+        <f t="shared" si="37"/>
         <v>1.2857142857142856</v>
       </c>
       <c r="J30" s="36">
-        <f>J13/F13-1</f>
+        <f t="shared" si="37"/>
         <v>0.14285714285714279</v>
       </c>
       <c r="K30" s="35">
-        <f>K13/G13-1</f>
+        <f t="shared" si="37"/>
         <v>-9.9999999999999978E-2</v>
       </c>
       <c r="L30" s="35">
-        <f>L13/H13-1</f>
+        <f t="shared" si="37"/>
         <v>-0.27777777777777779</v>
       </c>
       <c r="M30" s="35">
-        <f>M13/I13-1</f>
+        <f t="shared" si="37"/>
         <v>0.375</v>
       </c>
       <c r="N30" s="36">
-        <f>N13/J13-1</f>
+        <f t="shared" si="37"/>
         <v>0.625</v>
       </c>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="O30" s="35">
+        <f t="shared" si="37"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="P30" s="35">
+        <f t="shared" si="37"/>
+        <v>-0.15384615384615385</v>
+      </c>
       <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="38"/>
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="38">
-        <f>F14/B14-1</f>
+        <f t="shared" si="37"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="G31" s="37">
-        <f>G14/C14-1</f>
+        <f t="shared" si="37"/>
         <v>1.074074074074074</v>
       </c>
       <c r="H31" s="37">
-        <f>H14/D14-1</f>
+        <f t="shared" si="37"/>
         <v>1.5</v>
       </c>
       <c r="I31" s="37">
-        <f>I14/E14-1</f>
+        <f t="shared" si="37"/>
         <v>0.78787878787878785</v>
       </c>
       <c r="J31" s="38">
-        <f>J14/F14-1</f>
+        <f t="shared" si="37"/>
         <v>0.47727272727272729</v>
       </c>
       <c r="K31" s="37">
-        <f>K14/G14-1</f>
+        <f t="shared" si="37"/>
         <v>0.3035714285714286</v>
       </c>
       <c r="L31" s="37">
-        <f>L14/H14-1</f>
+        <f t="shared" si="37"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="M31" s="37">
-        <f>M14/I14-1</f>
+        <f t="shared" si="37"/>
         <v>0.61016949152542366</v>
       </c>
       <c r="N31" s="38">
-        <f>N14/J14-1</f>
+        <f t="shared" si="37"/>
         <v>0.63076923076923075</v>
       </c>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="O31" s="37">
+        <f t="shared" si="37"/>
+        <v>0.36986301369863006</v>
+      </c>
+      <c r="P31" s="37">
+        <f t="shared" si="37"/>
+        <v>9.000000000000008E-2</v>
+      </c>
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B32" s="52"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="K32" s="51"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="K32" s="48"/>
     </row>
     <row r="33" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="12" t="s">
@@ -11302,31 +10893,37 @@
       <c r="B33" s="23"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="26">
-        <f t="shared" ref="I33" si="26">I34-I35</f>
+        <f t="shared" ref="I33" si="38">I34-I35</f>
         <v>151</v>
       </c>
       <c r="J33" s="22"/>
-      <c r="K33" s="51"/>
+      <c r="K33" s="48"/>
       <c r="L33" s="26">
-        <f t="shared" ref="L33" si="27">L34-L35</f>
+        <f t="shared" ref="L33" si="39">L34-L35</f>
         <v>645</v>
       </c>
       <c r="M33" s="26">
-        <f t="shared" ref="M33" si="28">M34-M35</f>
+        <f t="shared" ref="M33" si="40">M34-M35</f>
         <v>637</v>
       </c>
       <c r="N33" s="27">
-        <f t="shared" ref="N33" si="29">N34-N35</f>
+        <f t="shared" ref="N33:P33" si="41">N34-N35</f>
         <v>588</v>
       </c>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
+      <c r="O33" s="26">
+        <f t="shared" si="41"/>
+        <v>694</v>
+      </c>
+      <c r="P33" s="26">
+        <f t="shared" si="41"/>
+        <v>676</v>
+      </c>
+      <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
@@ -11335,15 +10932,15 @@
       <c r="B34" s="23"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="24">
         <f>25+126</f>
         <v>151</v>
       </c>
-      <c r="K34" s="51"/>
+      <c r="K34" s="48"/>
       <c r="L34" s="24">
         <f>502+143</f>
         <v>645</v>
@@ -11355,6 +10952,14 @@
       <c r="N34" s="23">
         <f>109+479</f>
         <v>588</v>
+      </c>
+      <c r="O34" s="24">
+        <f>314+755</f>
+        <v>1069</v>
+      </c>
+      <c r="P34" s="21">
+        <f>112+939</f>
+        <v>1051</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11364,14 +10969,14 @@
       <c r="B35" s="23"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="24">
         <v>0</v>
       </c>
-      <c r="K35" s="51"/>
+      <c r="K35" s="48"/>
       <c r="L35" s="24">
         <v>0</v>
       </c>
@@ -11380,17 +10985,23 @@
       </c>
       <c r="N35" s="23">
         <v>0</v>
+      </c>
+      <c r="O35" s="24">
+        <v>375</v>
+      </c>
+      <c r="P35" s="21">
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B36" s="23"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="K36" s="51"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="K36" s="48"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="19" t="s">
@@ -11399,14 +11010,14 @@
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="24">
         <v>4</v>
       </c>
-      <c r="K37" s="51"/>
+      <c r="K37" s="48"/>
       <c r="L37" s="24">
         <v>4</v>
       </c>
@@ -11415,6 +11026,14 @@
       </c>
       <c r="N37" s="23">
         <f>16+5</f>
+        <v>21</v>
+      </c>
+      <c r="O37" s="24">
+        <f>17+4</f>
+        <v>21</v>
+      </c>
+      <c r="P37" s="21">
+        <f>17+4</f>
         <v>21</v>
       </c>
     </row>
@@ -11425,14 +11044,14 @@
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="51"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="24">
         <v>298</v>
       </c>
-      <c r="K38" s="51"/>
+      <c r="K38" s="48"/>
       <c r="L38" s="24">
         <v>840</v>
       </c>
@@ -11441,6 +11060,12 @@
       </c>
       <c r="N38" s="23">
         <v>859</v>
+      </c>
+      <c r="O38" s="24">
+        <v>1364</v>
+      </c>
+      <c r="P38" s="21">
+        <v>1371</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -11450,14 +11075,14 @@
       <c r="B39" s="23"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="24">
         <v>80</v>
       </c>
-      <c r="K39" s="51"/>
+      <c r="K39" s="48"/>
       <c r="L39" s="24">
         <v>99</v>
       </c>
@@ -11466,17 +11091,23 @@
       </c>
       <c r="N39" s="23">
         <v>152</v>
+      </c>
+      <c r="O39" s="24">
+        <v>528</v>
+      </c>
+      <c r="P39" s="21">
+        <v>545</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B40" s="23"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="K40" s="51"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
+      <c r="K40" s="48"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="19" t="s">
@@ -11485,26 +11116,34 @@
       <c r="B41" s="23"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="29">
-        <f t="shared" ref="I41:N41" si="30">I38-I34-I37</f>
+        <f t="shared" ref="I41:N41" si="42">I38-I34-I37</f>
         <v>143</v>
       </c>
-      <c r="K41" s="51"/>
+      <c r="K41" s="48"/>
       <c r="L41" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>191</v>
       </c>
       <c r="M41" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>190</v>
       </c>
       <c r="N41" s="30">
-        <f t="shared" si="30"/>
+        <f t="shared" si="42"/>
         <v>250</v>
+      </c>
+      <c r="O41" s="29">
+        <f t="shared" ref="O41:P41" si="43">O38-O34-O37</f>
+        <v>274</v>
+      </c>
+      <c r="P41" s="29">
+        <f t="shared" si="43"/>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -11514,15 +11153,15 @@
       <c r="B42" s="23"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="29">
-        <f t="shared" ref="I42" si="31">I38-I39</f>
+        <f t="shared" ref="I42" si="44">I38-I39</f>
         <v>218</v>
       </c>
-      <c r="K42" s="51"/>
+      <c r="K42" s="48"/>
       <c r="L42" s="29">
         <f>L38-L39</f>
         <v>741</v>
@@ -11532,19 +11171,27 @@
         <v>726</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" ref="N42" si="32">N38-N39</f>
+        <f t="shared" ref="N42" si="45">N38-N39</f>
         <v>707</v>
+      </c>
+      <c r="O42" s="29">
+        <f>O38-O39</f>
+        <v>836</v>
+      </c>
+      <c r="P42" s="29">
+        <f>P38-P39</f>
+        <v>826</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B43" s="23"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="K43" s="51"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="K43" s="48"/>
     </row>
     <row r="44" spans="1:17" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="25" t="s">
@@ -11553,30 +11200,36 @@
       <c r="B44" s="23"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="26">
-        <f t="shared" ref="I44:M44" si="33">SUM(F19:I19)</f>
+        <f t="shared" ref="I44:P44" si="46">SUM(F19:I19)</f>
         <v>-82.911000000000001</v>
       </c>
       <c r="J44" s="22"/>
-      <c r="K44" s="51"/>
+      <c r="K44" s="48"/>
       <c r="L44" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>-95.757999999999981</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="33"/>
+        <f t="shared" si="46"/>
         <v>-108.56899999999999</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" ref="N44" si="34">SUM(K19:N19)</f>
+        <f t="shared" ref="N44" si="47">SUM(K19:N19)</f>
         <v>-123.50699999999999</v>
       </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
+      <c r="O44" s="26">
+        <f t="shared" si="46"/>
+        <v>-128.374</v>
+      </c>
+      <c r="P44" s="26">
+        <f t="shared" si="46"/>
+        <v>-113.125</v>
+      </c>
       <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -11586,26 +11239,34 @@
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="37">
-        <f t="shared" ref="I45:N45" si="35">I44/I42</f>
+        <f t="shared" ref="I45:N45" si="48">I44/I42</f>
         <v>-0.38032568807339451</v>
       </c>
-      <c r="K45" s="51"/>
+      <c r="K45" s="48"/>
       <c r="L45" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>-0.12922807017543858</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>-0.14954407713498621</v>
       </c>
       <c r="N45" s="38">
-        <f t="shared" si="35"/>
+        <f t="shared" si="48"/>
         <v>-0.17469165487977367</v>
+      </c>
+      <c r="O45" s="37">
+        <f t="shared" ref="O45:P45" si="49">O44/O42</f>
+        <v>-0.15355741626794259</v>
+      </c>
+      <c r="P45" s="37">
+        <f t="shared" si="49"/>
+        <v>-0.13695520581113801</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -11615,26 +11276,34 @@
       <c r="B46" s="23"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="51"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="37">
-        <f t="shared" ref="I46:N46" si="36">I44/I38</f>
+        <f t="shared" ref="I46:N46" si="50">I44/I38</f>
         <v>-0.27822483221476513</v>
       </c>
-      <c r="K46" s="51"/>
+      <c r="K46" s="48"/>
       <c r="L46" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-0.11399761904761903</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-0.13064861612515041</v>
       </c>
       <c r="N46" s="38">
-        <f t="shared" si="36"/>
+        <f t="shared" si="50"/>
         <v>-0.1437799767171129</v>
+      </c>
+      <c r="O46" s="37">
+        <f t="shared" ref="O46:P46" si="51">O44/O38</f>
+        <v>-9.4115835777126094E-2</v>
+      </c>
+      <c r="P46" s="37">
+        <f t="shared" si="51"/>
+        <v>-8.2512764405543393E-2</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -11644,26 +11313,34 @@
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="51"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="37">
-        <f t="shared" ref="I47:N47" si="37">I44/(I42-I37)</f>
+        <f t="shared" ref="I47:N47" si="52">I44/(I42-I37)</f>
         <v>-0.38743457943925236</v>
       </c>
-      <c r="K47" s="51"/>
+      <c r="K47" s="48"/>
       <c r="L47" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-0.12992944369063769</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-0.15037257617728531</v>
       </c>
       <c r="N47" s="38">
-        <f t="shared" si="37"/>
+        <f t="shared" si="52"/>
         <v>-0.18003935860058307</v>
+      </c>
+      <c r="O47" s="37">
+        <f t="shared" ref="O47:P47" si="53">O44/(O42-O37)</f>
+        <v>-0.15751411042944785</v>
+      </c>
+      <c r="P47" s="37">
+        <f t="shared" si="53"/>
+        <v>-0.14052795031055901</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -11673,79 +11350,96 @@
       <c r="B48" s="23"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="37">
-        <f t="shared" ref="I48:N48" si="38">I44/I41</f>
+        <f t="shared" ref="I48:N48" si="54">I44/I41</f>
         <v>-0.57979720279720282</v>
       </c>
-      <c r="K48" s="51"/>
+      <c r="K48" s="48"/>
       <c r="L48" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>-0.50135078534031408</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>-0.5714157894736841</v>
       </c>
       <c r="N48" s="38">
-        <f t="shared" si="38"/>
+        <f t="shared" si="54"/>
         <v>-0.49402799999999997</v>
+      </c>
+      <c r="O48" s="37">
+        <f t="shared" ref="O48:P48" si="55">O44/O41</f>
+        <v>-0.46851824817518245</v>
+      </c>
+      <c r="P48" s="37">
+        <f t="shared" si="55"/>
+        <v>-0.37834448160535117</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B50" s="38"/>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="38">
-        <f>F3/B3-1</f>
+        <f t="shared" ref="F50:Q50" si="56">F3/B3-1</f>
         <v>0.67758427863876003</v>
       </c>
       <c r="G50" s="37">
-        <f>G3/C3-1</f>
+        <f t="shared" si="56"/>
         <v>0.57203860574920151</v>
       </c>
       <c r="H50" s="37">
-        <f>H3/D3-1</f>
+        <f t="shared" si="56"/>
         <v>0.19214285714285717</v>
       </c>
       <c r="I50" s="37">
-        <f>I3/E3-1</f>
+        <f t="shared" si="56"/>
         <v>0.43519524178950086</v>
       </c>
       <c r="J50" s="38">
-        <f>J3/F3-1</f>
+        <f t="shared" si="56"/>
         <v>0.4696904761904761</v>
       </c>
       <c r="K50" s="37">
-        <f>K3/G3-1</f>
+        <f t="shared" si="56"/>
         <v>0.48901305183189425</v>
       </c>
       <c r="L50" s="37">
-        <f>L3/H3-1</f>
+        <f t="shared" si="56"/>
         <v>0.4767525464349911</v>
       </c>
       <c r="M50" s="37">
-        <f>M3/I3-1</f>
+        <f t="shared" si="56"/>
         <v>0.51227950053154125</v>
       </c>
       <c r="N50" s="38">
-        <f>N3/J3-1</f>
+        <f t="shared" si="56"/>
         <v>0.47828340920504808</v>
       </c>
-      <c r="O50" s="37"/>
-      <c r="P50" s="37"/>
-      <c r="Q50" s="37"/>
+      <c r="O50" s="37">
+        <f t="shared" si="56"/>
+        <v>0.47901340768865674</v>
+      </c>
+      <c r="P50" s="37">
+        <f t="shared" si="56"/>
+        <v>0.5439607254432588</v>
+      </c>
+      <c r="Q50" s="37">
+        <f t="shared" si="56"/>
+        <v>0.40593351602525907</v>
+      </c>
     </row>
     <row r="52" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B52" s="38"/>
       <c r="C52" s="37"/>
@@ -11757,16 +11451,34 @@
       <c r="I52" s="37"/>
       <c r="J52" s="38"/>
       <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
+      <c r="L52" s="37">
+        <f>L5/H5-1</f>
+        <v>0.19725618319707894</v>
+      </c>
+      <c r="M52" s="37">
+        <f>M5/I5-1</f>
+        <v>0.22066598918982594</v>
+      </c>
+      <c r="N52" s="38">
+        <f>N5/J5-1</f>
+        <v>0.21301067228604453</v>
+      </c>
+      <c r="O52" s="37">
+        <f>O5/K5-1</f>
+        <v>0.23899209027903012</v>
+      </c>
+      <c r="P52" s="37">
+        <f>P5/L5-1</f>
+        <v>0.24673400340799634</v>
+      </c>
+      <c r="Q52" s="37">
+        <f>Q5/M5-1</f>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="53" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="38"/>
       <c r="C53" s="37"/>
@@ -11778,12 +11490,30 @@
       <c r="I53" s="37"/>
       <c r="J53" s="38"/>
       <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
+      <c r="L53" s="37">
+        <f>L6/H6-1</f>
+        <v>0.23344741681898218</v>
+      </c>
+      <c r="M53" s="37">
+        <f>M6/I6-1</f>
+        <v>0.23889705613512136</v>
+      </c>
+      <c r="N53" s="38">
+        <f>N6/J6-1</f>
+        <v>0.21868953256533974</v>
+      </c>
+      <c r="O53" s="37">
+        <f>O6/K6-1</f>
+        <v>0.19372304253820705</v>
+      </c>
+      <c r="P53" s="37">
+        <f>P6/L6-1</f>
+        <v>0.2384042796801733</v>
+      </c>
+      <c r="Q53" s="37">
+        <f>Q6/M6-1</f>
+        <v>0.12474681282020716</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -11798,7 +11528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
@@ -11813,18 +11543,18 @@
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>91</v>
+      <c r="B6" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
